--- a/data_luanvan/NH3 0.5.xlsx
+++ b/data_luanvan/NH3 0.5.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -324,7 +324,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -335,7 +335,7 @@
   <dimension ref="A2:QJ9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8490,2718 +8490,2718 @@
     </row>
     <row r="8" spans="1:452">
       <c r="A8">
-        <v>-0.114804246033959</v>
+        <v>-6.5893026269424296E-2</v>
       </c>
       <c r="B8">
-        <v>-0.113057500000671</v>
+        <v>-6.4565878674086793E-2</v>
       </c>
       <c r="C8">
-        <v>-0.111198927895947</v>
+        <v>-6.2824984558733907E-2</v>
       </c>
       <c r="D8">
-        <v>-0.109131083592376</v>
+        <v>-6.1642462425891699E-2</v>
       </c>
       <c r="E8">
-        <v>-0.107171197664387</v>
+        <v>-6.0575019923810702E-2</v>
       </c>
       <c r="F8">
-        <v>-0.10524899322083001</v>
+        <v>-5.9451155007590198E-2</v>
       </c>
       <c r="G8">
-        <v>-0.10363301345894101</v>
+        <v>-5.7777135359346601E-2</v>
       </c>
       <c r="H8">
-        <v>-0.102439625397708</v>
+        <v>-5.6765375716190503E-2</v>
       </c>
       <c r="I8">
-        <v>-0.100689013611933</v>
+        <v>-5.5658930572953298E-2</v>
       </c>
       <c r="J8">
-        <v>-9.8873337716839801E-2</v>
+        <v>-5.4358904791840003E-2</v>
       </c>
       <c r="K8">
-        <v>-9.6684771325726601E-2</v>
+        <v>-5.3225052106992E-2</v>
       </c>
       <c r="L8">
-        <v>-9.4120519529847596E-2</v>
+        <v>-5.2127018354124401E-2</v>
       </c>
       <c r="M8">
-        <v>-9.1727057957895805E-2</v>
+        <v>-5.1337999747305303E-2</v>
       </c>
       <c r="N8">
-        <v>-8.9879026461079606E-2</v>
+        <v>-5.0004042024664998E-2</v>
       </c>
       <c r="O8">
-        <v>-8.8158431362127795E-2</v>
+        <v>-4.8780260779271202E-2</v>
       </c>
       <c r="P8">
-        <v>-8.6299436247376807E-2</v>
+        <v>-4.7882245057837301E-2</v>
       </c>
       <c r="Q8">
-        <v>-8.4362012822159396E-2</v>
+        <v>-4.6962290632114802E-2</v>
       </c>
       <c r="R8">
-        <v>-8.2317597542902701E-2</v>
+        <v>-4.62697198407587E-2</v>
       </c>
       <c r="S8">
-        <v>-8.0628975156219099E-2</v>
+        <v>-4.54754132193071E-2</v>
       </c>
       <c r="T8">
-        <v>-7.8541149001081501E-2</v>
+        <v>-4.4686963441924403E-2</v>
       </c>
       <c r="U8">
-        <v>-7.6863156031076296E-2</v>
+        <v>-4.3764833880926703E-2</v>
       </c>
       <c r="V8">
-        <v>-7.5119964040670797E-2</v>
+        <v>-4.2858472643256602E-2</v>
       </c>
       <c r="W8">
-        <v>-7.3229219047499294E-2</v>
+        <v>-4.2014342159976098E-2</v>
       </c>
       <c r="X8">
-        <v>-7.1723607396500605E-2</v>
+        <v>-4.12641528563608E-2</v>
       </c>
       <c r="Y8">
-        <v>-7.0267682334989701E-2</v>
+        <v>-4.03402183731855E-2</v>
       </c>
       <c r="Z8">
-        <v>-6.8988666260638001E-2</v>
+        <v>-3.9747938111981199E-2</v>
       </c>
       <c r="AA8">
-        <v>-6.7795018391440406E-2</v>
+        <v>-3.9099649457075399E-2</v>
       </c>
       <c r="AB8">
-        <v>-6.6649439626706594E-2</v>
+        <v>-3.8459357327912398E-2</v>
       </c>
       <c r="AC8">
-        <v>-6.5718575269748294E-2</v>
+        <v>-3.7752164522568403E-2</v>
       </c>
       <c r="AD8">
-        <v>-6.4556286630336204E-2</v>
+        <v>-3.7173021128218603E-2</v>
       </c>
       <c r="AE8">
-        <v>-6.3334481631385803E-2</v>
+        <v>-3.6565568151693102E-2</v>
       </c>
       <c r="AF8">
-        <v>-6.2576912525857203E-2</v>
+        <v>-3.6037425269127697E-2</v>
       </c>
       <c r="AG8">
-        <v>-6.1469389328930098E-2</v>
+        <v>-3.5508492366273597E-2</v>
       </c>
       <c r="AH8">
-        <v>-6.0504140335342203E-2</v>
+        <v>-3.5106474755638002E-2</v>
       </c>
       <c r="AI8">
-        <v>-5.9703338011668501E-2</v>
+        <v>-3.44388374999492E-2</v>
       </c>
       <c r="AJ8">
-        <v>-5.88876214153123E-2</v>
+        <v>-3.4022798207495597E-2</v>
       </c>
       <c r="AK8">
-        <v>-5.8277034653438399E-2</v>
+        <v>-3.3682234685511903E-2</v>
       </c>
       <c r="AL8">
-        <v>-5.7631899015372003E-2</v>
+        <v>-3.3036158957920302E-2</v>
       </c>
       <c r="AM8">
-        <v>-5.6906425642015902E-2</v>
+        <v>-3.2782130231699E-2</v>
       </c>
       <c r="AN8">
-        <v>-5.6248567229735903E-2</v>
+        <v>-3.2370066178309398E-2</v>
       </c>
       <c r="AO8">
-        <v>-5.5578250439561203E-2</v>
+        <v>-3.19816543021995E-2</v>
       </c>
       <c r="AP8">
-        <v>-5.5085380669113303E-2</v>
+        <v>-3.1578746347767798E-2</v>
       </c>
       <c r="AQ8">
-        <v>-5.4391871372039498E-2</v>
+        <v>-3.1183880494891E-2</v>
       </c>
       <c r="AR8">
-        <v>-5.3943796797037397E-2</v>
+        <v>-3.07317386866999E-2</v>
       </c>
       <c r="AS8">
-        <v>-5.3193391476109603E-2</v>
+        <v>-3.0313831402510798E-2</v>
       </c>
       <c r="AT8">
-        <v>-5.2907368590093602E-2</v>
+        <v>-3.0096926308583599E-2</v>
       </c>
       <c r="AU8">
-        <v>-5.2368485399779403E-2</v>
+        <v>-2.9662943293091298E-2</v>
       </c>
       <c r="AV8">
-        <v>-5.1828750017094499E-2</v>
+        <v>-2.94520613993512E-2</v>
       </c>
       <c r="AW8">
-        <v>-5.1443977483120899E-2</v>
+        <v>-2.9063668731053399E-2</v>
       </c>
       <c r="AX8">
-        <v>-5.0993646354398202E-2</v>
+        <v>-2.8708360017858901E-2</v>
       </c>
       <c r="AY8">
-        <v>-5.0685015079595601E-2</v>
+        <v>-2.8534363561675401E-2</v>
       </c>
       <c r="AZ8">
-        <v>-5.0300132218127902E-2</v>
+        <v>-2.8247794484693198E-2</v>
       </c>
       <c r="BA8">
-        <v>-4.9878146541845303E-2</v>
+        <v>-2.7927062176450902E-2</v>
       </c>
       <c r="BB8">
-        <v>-4.9686929214464902E-2</v>
+        <v>-2.7423287868046001E-2</v>
       </c>
       <c r="BC8">
-        <v>-4.9339661503408301E-2</v>
+        <v>-2.7330617106947001E-2</v>
       </c>
       <c r="BD8">
-        <v>-4.8887137471015502E-2</v>
+        <v>-2.69765468613779E-2</v>
       </c>
       <c r="BE8">
-        <v>-4.8515967913466698E-2</v>
+        <v>-2.6779905662752401E-2</v>
       </c>
       <c r="BF8">
-        <v>-4.83173753348555E-2</v>
+        <v>-2.6416938322401301E-2</v>
       </c>
       <c r="BG8">
-        <v>-4.7923446383702203E-2</v>
+        <v>-2.61600776546984E-2</v>
       </c>
       <c r="BH8">
-        <v>-4.7702250012879803E-2</v>
+        <v>-2.57359758389656E-2</v>
       </c>
       <c r="BI8">
-        <v>-4.7594720664994102E-2</v>
+        <v>-2.5389129680977E-2</v>
       </c>
       <c r="BJ8">
-        <v>-4.7526152928795203E-2</v>
+        <v>-2.5251775671236501E-2</v>
       </c>
       <c r="BK8">
-        <v>-4.7402513428037897E-2</v>
+        <v>-2.49124817900984E-2</v>
       </c>
       <c r="BL8">
-        <v>-4.7247743318861501E-2</v>
+        <v>-2.4612267045076699E-2</v>
       </c>
       <c r="BM8">
-        <v>-4.6998650397738498E-2</v>
+        <v>-2.4183755542755099E-2</v>
       </c>
       <c r="BN8">
-        <v>-4.6809480042648101E-2</v>
+        <v>-2.38752754287751E-2</v>
       </c>
       <c r="BO8">
-        <v>-4.6343017051250601E-2</v>
+        <v>-2.3610423195519498E-2</v>
       </c>
       <c r="BP8">
-        <v>-4.5494135686522899E-2</v>
+        <v>-2.3212460934901102E-2</v>
       </c>
       <c r="BQ8">
-        <v>-4.4475132154221997E-2</v>
+        <v>-2.29353203071062E-2</v>
       </c>
       <c r="BR8">
-        <v>-4.3694940893832503E-2</v>
+        <v>-2.29133219538343E-2</v>
       </c>
       <c r="BS8">
-        <v>-4.3058643023942397E-2</v>
+        <v>-2.2633494655348599E-2</v>
       </c>
       <c r="BT8">
-        <v>-4.29539041491152E-2</v>
+        <v>-2.2376227332553601E-2</v>
       </c>
       <c r="BU8">
-        <v>-4.3179914329525899E-2</v>
+        <v>-2.2274052503761702E-2</v>
       </c>
       <c r="BV8">
-        <v>-4.3367231173521197E-2</v>
+        <v>-2.1977467669240299E-2</v>
       </c>
       <c r="BW8">
-        <v>-4.34414898861743E-2</v>
+        <v>-2.1672878974346999E-2</v>
       </c>
       <c r="BX8">
-        <v>-4.36145816855723E-2</v>
+        <v>-2.12349677085171E-2</v>
       </c>
       <c r="BY8">
-        <v>-4.3589984506303303E-2</v>
+        <v>-2.0926712484952901E-2</v>
       </c>
       <c r="BZ8">
-        <v>-4.35956568700165E-2</v>
+        <v>-2.0629041773739101E-2</v>
       </c>
       <c r="CA8">
-        <v>-4.3559992459915202E-2</v>
+        <v>-2.0282102009206798E-2</v>
       </c>
       <c r="CB8">
-        <v>-4.3634522325578101E-2</v>
+        <v>-1.9863262841305199E-2</v>
       </c>
       <c r="CC8">
-        <v>-4.3684975953601497E-2</v>
+        <v>-1.9556231512842699E-2</v>
       </c>
       <c r="CD8">
-        <v>-4.3803739582720998E-2</v>
+        <v>-1.9147039381985202E-2</v>
       </c>
       <c r="CE8">
-        <v>-4.3791143764653699E-2</v>
+        <v>-1.88854536440279E-2</v>
       </c>
       <c r="CF8">
-        <v>-4.4097909690505102E-2</v>
+        <v>-1.8420770319791901E-2</v>
       </c>
       <c r="CG8">
-        <v>-4.42454515891198E-2</v>
+        <v>-1.8091049571264801E-2</v>
       </c>
       <c r="CH8">
-        <v>-4.4281312225540499E-2</v>
+        <v>-1.77486173281373E-2</v>
       </c>
       <c r="CI8">
-        <v>-4.40221092602033E-2</v>
+        <v>-1.7270789728666799E-2</v>
       </c>
       <c r="CJ8">
-        <v>-4.2953175954381598E-2</v>
+        <v>-1.7121598375424402E-2</v>
       </c>
       <c r="CK8">
-        <v>-4.18698175851559E-2</v>
+        <v>-1.68621649187808E-2</v>
       </c>
       <c r="CL8">
-        <v>-4.1427924453495003E-2</v>
+        <v>-1.66728407786088E-2</v>
       </c>
       <c r="CM8">
-        <v>-4.1738816222794899E-2</v>
+        <v>-1.6419718110186499E-2</v>
       </c>
       <c r="CN8">
-        <v>-4.2019789277398599E-2</v>
+        <v>-1.60313547704206E-2</v>
       </c>
       <c r="CO8">
-        <v>-4.21670700849123E-2</v>
+        <v>-1.55916560754433E-2</v>
       </c>
       <c r="CP8">
-        <v>-4.22263016145926E-2</v>
+        <v>-1.54157887807628E-2</v>
       </c>
       <c r="CQ8">
-        <v>-4.2272397016754601E-2</v>
+        <v>-1.49750802512796E-2</v>
       </c>
       <c r="CR8">
-        <v>-4.2157168673448098E-2</v>
+        <v>-1.45750076429196E-2</v>
       </c>
       <c r="CS8">
-        <v>-4.2053034870137902E-2</v>
+        <v>-1.4326551908346001E-2</v>
       </c>
       <c r="CT8">
-        <v>-4.1965567331526198E-2</v>
+        <v>-1.3877887950777599E-2</v>
       </c>
       <c r="CU8">
-        <v>-4.1882647413599497E-2</v>
+        <v>-1.3630144600077301E-2</v>
       </c>
       <c r="CV8">
-        <v>-4.17016191006674E-2</v>
+        <v>-1.35485966345736E-2</v>
       </c>
       <c r="CW8">
-        <v>-4.1538650591733499E-2</v>
+        <v>-1.3181406704629001E-2</v>
       </c>
       <c r="CX8">
-        <v>-4.1404026963030097E-2</v>
+        <v>-1.2931194877497399E-2</v>
       </c>
       <c r="CY8">
-        <v>-4.1488570067037898E-2</v>
+        <v>-1.27663934302551E-2</v>
       </c>
       <c r="CZ8">
-        <v>-4.1420425746846401E-2</v>
+        <v>-1.25068575336326E-2</v>
       </c>
       <c r="DA8">
-        <v>-4.1433140224608297E-2</v>
+        <v>-1.2437955698606199E-2</v>
       </c>
       <c r="DB8">
-        <v>-4.1403022773483102E-2</v>
+        <v>-1.21824300455392E-2</v>
       </c>
       <c r="DC8">
-        <v>-4.1467446976901599E-2</v>
+        <v>-1.20205262587315E-2</v>
       </c>
       <c r="DD8">
-        <v>-4.1773346779026402E-2</v>
+        <v>-1.18193106932053E-2</v>
       </c>
       <c r="DE8">
-        <v>-4.1841343471933197E-2</v>
+        <v>-1.18217340088843E-2</v>
       </c>
       <c r="DF8">
-        <v>-4.1959541341003902E-2</v>
+        <v>-1.1613614416450001E-2</v>
       </c>
       <c r="DG8">
-        <v>-4.2062824833396302E-2</v>
+        <v>-1.1469175244685201E-2</v>
       </c>
       <c r="DH8">
-        <v>-4.2059484770064999E-2</v>
+        <v>-1.13175133232187E-2</v>
       </c>
       <c r="DI8">
-        <v>-4.2097505130620598E-2</v>
+        <v>-1.1188550391733399E-2</v>
       </c>
       <c r="DJ8">
-        <v>-4.2191229057482203E-2</v>
+        <v>-1.10677725794878E-2</v>
       </c>
       <c r="DK8">
-        <v>-4.2309221076864099E-2</v>
+        <v>-1.0976253557428199E-2</v>
       </c>
       <c r="DL8">
-        <v>-4.2274585218486802E-2</v>
+        <v>-1.08715284472662E-2</v>
       </c>
       <c r="DM8">
-        <v>-4.22138791736111E-2</v>
+        <v>-1.07792510815393E-2</v>
       </c>
       <c r="DN8">
-        <v>-4.1877666801708902E-2</v>
+        <v>-1.0670381926401001E-2</v>
       </c>
       <c r="DO8">
-        <v>-4.1665653032118798E-2</v>
+        <v>-1.05920579306356E-2</v>
       </c>
       <c r="DP8">
-        <v>-4.1661783004773599E-2</v>
+        <v>-1.0520979945788E-2</v>
       </c>
       <c r="DQ8">
-        <v>-4.1640728761914297E-2</v>
+        <v>-1.05556812119059E-2</v>
       </c>
       <c r="DR8">
-        <v>-4.1604163101223897E-2</v>
+        <v>-1.04097646933029E-2</v>
       </c>
       <c r="DS8">
-        <v>-4.1592641387442099E-2</v>
+        <v>-1.0351034639389099E-2</v>
       </c>
       <c r="DT8">
-        <v>-4.1621895564579098E-2</v>
+        <v>-1.0182676100600399E-2</v>
       </c>
       <c r="DU8">
-        <v>-4.16860730840376E-2</v>
+        <v>-1.0234682158593999E-2</v>
       </c>
       <c r="DV8">
-        <v>-4.1646181246179803E-2</v>
+        <v>-1.00695862637979E-2</v>
       </c>
       <c r="DW8">
-        <v>-4.1697249261246697E-2</v>
+        <v>-1.0055295785439599E-2</v>
       </c>
       <c r="DX8">
-        <v>-4.1577279554868202E-2</v>
+        <v>-9.9422223792815304E-3</v>
       </c>
       <c r="DY8">
-        <v>-4.1309557127817198E-2</v>
+        <v>-9.9668022135508197E-3</v>
       </c>
       <c r="DZ8">
-        <v>-4.1048027035530503E-2</v>
+        <v>-9.8497513203364799E-3</v>
       </c>
       <c r="EA8">
-        <v>-4.0572001521125299E-2</v>
+        <v>-9.7826079800442303E-3</v>
       </c>
       <c r="EB8">
-        <v>-3.9932767414790397E-2</v>
+        <v>-9.7553609888588501E-3</v>
       </c>
       <c r="EC8">
-        <v>-3.9574478517426001E-2</v>
+        <v>-9.7013689777356998E-3</v>
       </c>
       <c r="ED8">
-        <v>-3.9024250223702997E-2</v>
+        <v>-9.6497908005754706E-3</v>
       </c>
       <c r="EE8">
-        <v>-3.8995463621502899E-2</v>
+        <v>-9.6701625570978708E-3</v>
       </c>
       <c r="EF8">
-        <v>-3.9025215513298302E-2</v>
+        <v>-9.6373506109000903E-3</v>
       </c>
       <c r="EG8">
-        <v>-3.9041427939960897E-2</v>
+        <v>-9.5252799631732905E-3</v>
       </c>
       <c r="EH8">
-        <v>-3.92443805892407E-2</v>
+        <v>-9.5455653853661702E-3</v>
       </c>
       <c r="EI8">
-        <v>-3.9337645684924497E-2</v>
+        <v>-9.4720489775475397E-3</v>
       </c>
       <c r="EJ8">
-        <v>-3.9303255739082402E-2</v>
+        <v>-9.3902572647401403E-3</v>
       </c>
       <c r="EK8">
-        <v>-3.9290277934251501E-2</v>
+        <v>-9.3805050225309293E-3</v>
       </c>
       <c r="EL8">
-        <v>-3.91002648372447E-2</v>
+        <v>-9.3847967793326392E-3</v>
       </c>
       <c r="EM8">
-        <v>-3.9093263036739101E-2</v>
+        <v>-9.3452649756180506E-3</v>
       </c>
       <c r="EN8">
-        <v>-3.8748384074111297E-2</v>
+        <v>-9.2775436337358894E-3</v>
       </c>
       <c r="EO8">
-        <v>-3.85888949017461E-2</v>
+        <v>-9.1808459677442493E-3</v>
       </c>
       <c r="EP8">
-        <v>-3.8348963729356401E-2</v>
+        <v>-9.1532746967988698E-3</v>
       </c>
       <c r="EQ8">
-        <v>-3.7907093807698702E-2</v>
+        <v>-9.1641223786242208E-3</v>
       </c>
       <c r="ER8">
-        <v>-3.73961722161857E-2</v>
+        <v>-8.9981585288034498E-3</v>
       </c>
       <c r="ES8">
-        <v>-3.7081469362411301E-2</v>
+        <v>-8.9792071982060604E-3</v>
       </c>
       <c r="ET8">
-        <v>-3.6769273882522303E-2</v>
+        <v>-8.9119900671495306E-3</v>
       </c>
       <c r="EU8">
-        <v>-3.6151143969653902E-2</v>
+        <v>-8.9317581245635502E-3</v>
       </c>
       <c r="EV8">
-        <v>-3.5592983165815599E-2</v>
+        <v>-8.8000872951195692E-3</v>
       </c>
       <c r="EW8">
-        <v>-3.4927597998115199E-2</v>
+        <v>-8.7905169304836397E-3</v>
       </c>
       <c r="EX8">
-        <v>-3.4276205581286003E-2</v>
+        <v>-8.7577118060782801E-3</v>
       </c>
       <c r="EY8">
-        <v>-3.3822419140500201E-2</v>
+        <v>-8.7173162229080593E-3</v>
       </c>
       <c r="EZ8">
-        <v>-3.3185558821060099E-2</v>
+        <v>-8.7757415582439893E-3</v>
       </c>
       <c r="FA8">
-        <v>-3.2687464827302497E-2</v>
+        <v>-8.7484134265632101E-3</v>
       </c>
       <c r="FB8">
-        <v>-3.2366545658323101E-2</v>
+        <v>-8.6152138613444992E-3</v>
       </c>
       <c r="FC8">
-        <v>-3.2104134012617302E-2</v>
+        <v>-8.5604462679278806E-3</v>
       </c>
       <c r="FD8">
-        <v>-3.18992898301379E-2</v>
+        <v>-8.5621490610884397E-3</v>
       </c>
       <c r="FE8">
-        <v>-3.1597845587774898E-2</v>
+        <v>-8.6238717071992002E-3</v>
       </c>
       <c r="FF8">
-        <v>-3.1438116479099103E-2</v>
+        <v>-8.5189284526661201E-3</v>
       </c>
       <c r="FG8">
-        <v>-3.1172434154221999E-2</v>
+        <v>-8.4259613876359503E-3</v>
       </c>
       <c r="FH8">
-        <v>-3.08112011445274E-2</v>
+        <v>-8.4545642874765802E-3</v>
       </c>
       <c r="FI8">
-        <v>-3.0566191108959698E-2</v>
+        <v>-8.3722802138183998E-3</v>
       </c>
       <c r="FJ8">
-        <v>-3.0013421553345399E-2</v>
+        <v>-8.3336891154391305E-3</v>
       </c>
       <c r="FK8">
-        <v>-2.97090321388436E-2</v>
+        <v>-8.22376781198636E-3</v>
       </c>
       <c r="FL8">
-        <v>-2.9563028841967501E-2</v>
+        <v>-8.1988956515109002E-3</v>
       </c>
       <c r="FM8">
-        <v>-2.92597482294863E-2</v>
+        <v>-8.1473226222793602E-3</v>
       </c>
       <c r="FN8">
-        <v>-2.89284885778174E-2</v>
+        <v>-8.1021034135764208E-3</v>
       </c>
       <c r="FO8">
-        <v>-2.87562145047606E-2</v>
+        <v>-7.9921338784845301E-3</v>
       </c>
       <c r="FP8">
-        <v>-2.8544417584209301E-2</v>
+        <v>-7.9722047674148592E-3</v>
       </c>
       <c r="FQ8">
-        <v>-2.8418978819570201E-2</v>
+        <v>-8.0079609719042096E-3</v>
       </c>
       <c r="FR8">
-        <v>-2.8187958544666599E-2</v>
+        <v>-7.8996061224385905E-3</v>
       </c>
       <c r="FS8">
-        <v>-2.8043867201014101E-2</v>
+        <v>-7.8490689720310397E-3</v>
       </c>
       <c r="FT8">
-        <v>-2.7868426154135699E-2</v>
+        <v>-7.8071106146660801E-3</v>
       </c>
       <c r="FU8">
-        <v>-2.7755706384490299E-2</v>
+        <v>-7.6770446571358198E-3</v>
       </c>
       <c r="FV8">
-        <v>-2.75772174544139E-2</v>
+        <v>-7.6771006731861597E-3</v>
       </c>
       <c r="FW8">
-        <v>-2.7465008698412698E-2</v>
+        <v>-7.6532082937099998E-3</v>
       </c>
       <c r="FX8">
-        <v>-2.73836657147766E-2</v>
+        <v>-7.5679537645551203E-3</v>
       </c>
       <c r="FY8">
-        <v>-2.7112407188075501E-2</v>
+        <v>-7.5651001406062002E-3</v>
       </c>
       <c r="FZ8">
-        <v>-2.70181730333354E-2</v>
+        <v>-7.5004299384680102E-3</v>
       </c>
       <c r="GA8">
-        <v>-2.6779570468511999E-2</v>
+        <v>-7.4332174282244704E-3</v>
       </c>
       <c r="GB8">
-        <v>-2.6615968074501801E-2</v>
+        <v>-7.4109391947419102E-3</v>
       </c>
       <c r="GC8">
-        <v>-2.64457842154905E-2</v>
+        <v>-7.2775405876057903E-3</v>
       </c>
       <c r="GD8">
-        <v>-2.6331769460897901E-2</v>
+        <v>-7.2840640684787503E-3</v>
       </c>
       <c r="GE8">
-        <v>-2.6224730911259601E-2</v>
+        <v>-7.0848629904620699E-3</v>
       </c>
       <c r="GF8">
-        <v>-2.61593735013958E-2</v>
+        <v>-7.1850996963362303E-3</v>
       </c>
       <c r="GG8">
-        <v>-2.6067444409413599E-2</v>
+        <v>-7.1282145263702398E-3</v>
       </c>
       <c r="GH8">
-        <v>-2.60242659208107E-2</v>
+        <v>-7.0585691827615401E-3</v>
       </c>
       <c r="GI8">
-        <v>-2.5688371877163399E-2</v>
+        <v>-7.0938438646777199E-3</v>
       </c>
       <c r="GJ8">
-        <v>-2.58143597419122E-2</v>
+        <v>-7.0101660106962E-3</v>
       </c>
       <c r="GK8">
-        <v>-2.5627375982710501E-2</v>
+        <v>-6.8746829648053103E-3</v>
       </c>
       <c r="GL8">
-        <v>-2.5514523761181102E-2</v>
+        <v>-6.9167430447380296E-3</v>
       </c>
       <c r="GM8">
-        <v>-2.53743307973224E-2</v>
+        <v>-6.8774691827904102E-3</v>
       </c>
       <c r="GN8">
-        <v>-2.5106364986299201E-2</v>
+        <v>-6.7934091663660904E-3</v>
       </c>
       <c r="GO8">
-        <v>-2.4990822732139199E-2</v>
+        <v>-6.7998014741153601E-3</v>
       </c>
       <c r="GP8">
-        <v>-2.4983161014051999E-2</v>
+        <v>-6.7011752598139804E-3</v>
       </c>
       <c r="GQ8">
-        <v>-2.4751233517379401E-2</v>
+        <v>-6.6603391298898197E-3</v>
       </c>
       <c r="GR8">
-        <v>-2.4747212664137701E-2</v>
+        <v>-6.6285913419983503E-3</v>
       </c>
       <c r="GS8">
-        <v>-2.4493441173847299E-2</v>
+        <v>-6.5800584921709296E-3</v>
       </c>
       <c r="GT8">
-        <v>-2.44650349446443E-2</v>
+        <v>-6.50550558357857E-3</v>
       </c>
       <c r="GU8">
-        <v>-2.4453234821161698E-2</v>
+        <v>-6.48918506138043E-3</v>
       </c>
       <c r="GV8">
-        <v>-2.4479987443506299E-2</v>
+        <v>-6.4102016027308599E-3</v>
       </c>
       <c r="GW8">
-        <v>-2.4391569625274299E-2</v>
+        <v>-6.3779361138004498E-3</v>
       </c>
       <c r="GX8">
-        <v>-2.4435629696921299E-2</v>
+        <v>-6.3486807026583696E-3</v>
       </c>
       <c r="GY8">
-        <v>-2.44510732844027E-2</v>
+        <v>-6.2789876023319801E-3</v>
       </c>
       <c r="GZ8">
-        <v>-2.43370246066743E-2</v>
+        <v>-6.1856082959428496E-3</v>
       </c>
       <c r="HA8">
-        <v>-2.4411634315955999E-2</v>
+        <v>-6.1691967557550098E-3</v>
       </c>
       <c r="HB8">
-        <v>-2.4522908176732298E-2</v>
+        <v>-6.0958918620063196E-3</v>
       </c>
       <c r="HC8">
-        <v>-2.4382189733390399E-2</v>
+        <v>-6.0094791016787998E-3</v>
       </c>
       <c r="HD8">
-        <v>-2.4408487703877501E-2</v>
+        <v>-5.9349166672138598E-3</v>
       </c>
       <c r="HE8">
-        <v>-2.4260925254341901E-2</v>
+        <v>-5.9235251773632897E-3</v>
       </c>
       <c r="HF8">
-        <v>-2.4366319607422499E-2</v>
+        <v>-5.9137518890051101E-3</v>
       </c>
       <c r="HG8">
-        <v>-2.4200568079226499E-2</v>
+        <v>-5.7706068055864198E-3</v>
       </c>
       <c r="HH8">
-        <v>-2.40717626376276E-2</v>
+        <v>-5.7081388068313203E-3</v>
       </c>
       <c r="HI8">
-        <v>-2.3840168031305099E-2</v>
+        <v>-5.6995644435909199E-3</v>
       </c>
       <c r="HJ8">
-        <v>-2.3674149219047799E-2</v>
+        <v>-5.6114084044901202E-3</v>
       </c>
       <c r="HK8">
-        <v>-2.34823613367161E-2</v>
+        <v>-5.6797609135289702E-3</v>
       </c>
       <c r="HL8">
-        <v>-2.3187787733123799E-2</v>
+        <v>-5.6429204735929097E-3</v>
       </c>
       <c r="HM8">
-        <v>-2.2985258732204701E-2</v>
+        <v>-5.4367486212134296E-3</v>
       </c>
       <c r="HN8">
-        <v>-2.2910532072715699E-2</v>
+        <v>-5.4645932611506499E-3</v>
       </c>
       <c r="HO8">
-        <v>-2.2794112720884899E-2</v>
+        <v>-5.4674345586052699E-3</v>
       </c>
       <c r="HP8">
-        <v>-2.2651880708908299E-2</v>
+        <v>-5.4600905400678098E-3</v>
       </c>
       <c r="HQ8">
-        <v>-2.2506193692550799E-2</v>
+        <v>-5.4499881328292201E-3</v>
       </c>
       <c r="HR8">
-        <v>-2.2518858306914798E-2</v>
+        <v>-5.1899856142518996E-3</v>
       </c>
       <c r="HS8">
-        <v>-2.2244504536473898E-2</v>
+        <v>-5.2343084237521801E-3</v>
       </c>
       <c r="HT8">
-        <v>-2.2190045486377898E-2</v>
+        <v>-5.0819717072453103E-3</v>
       </c>
       <c r="HU8">
-        <v>-2.1984883627862099E-2</v>
+        <v>-5.1562858669251402E-3</v>
       </c>
       <c r="HV8">
-        <v>-2.1749635770339299E-2</v>
+        <v>-5.0683989908179199E-3</v>
       </c>
       <c r="HW8">
-        <v>-2.1397254214508901E-2</v>
+        <v>-5.0702134753290596E-3</v>
       </c>
       <c r="HX8">
-        <v>-2.1074272827165098E-2</v>
+        <v>-5.0451216376879602E-3</v>
       </c>
       <c r="HY8">
-        <v>-2.0820349346327299E-2</v>
+        <v>-4.9346554946177699E-3</v>
       </c>
       <c r="HZ8">
-        <v>-2.0703122334699599E-2</v>
+        <v>-4.90883390995082E-3</v>
       </c>
       <c r="IA8">
-        <v>-2.0524690536220601E-2</v>
+        <v>-4.9446597870044604E-3</v>
       </c>
       <c r="IB8">
-        <v>-2.0490698032692E-2</v>
+        <v>-4.7583832626956497E-3</v>
       </c>
       <c r="IC8">
-        <v>-2.0556183145226298E-2</v>
+        <v>-4.7884595180463403E-3</v>
       </c>
       <c r="ID8">
-        <v>-2.0616605941190799E-2</v>
+        <v>-4.7155743839517204E-3</v>
       </c>
       <c r="IE8">
-        <v>-2.0622861678087301E-2</v>
+        <v>-4.6252298405548503E-3</v>
       </c>
       <c r="IF8">
-        <v>-2.05713064507471E-2</v>
+        <v>-4.56315194119453E-3</v>
       </c>
       <c r="IG8">
-        <v>-2.0641033734096599E-2</v>
+        <v>-4.5998240009859402E-3</v>
       </c>
       <c r="IH8">
-        <v>-2.0661260419854902E-2</v>
+        <v>-4.4670742792774004E-3</v>
       </c>
       <c r="II8">
-        <v>-2.0751491238198101E-2</v>
+        <v>-4.4407102287546598E-3</v>
       </c>
       <c r="IJ8">
-        <v>-2.0755236069183201E-2</v>
+        <v>-4.3350706847904699E-3</v>
       </c>
       <c r="IK8">
-        <v>-2.0678313860533998E-2</v>
+        <v>-4.3323280945446897E-3</v>
       </c>
       <c r="IL8">
-        <v>-2.07723094963E-2</v>
+        <v>-4.3164902482625703E-3</v>
       </c>
       <c r="IM8">
-        <v>-2.0780334728603099E-2</v>
+        <v>-4.1510757341648302E-3</v>
       </c>
       <c r="IN8">
-        <v>-2.0793228568941599E-2</v>
+        <v>-4.1162098705258797E-3</v>
       </c>
       <c r="IO8">
-        <v>-2.0857273982972602E-2</v>
+        <v>-4.0172541561636103E-3</v>
       </c>
       <c r="IP8">
-        <v>-2.0858529908178599E-2</v>
+        <v>-3.9783676904727502E-3</v>
       </c>
       <c r="IQ8">
-        <v>-2.0548723731929699E-2</v>
+        <v>-3.9943909215894198E-3</v>
       </c>
       <c r="IR8">
-        <v>-2.0313836228364499E-2</v>
+        <v>-3.9207874653121397E-3</v>
       </c>
       <c r="IS8">
-        <v>-2.00335587936206E-2</v>
+        <v>-3.8422632337749099E-3</v>
       </c>
       <c r="IT8">
-        <v>-1.9750377755739401E-2</v>
+        <v>-3.8364731672615999E-3</v>
       </c>
       <c r="IU8">
-        <v>-1.9628830732403599E-2</v>
+        <v>-3.7876723859995502E-3</v>
       </c>
       <c r="IV8">
-        <v>-1.95969966657734E-2</v>
+        <v>-3.8181707607606499E-3</v>
       </c>
       <c r="IW8">
-        <v>-1.9665267121753E-2</v>
+        <v>-3.7048295500137999E-3</v>
       </c>
       <c r="IX8">
-        <v>-1.9607758833392299E-2</v>
+        <v>-3.6684492811941399E-3</v>
       </c>
       <c r="IY8">
-        <v>-1.9606144311956699E-2</v>
+        <v>-3.6570633243660699E-3</v>
       </c>
       <c r="IZ8">
-        <v>-1.9644487134530798E-2</v>
+        <v>-3.68462265528111E-3</v>
       </c>
       <c r="JA8">
-        <v>-1.9462036575539E-2</v>
+        <v>-3.6048764893805299E-3</v>
       </c>
       <c r="JB8">
-        <v>-1.9448600225790799E-2</v>
+        <v>-3.5335486242785699E-3</v>
       </c>
       <c r="JC8">
-        <v>-1.9368885746808801E-2</v>
+        <v>-3.4857817055679099E-3</v>
       </c>
       <c r="JD8">
-        <v>-1.9348937001548699E-2</v>
+        <v>-3.46883055862826E-3</v>
       </c>
       <c r="JE8">
-        <v>-1.9298877492350399E-2</v>
+        <v>-3.4214164423130699E-3</v>
       </c>
       <c r="JF8">
-        <v>-1.91417009245444E-2</v>
+        <v>-3.4146132596797798E-3</v>
       </c>
       <c r="JG8">
-        <v>-1.9008933501199199E-2</v>
+        <v>-3.34048051526082E-3</v>
       </c>
       <c r="JH8">
-        <v>-1.8855703939135701E-2</v>
+        <v>-3.3750731156893302E-3</v>
       </c>
       <c r="JI8">
-        <v>-1.8633502158637801E-2</v>
+        <v>-3.3220928750446101E-3</v>
       </c>
       <c r="JJ8">
-        <v>-1.8599780685758099E-2</v>
+        <v>-3.2902574700177799E-3</v>
       </c>
       <c r="JK8">
-        <v>-1.8414640604242E-2</v>
+        <v>-3.20858141901604E-3</v>
       </c>
       <c r="JL8">
-        <v>-1.83072181994413E-2</v>
+        <v>-3.3025852038062299E-3</v>
       </c>
       <c r="JM8">
-        <v>-1.8112774725510698E-2</v>
+        <v>-3.19710114493966E-3</v>
       </c>
       <c r="JN8">
-        <v>-1.80158086962104E-2</v>
+        <v>-3.2722871564481999E-3</v>
       </c>
       <c r="JO8">
-        <v>-1.80159464536012E-2</v>
+        <v>-3.0924687959852401E-3</v>
       </c>
       <c r="JP8">
-        <v>-1.7885207113574001E-2</v>
+        <v>-3.0705637698068798E-3</v>
       </c>
       <c r="JQ8">
-        <v>-1.77067831332097E-2</v>
+        <v>-3.1266654385329901E-3</v>
       </c>
       <c r="JR8">
-        <v>-1.7743502183512901E-2</v>
+        <v>-3.1013641993393199E-3</v>
       </c>
       <c r="JS8">
-        <v>-1.77669673578221E-2</v>
+        <v>-2.9717674743390899E-3</v>
       </c>
       <c r="JT8">
-        <v>-1.7615259578382302E-2</v>
+        <v>-3.0462938662773999E-3</v>
       </c>
       <c r="JU8">
-        <v>-1.74639543474489E-2</v>
+        <v>-2.91101387644877E-3</v>
       </c>
       <c r="JV8">
-        <v>-1.75253474646445E-2</v>
+        <v>-3.0292697268815599E-3</v>
       </c>
       <c r="JW8">
-        <v>-1.7408868599676799E-2</v>
+        <v>-2.9232175936194098E-3</v>
       </c>
       <c r="JX8">
-        <v>-1.72918957050428E-2</v>
+        <v>-2.8884698485899898E-3</v>
       </c>
       <c r="JY8">
-        <v>-1.7321869497984699E-2</v>
+        <v>-2.92539078069344E-3</v>
       </c>
       <c r="JZ8">
-        <v>-1.7325897903712001E-2</v>
+        <v>-2.87101158697072E-3</v>
       </c>
       <c r="KA8">
-        <v>-1.72567984529035E-2</v>
+        <v>-2.8652088605657E-3</v>
       </c>
       <c r="KB8">
-        <v>-1.7188428169618401E-2</v>
+        <v>-2.8172265776091202E-3</v>
       </c>
       <c r="KC8">
-        <v>-1.72774233244305E-2</v>
+        <v>-2.7939771270359399E-3</v>
       </c>
       <c r="KD8">
-        <v>-1.7231486196536201E-2</v>
+        <v>-2.7285367521284699E-3</v>
       </c>
       <c r="KE8">
-        <v>-1.7245309186957301E-2</v>
+        <v>-2.7567636480010098E-3</v>
       </c>
       <c r="KF8">
-        <v>-1.71121896778119E-2</v>
+        <v>-2.8009882737618E-3</v>
       </c>
       <c r="KG8">
-        <v>-1.70993538441571E-2</v>
+        <v>-2.7165666600906802E-3</v>
       </c>
       <c r="KH8">
-        <v>-1.7164513117444099E-2</v>
+        <v>-2.7524136726884002E-3</v>
       </c>
       <c r="KI8">
-        <v>-1.6986589658166001E-2</v>
+        <v>-2.65492974034965E-3</v>
       </c>
       <c r="KJ8">
-        <v>-1.7060004549714E-2</v>
+        <v>-2.7527500550290399E-3</v>
       </c>
       <c r="KK8">
-        <v>-1.7037315290699601E-2</v>
+        <v>-2.6966138003821499E-3</v>
       </c>
       <c r="KL8">
-        <v>-1.6954043763981901E-2</v>
+        <v>-2.6069030780176698E-3</v>
       </c>
       <c r="KM8">
-        <v>-1.68768462776431E-2</v>
+        <v>-2.5581586880213001E-3</v>
       </c>
       <c r="KN8">
-        <v>-1.6851499411517399E-2</v>
+        <v>-2.6137688471127001E-3</v>
       </c>
       <c r="KO8">
-        <v>-1.6772858085282401E-2</v>
+        <v>-2.6598644978194099E-3</v>
       </c>
       <c r="KP8">
-        <v>-1.6732301377951501E-2</v>
+        <v>-2.45840899399758E-3</v>
       </c>
       <c r="KQ8">
-        <v>-1.6628417056380702E-2</v>
+        <v>-2.4833182969499E-3</v>
       </c>
       <c r="KR8">
-        <v>-1.6592653161835402E-2</v>
+        <v>-2.6153774151179E-3</v>
       </c>
       <c r="KS8">
-        <v>-1.65311042998516E-2</v>
+        <v>-2.5895827772848398E-3</v>
       </c>
       <c r="KT8">
-        <v>-1.63441182624522E-2</v>
+        <v>-2.5587012386770499E-3</v>
       </c>
       <c r="KU8">
-        <v>-1.6340071432454899E-2</v>
+        <v>-2.4916306344053198E-3</v>
       </c>
       <c r="KV8">
-        <v>-1.6331894357018699E-2</v>
+        <v>-2.4882209671096898E-3</v>
       </c>
       <c r="KW8">
-        <v>-1.62713198623935E-2</v>
+        <v>-2.5245437683614098E-3</v>
       </c>
       <c r="KX8">
-        <v>-1.62792359089193E-2</v>
+        <v>-2.5198866172438999E-3</v>
       </c>
       <c r="KY8">
-        <v>-1.6237680033098102E-2</v>
+        <v>-2.5616531352529799E-3</v>
       </c>
       <c r="KZ8">
-        <v>-1.6173406439033401E-2</v>
+        <v>-2.5088730004055701E-3</v>
       </c>
       <c r="LA8">
-        <v>-1.6234875951985701E-2</v>
+        <v>-2.4286761114514898E-3</v>
       </c>
       <c r="LB8">
-        <v>-1.6149583763566101E-2</v>
+        <v>-2.5442776343364598E-3</v>
       </c>
       <c r="LC8">
-        <v>-1.6086400249519298E-2</v>
+        <v>-2.4890802568945801E-3</v>
       </c>
       <c r="LD8">
-        <v>-1.61369917718895E-2</v>
+        <v>-2.5070878862190702E-3</v>
       </c>
       <c r="LE8">
-        <v>-1.6148825606676701E-2</v>
+        <v>-2.4897238589612698E-3</v>
       </c>
       <c r="LF8">
-        <v>-1.6171066290093301E-2</v>
+        <v>-2.4713654096088201E-3</v>
       </c>
       <c r="LG8">
-        <v>-1.6076200203922E-2</v>
+        <v>-2.35643237956755E-3</v>
       </c>
       <c r="LH8">
-        <v>-1.6054768710716701E-2</v>
+        <v>-2.3733269671020601E-3</v>
       </c>
       <c r="LI8">
-        <v>-1.59658508143628E-2</v>
+        <v>-2.3010925648339299E-3</v>
       </c>
       <c r="LJ8">
-        <v>-1.6080074508907E-2</v>
+        <v>-2.28664351561364E-3</v>
       </c>
       <c r="LK8">
-        <v>-1.6098453506315901E-2</v>
+        <v>-2.2945871904190601E-3</v>
       </c>
       <c r="LL8">
-        <v>-1.6037045192888202E-2</v>
+        <v>-2.35300751030618E-3</v>
       </c>
       <c r="LM8">
-        <v>-1.6053152043018801E-2</v>
+        <v>-2.2727642371230101E-3</v>
       </c>
       <c r="LN8">
-        <v>-1.6008301493088802E-2</v>
+        <v>-2.3400266669050501E-3</v>
       </c>
       <c r="LO8">
-        <v>-1.5902027382855601E-2</v>
+        <v>-2.2695874970302499E-3</v>
       </c>
       <c r="LP8">
-        <v>-1.59047386932239E-2</v>
+        <v>-2.2350455219850899E-3</v>
       </c>
       <c r="LQ8">
-        <v>-1.59020347189908E-2</v>
+        <v>-2.2423531793481898E-3</v>
       </c>
       <c r="LR8">
-        <v>-1.58150457977373E-2</v>
+        <v>-2.30747808319411E-3</v>
       </c>
       <c r="LS8">
-        <v>-1.57264941815159E-2</v>
+        <v>-2.2473488824886201E-3</v>
       </c>
       <c r="LT8">
-        <v>-1.57603375187324E-2</v>
+        <v>-2.2191304741563801E-3</v>
       </c>
       <c r="LU8">
-        <v>-1.5677690751515899E-2</v>
+        <v>-2.2444666793412001E-3</v>
       </c>
       <c r="LV8">
-        <v>-1.55715680809677E-2</v>
+        <v>-2.1982620833200699E-3</v>
       </c>
       <c r="LW8">
-        <v>-1.54950492207542E-2</v>
+        <v>-2.1826361367645901E-3</v>
       </c>
       <c r="LX8">
-        <v>-1.5439304167495199E-2</v>
+        <v>-2.2039814602228501E-3</v>
       </c>
       <c r="LY8">
-        <v>-1.5536713654144701E-2</v>
+        <v>-2.1247486717398999E-3</v>
       </c>
       <c r="LZ8">
-        <v>-1.55443052112716E-2</v>
+        <v>-2.0997390178690502E-3</v>
       </c>
       <c r="MA8">
-        <v>-1.54922469141562E-2</v>
+        <v>-2.2068313583308999E-3</v>
       </c>
       <c r="MB8">
-        <v>-1.54021409378618E-2</v>
+        <v>-2.1394451502588199E-3</v>
       </c>
       <c r="MC8">
-        <v>-1.54755242215814E-2</v>
+        <v>-2.2235839228095799E-3</v>
       </c>
       <c r="MD8">
-        <v>-1.52989023603227E-2</v>
+        <v>-2.1390955005813001E-3</v>
       </c>
       <c r="ME8">
-        <v>-1.52490169274944E-2</v>
+        <v>-2.0303732641940402E-3</v>
       </c>
       <c r="MF8">
-        <v>-1.52051051466181E-2</v>
+        <v>-2.0726131468035698E-3</v>
       </c>
       <c r="MG8">
-        <v>-1.5368117175382201E-2</v>
+        <v>-2.1924025027702599E-3</v>
       </c>
       <c r="MH8">
-        <v>-1.52019378545151E-2</v>
+        <v>-2.1325899297958101E-3</v>
       </c>
       <c r="MI8">
-        <v>-1.53000088228384E-2</v>
+        <v>-2.0282188135429999E-3</v>
       </c>
       <c r="MJ8">
-        <v>-1.5190809586346599E-2</v>
+        <v>-2.0847510961355901E-3</v>
       </c>
       <c r="MK8">
-        <v>-1.5224123908354901E-2</v>
+        <v>-2.0402562457153802E-3</v>
       </c>
       <c r="ML8">
-        <v>-1.52112648556956E-2</v>
+        <v>-2.1107200873573101E-3</v>
       </c>
       <c r="MM8">
-        <v>-1.5242562340939099E-2</v>
+        <v>-2.0737581732585301E-3</v>
       </c>
       <c r="MN8">
-        <v>-1.5164686131305999E-2</v>
+        <v>-2.1476247999565202E-3</v>
       </c>
       <c r="MO8">
-        <v>-1.52686990977063E-2</v>
+        <v>-2.0684272526816099E-3</v>
       </c>
       <c r="MP8">
-        <v>-1.51220587082544E-2</v>
+        <v>-2.1273413043617598E-3</v>
       </c>
       <c r="MQ8">
-        <v>-1.52467200686064E-2</v>
+        <v>-1.9777192865255699E-3</v>
       </c>
       <c r="MR8">
-        <v>-1.51873783425711E-2</v>
+        <v>-2.0453947700340399E-3</v>
       </c>
       <c r="MS8">
-        <v>-1.52149872926073E-2</v>
+        <v>-2.0268349555334999E-3</v>
       </c>
       <c r="MT8">
-        <v>-1.53012821366936E-2</v>
+        <v>-1.9888609502989102E-3</v>
       </c>
       <c r="MU8">
-        <v>-1.5200452448353901E-2</v>
+        <v>-2.0182711632174698E-3</v>
       </c>
       <c r="MV8">
-        <v>-1.5216514012754E-2</v>
+        <v>-1.9595948782962802E-3</v>
       </c>
       <c r="MW8">
-        <v>-1.5287292793115999E-2</v>
+        <v>-2.0324140438034602E-3</v>
       </c>
       <c r="MX8">
-        <v>-1.51329299810822E-2</v>
+        <v>-1.9344837697243E-3</v>
       </c>
       <c r="MY8">
-        <v>-1.5198504116278599E-2</v>
+        <v>-2.0444077210984199E-3</v>
       </c>
       <c r="MZ8">
-        <v>-1.51400184634839E-2</v>
+        <v>-1.9585622127447199E-3</v>
       </c>
       <c r="NA8">
-        <v>-1.51459965690607E-2</v>
+        <v>-2.0004038537739699E-3</v>
       </c>
       <c r="NB8">
-        <v>-1.5195354278584001E-2</v>
+        <v>-2.0636276176782399E-3</v>
       </c>
       <c r="NC8">
-        <v>-1.51285973144834E-2</v>
+        <v>-2.0536292039121198E-3</v>
       </c>
       <c r="ND8">
-        <v>-1.50364648008616E-2</v>
+        <v>-1.87993477252804E-3</v>
       </c>
       <c r="NE8">
-        <v>-1.4980122878412201E-2</v>
+        <v>-1.9461611822570899E-3</v>
       </c>
       <c r="NF8">
-        <v>-1.4940169481332701E-2</v>
+        <v>-1.9206816304995599E-3</v>
       </c>
       <c r="NG8">
-        <v>-1.47645667948989E-2</v>
+        <v>-1.83660526200577E-3</v>
       </c>
       <c r="NH8">
-        <v>-1.46923467240491E-2</v>
+        <v>-1.9317917713958801E-3</v>
       </c>
       <c r="NI8">
-        <v>-1.46940435629517E-2</v>
+        <v>-1.9140809706530201E-3</v>
       </c>
       <c r="NJ8">
-        <v>-1.45157078692772E-2</v>
+        <v>-1.87388887436779E-3</v>
       </c>
       <c r="NK8">
-        <v>-1.4484129523562201E-2</v>
+        <v>-1.8738640338977299E-3</v>
       </c>
       <c r="NL8">
-        <v>-1.449779616907E-2</v>
+        <v>-1.74633483890789E-3</v>
       </c>
       <c r="NM8">
-        <v>-1.4360632519036499E-2</v>
+        <v>-1.77313918434924E-3</v>
       </c>
       <c r="NN8">
-        <v>-1.43453473553488E-2</v>
+        <v>-1.8645354133827699E-3</v>
       </c>
       <c r="NO8">
-        <v>-1.4326738231673601E-2</v>
+        <v>-1.7663329606257901E-3</v>
       </c>
       <c r="NP8">
-        <v>-1.41692817859715E-2</v>
+        <v>-1.7813544077255601E-3</v>
       </c>
       <c r="NQ8">
-        <v>-1.4209431990680201E-2</v>
+        <v>-1.84483481732297E-3</v>
       </c>
       <c r="NR8">
-        <v>-1.4066224839951499E-2</v>
+        <v>-1.8423861560500801E-3</v>
       </c>
       <c r="NS8">
-        <v>-1.40291679352623E-2</v>
+        <v>-1.75900458482228E-3</v>
       </c>
       <c r="NT8">
-        <v>-1.39187170021961E-2</v>
+        <v>-1.77230890681185E-3</v>
       </c>
       <c r="NU8">
-        <v>-1.39649120753991E-2</v>
+        <v>-1.7387167382869799E-3</v>
       </c>
       <c r="NV8">
-        <v>-1.3922199207097899E-2</v>
+        <v>-1.8367465334605999E-3</v>
       </c>
       <c r="NW8">
-        <v>-1.3755582074929801E-2</v>
+        <v>-1.7401476162062499E-3</v>
       </c>
       <c r="NX8">
-        <v>-1.3738966724908999E-2</v>
+        <v>-1.73742468660579E-3</v>
       </c>
       <c r="NY8">
-        <v>-1.3617285455192999E-2</v>
+        <v>-1.71526878568397E-3</v>
       </c>
       <c r="NZ8">
-        <v>-1.3570413756421301E-2</v>
+        <v>-1.80143370868418E-3</v>
       </c>
       <c r="OA8">
-        <v>-1.3504095509148901E-2</v>
+        <v>-1.7244417459084201E-3</v>
       </c>
       <c r="OB8">
-        <v>-1.35439643788229E-2</v>
+        <v>-1.6707037379935E-3</v>
       </c>
       <c r="OC8">
-        <v>-1.33716493120006E-2</v>
+        <v>-1.75410452698086E-3</v>
       </c>
       <c r="OD8">
-        <v>-1.32485755553476E-2</v>
+        <v>-1.74860468030442E-3</v>
       </c>
       <c r="OE8">
-        <v>-1.32915817714418E-2</v>
+        <v>-1.69853838366169E-3</v>
       </c>
       <c r="OF8">
-        <v>-1.32122214478828E-2</v>
+        <v>-1.6869568072070901E-3</v>
       </c>
       <c r="OG8">
-        <v>-1.30565171174108E-2</v>
+        <v>-1.7853387382465401E-3</v>
       </c>
       <c r="OH8">
-        <v>-1.29685743753349E-2</v>
+        <v>-1.7055372064677099E-3</v>
       </c>
       <c r="OI8">
-        <v>-1.28758352183599E-2</v>
+        <v>-1.65791263426149E-3</v>
       </c>
       <c r="OJ8">
-        <v>-1.2901384459987999E-2</v>
+        <v>-1.7277791559050599E-3</v>
       </c>
       <c r="OK8">
-        <v>-1.25797397915465E-2</v>
+        <v>-1.7585004100835399E-3</v>
       </c>
       <c r="OL8">
-        <v>-1.25786853374572E-2</v>
+        <v>-1.6452164806614301E-3</v>
       </c>
       <c r="OM8">
-        <v>-1.25224490643142E-2</v>
+        <v>-1.56571561583528E-3</v>
       </c>
       <c r="ON8">
-        <v>-1.22629417859556E-2</v>
+        <v>-1.5592166831515199E-3</v>
       </c>
       <c r="OO8">
-        <v>-1.22871406466902E-2</v>
+        <v>-1.65090590406474E-3</v>
       </c>
       <c r="OP8">
-        <v>-1.22646154285694E-2</v>
+        <v>-1.70893168983492E-3</v>
       </c>
       <c r="OQ8">
-        <v>-1.1971339858821199E-2</v>
+        <v>-1.5551463476798299E-3</v>
       </c>
       <c r="OR8">
-        <v>-1.1912292557325699E-2</v>
+        <v>-1.58223719974536E-3</v>
       </c>
       <c r="OS8">
-        <v>-1.17553610361457E-2</v>
+        <v>-1.6129296554537301E-3</v>
       </c>
       <c r="OT8">
-        <v>-1.1649661797269201E-2</v>
+        <v>-1.5940836285945801E-3</v>
       </c>
       <c r="OU8">
-        <v>-1.1394472958060699E-2</v>
+        <v>-1.57636634139696E-3</v>
       </c>
       <c r="OV8">
-        <v>-1.14187176283358E-2</v>
+        <v>-1.54336035943557E-3</v>
       </c>
       <c r="OW8">
-        <v>-1.11336803909353E-2</v>
+        <v>-1.67056509153757E-3</v>
       </c>
       <c r="OX8">
-        <v>-1.0853643478013699E-2</v>
+        <v>-1.5848455520762401E-3</v>
       </c>
       <c r="OY8">
-        <v>-1.0658222915034999E-2</v>
+        <v>-1.55199100802583E-3</v>
       </c>
       <c r="OZ8">
-        <v>-1.05421610253526E-2</v>
+        <v>-1.5320014170169701E-3</v>
       </c>
       <c r="PA8">
-        <v>-1.0339229254019E-2</v>
+        <v>-1.50514594249125E-3</v>
       </c>
       <c r="PB8">
-        <v>-1.0226699907602801E-2</v>
+        <v>-1.553410928833E-3</v>
       </c>
       <c r="PC8">
-        <v>-1.00705577642162E-2</v>
+        <v>-1.62777871331973E-3</v>
       </c>
       <c r="PD8">
-        <v>-9.8737526206100802E-3</v>
+        <v>-1.56237840206608E-3</v>
       </c>
       <c r="PE8">
-        <v>-9.7742431636731204E-3</v>
+        <v>-1.5309145553389001E-3</v>
       </c>
       <c r="PF8">
-        <v>-9.6110821266699592E-3</v>
+        <v>-1.62270821048171E-3</v>
       </c>
       <c r="PG8">
-        <v>-9.4800809702308992E-3</v>
+        <v>-1.5354404003127999E-3</v>
       </c>
       <c r="PH8">
-        <v>-9.2723216472067899E-3</v>
+        <v>-1.46433270422968E-3</v>
       </c>
       <c r="PI8">
-        <v>-9.1457233560255299E-3</v>
+        <v>-1.4644372749569401E-3</v>
       </c>
       <c r="PJ8">
-        <v>-9.0476616452939591E-3</v>
+        <v>-1.46959181811762E-3</v>
       </c>
       <c r="PK8">
-        <v>-8.6989672358011704E-3</v>
+        <v>-1.4306623951870199E-3</v>
       </c>
       <c r="PL8">
-        <v>-8.8186832263644696E-3</v>
+        <v>-1.5042667886842899E-3</v>
       </c>
       <c r="PM8">
-        <v>-8.6082174898977192E-3</v>
+        <v>-1.5328197408003301E-3</v>
       </c>
       <c r="PN8">
-        <v>-8.5544152064994591E-3</v>
+        <v>-1.51820666257931E-3</v>
       </c>
       <c r="PO8">
-        <v>-8.4267625708398797E-3</v>
+        <v>-1.50225642992529E-3</v>
       </c>
       <c r="PP8">
-        <v>-8.3920568051524501E-3</v>
+        <v>-1.4893416256174E-3</v>
       </c>
       <c r="PQ8">
-        <v>-8.1172289932957397E-3</v>
+        <v>-1.51261486629941E-3</v>
       </c>
       <c r="PR8">
-        <v>-8.0678057435073901E-3</v>
+        <v>-1.41614027265703E-3</v>
       </c>
       <c r="PS8">
-        <v>-7.91858434689292E-3</v>
+        <v>-1.3662976629089101E-3</v>
       </c>
       <c r="PT8">
-        <v>-7.7339031452406098E-3</v>
+        <v>-1.38788873256623E-3</v>
       </c>
       <c r="PU8">
-        <v>-7.60980204300648E-3</v>
+        <v>-1.45236916829292E-3</v>
       </c>
       <c r="PV8">
-        <v>-7.5045796152489004E-3</v>
+        <v>-1.5135916613101799E-3</v>
       </c>
       <c r="PW8">
-        <v>-7.4871465953501998E-3</v>
+        <v>-1.47751603418866E-3</v>
       </c>
       <c r="PX8">
-        <v>-7.40688400094827E-3</v>
+        <v>-1.33320697892673E-3</v>
       </c>
       <c r="PY8">
-        <v>-7.30616003974745E-3</v>
+        <v>-1.3778599995394999E-3</v>
       </c>
       <c r="PZ8">
-        <v>-7.1392107476214196E-3</v>
+        <v>-1.4358326862397199E-3</v>
       </c>
       <c r="QA8">
-        <v>-6.9786732891633698E-3</v>
+        <v>-1.4625911611030799E-3</v>
       </c>
       <c r="QB8">
-        <v>-6.9249459687766596E-3</v>
+        <v>-1.4694954566540699E-3</v>
       </c>
       <c r="QC8">
-        <v>-6.9092759605291496E-3</v>
+        <v>-1.44934098555881E-3</v>
       </c>
       <c r="QD8">
-        <v>-6.8364514408090302E-3</v>
+        <v>-1.4721857305681301E-3</v>
       </c>
       <c r="QE8">
-        <v>-6.8887403150293802E-3</v>
+        <v>-1.4689131674050101E-3</v>
       </c>
       <c r="QF8">
-        <v>-6.6594241629971598E-3</v>
+        <v>-1.48046593316782E-3</v>
       </c>
       <c r="QG8">
-        <v>-6.50051688992365E-3</v>
+        <v>-1.4977897040169301E-3</v>
       </c>
       <c r="QH8">
-        <v>-6.41667402307264E-3</v>
+        <v>-1.6204564448026901E-3</v>
       </c>
       <c r="QI8">
-        <v>-6.2591118637998801E-3</v>
+        <v>-1.4991508271916E-3</v>
       </c>
       <c r="QJ8">
-        <v>-6.1652685817802696E-3</v>
+        <v>-1.5653151197731899E-3</v>
       </c>
     </row>
     <row r="9" spans="1:452">
       <c r="A9">
-        <v>-6.5893026269424296E-2</v>
+        <v>-0.114804246033959</v>
       </c>
       <c r="B9">
-        <v>-6.4565878674086793E-2</v>
+        <v>-0.113057500000671</v>
       </c>
       <c r="C9">
-        <v>-6.2824984558733907E-2</v>
+        <v>-0.111198927895947</v>
       </c>
       <c r="D9">
-        <v>-6.1642462425891699E-2</v>
+        <v>-0.109131083592376</v>
       </c>
       <c r="E9">
-        <v>-6.0575019923810702E-2</v>
+        <v>-0.107171197664387</v>
       </c>
       <c r="F9">
-        <v>-5.9451155007590198E-2</v>
+        <v>-0.10524899322083001</v>
       </c>
       <c r="G9">
-        <v>-5.7777135359346601E-2</v>
+        <v>-0.10363301345894101</v>
       </c>
       <c r="H9">
-        <v>-5.6765375716190503E-2</v>
+        <v>-0.102439625397708</v>
       </c>
       <c r="I9">
-        <v>-5.5658930572953298E-2</v>
+        <v>-0.100689013611933</v>
       </c>
       <c r="J9">
-        <v>-5.4358904791840003E-2</v>
+        <v>-9.8873337716839801E-2</v>
       </c>
       <c r="K9">
-        <v>-5.3225052106992E-2</v>
+        <v>-9.6684771325726601E-2</v>
       </c>
       <c r="L9">
-        <v>-5.2127018354124401E-2</v>
+        <v>-9.4120519529847596E-2</v>
       </c>
       <c r="M9">
-        <v>-5.1337999747305303E-2</v>
+        <v>-9.1727057957895805E-2</v>
       </c>
       <c r="N9">
-        <v>-5.0004042024664998E-2</v>
+        <v>-8.9879026461079606E-2</v>
       </c>
       <c r="O9">
-        <v>-4.8780260779271202E-2</v>
+        <v>-8.8158431362127795E-2</v>
       </c>
       <c r="P9">
-        <v>-4.7882245057837301E-2</v>
+        <v>-8.6299436247376807E-2</v>
       </c>
       <c r="Q9">
-        <v>-4.6962290632114802E-2</v>
+        <v>-8.4362012822159396E-2</v>
       </c>
       <c r="R9">
-        <v>-4.62697198407587E-2</v>
+        <v>-8.2317597542902701E-2</v>
       </c>
       <c r="S9">
-        <v>-4.54754132193071E-2</v>
+        <v>-8.0628975156219099E-2</v>
       </c>
       <c r="T9">
-        <v>-4.4686963441924403E-2</v>
+        <v>-7.8541149001081501E-2</v>
       </c>
       <c r="U9">
-        <v>-4.3764833880926703E-2</v>
+        <v>-7.6863156031076296E-2</v>
       </c>
       <c r="V9">
-        <v>-4.2858472643256602E-2</v>
+        <v>-7.5119964040670797E-2</v>
       </c>
       <c r="W9">
-        <v>-4.2014342159976098E-2</v>
+        <v>-7.3229219047499294E-2</v>
       </c>
       <c r="X9">
-        <v>-4.12641528563608E-2</v>
+        <v>-7.1723607396500605E-2</v>
       </c>
       <c r="Y9">
-        <v>-4.03402183731855E-2</v>
+        <v>-7.0267682334989701E-2</v>
       </c>
       <c r="Z9">
-        <v>-3.9747938111981199E-2</v>
+        <v>-6.8988666260638001E-2</v>
       </c>
       <c r="AA9">
-        <v>-3.9099649457075399E-2</v>
+        <v>-6.7795018391440406E-2</v>
       </c>
       <c r="AB9">
-        <v>-3.8459357327912398E-2</v>
+        <v>-6.6649439626706594E-2</v>
       </c>
       <c r="AC9">
-        <v>-3.7752164522568403E-2</v>
+        <v>-6.5718575269748294E-2</v>
       </c>
       <c r="AD9">
-        <v>-3.7173021128218603E-2</v>
+        <v>-6.4556286630336204E-2</v>
       </c>
       <c r="AE9">
-        <v>-3.6565568151693102E-2</v>
+        <v>-6.3334481631385803E-2</v>
       </c>
       <c r="AF9">
-        <v>-3.6037425269127697E-2</v>
+        <v>-6.2576912525857203E-2</v>
       </c>
       <c r="AG9">
-        <v>-3.5508492366273597E-2</v>
+        <v>-6.1469389328930098E-2</v>
       </c>
       <c r="AH9">
-        <v>-3.5106474755638002E-2</v>
+        <v>-6.0504140335342203E-2</v>
       </c>
       <c r="AI9">
-        <v>-3.44388374999492E-2</v>
+        <v>-5.9703338011668501E-2</v>
       </c>
       <c r="AJ9">
-        <v>-3.4022798207495597E-2</v>
+        <v>-5.88876214153123E-2</v>
       </c>
       <c r="AK9">
-        <v>-3.3682234685511903E-2</v>
+        <v>-5.8277034653438399E-2</v>
       </c>
       <c r="AL9">
-        <v>-3.3036158957920302E-2</v>
+        <v>-5.7631899015372003E-2</v>
       </c>
       <c r="AM9">
-        <v>-3.2782130231699E-2</v>
+        <v>-5.6906425642015902E-2</v>
       </c>
       <c r="AN9">
-        <v>-3.2370066178309398E-2</v>
+        <v>-5.6248567229735903E-2</v>
       </c>
       <c r="AO9">
-        <v>-3.19816543021995E-2</v>
+        <v>-5.5578250439561203E-2</v>
       </c>
       <c r="AP9">
-        <v>-3.1578746347767798E-2</v>
+        <v>-5.5085380669113303E-2</v>
       </c>
       <c r="AQ9">
-        <v>-3.1183880494891E-2</v>
+        <v>-5.4391871372039498E-2</v>
       </c>
       <c r="AR9">
-        <v>-3.07317386866999E-2</v>
+        <v>-5.3943796797037397E-2</v>
       </c>
       <c r="AS9">
-        <v>-3.0313831402510798E-2</v>
+        <v>-5.3193391476109603E-2</v>
       </c>
       <c r="AT9">
-        <v>-3.0096926308583599E-2</v>
+        <v>-5.2907368590093602E-2</v>
       </c>
       <c r="AU9">
-        <v>-2.9662943293091298E-2</v>
+        <v>-5.2368485399779403E-2</v>
       </c>
       <c r="AV9">
-        <v>-2.94520613993512E-2</v>
+        <v>-5.1828750017094499E-2</v>
       </c>
       <c r="AW9">
-        <v>-2.9063668731053399E-2</v>
+        <v>-5.1443977483120899E-2</v>
       </c>
       <c r="AX9">
-        <v>-2.8708360017858901E-2</v>
+        <v>-5.0993646354398202E-2</v>
       </c>
       <c r="AY9">
-        <v>-2.8534363561675401E-2</v>
+        <v>-5.0685015079595601E-2</v>
       </c>
       <c r="AZ9">
-        <v>-2.8247794484693198E-2</v>
+        <v>-5.0300132218127902E-2</v>
       </c>
       <c r="BA9">
-        <v>-2.7927062176450902E-2</v>
+        <v>-4.9878146541845303E-2</v>
       </c>
       <c r="BB9">
-        <v>-2.7423287868046001E-2</v>
+        <v>-4.9686929214464902E-2</v>
       </c>
       <c r="BC9">
-        <v>-2.7330617106947001E-2</v>
+        <v>-4.9339661503408301E-2</v>
       </c>
       <c r="BD9">
-        <v>-2.69765468613779E-2</v>
+        <v>-4.8887137471015502E-2</v>
       </c>
       <c r="BE9">
-        <v>-2.6779905662752401E-2</v>
+        <v>-4.8515967913466698E-2</v>
       </c>
       <c r="BF9">
-        <v>-2.6416938322401301E-2</v>
+        <v>-4.83173753348555E-2</v>
       </c>
       <c r="BG9">
-        <v>-2.61600776546984E-2</v>
+        <v>-4.7923446383702203E-2</v>
       </c>
       <c r="BH9">
-        <v>-2.57359758389656E-2</v>
+        <v>-4.7702250012879803E-2</v>
       </c>
       <c r="BI9">
-        <v>-2.5389129680977E-2</v>
+        <v>-4.7594720664994102E-2</v>
       </c>
       <c r="BJ9">
-        <v>-2.5251775671236501E-2</v>
+        <v>-4.7526152928795203E-2</v>
       </c>
       <c r="BK9">
-        <v>-2.49124817900984E-2</v>
+        <v>-4.7402513428037897E-2</v>
       </c>
       <c r="BL9">
-        <v>-2.4612267045076699E-2</v>
+        <v>-4.7247743318861501E-2</v>
       </c>
       <c r="BM9">
-        <v>-2.4183755542755099E-2</v>
+        <v>-4.6998650397738498E-2</v>
       </c>
       <c r="BN9">
-        <v>-2.38752754287751E-2</v>
+        <v>-4.6809480042648101E-2</v>
       </c>
       <c r="BO9">
-        <v>-2.3610423195519498E-2</v>
+        <v>-4.6343017051250601E-2</v>
       </c>
       <c r="BP9">
-        <v>-2.3212460934901102E-2</v>
+        <v>-4.5494135686522899E-2</v>
       </c>
       <c r="BQ9">
-        <v>-2.29353203071062E-2</v>
+        <v>-4.4475132154221997E-2</v>
       </c>
       <c r="BR9">
-        <v>-2.29133219538343E-2</v>
+        <v>-4.3694940893832503E-2</v>
       </c>
       <c r="BS9">
-        <v>-2.2633494655348599E-2</v>
+        <v>-4.3058643023942397E-2</v>
       </c>
       <c r="BT9">
-        <v>-2.2376227332553601E-2</v>
+        <v>-4.29539041491152E-2</v>
       </c>
       <c r="BU9">
-        <v>-2.2274052503761702E-2</v>
+        <v>-4.3179914329525899E-2</v>
       </c>
       <c r="BV9">
-        <v>-2.1977467669240299E-2</v>
+        <v>-4.3367231173521197E-2</v>
       </c>
       <c r="BW9">
-        <v>-2.1672878974346999E-2</v>
+        <v>-4.34414898861743E-2</v>
       </c>
       <c r="BX9">
-        <v>-2.12349677085171E-2</v>
+        <v>-4.36145816855723E-2</v>
       </c>
       <c r="BY9">
-        <v>-2.0926712484952901E-2</v>
+        <v>-4.3589984506303303E-2</v>
       </c>
       <c r="BZ9">
-        <v>-2.0629041773739101E-2</v>
+        <v>-4.35956568700165E-2</v>
       </c>
       <c r="CA9">
-        <v>-2.0282102009206798E-2</v>
+        <v>-4.3559992459915202E-2</v>
       </c>
       <c r="CB9">
-        <v>-1.9863262841305199E-2</v>
+        <v>-4.3634522325578101E-2</v>
       </c>
       <c r="CC9">
-        <v>-1.9556231512842699E-2</v>
+        <v>-4.3684975953601497E-2</v>
       </c>
       <c r="CD9">
-        <v>-1.9147039381985202E-2</v>
+        <v>-4.3803739582720998E-2</v>
       </c>
       <c r="CE9">
-        <v>-1.88854536440279E-2</v>
+        <v>-4.3791143764653699E-2</v>
       </c>
       <c r="CF9">
-        <v>-1.8420770319791901E-2</v>
+        <v>-4.4097909690505102E-2</v>
       </c>
       <c r="CG9">
-        <v>-1.8091049571264801E-2</v>
+        <v>-4.42454515891198E-2</v>
       </c>
       <c r="CH9">
-        <v>-1.77486173281373E-2</v>
+        <v>-4.4281312225540499E-2</v>
       </c>
       <c r="CI9">
-        <v>-1.7270789728666799E-2</v>
+        <v>-4.40221092602033E-2</v>
       </c>
       <c r="CJ9">
-        <v>-1.7121598375424402E-2</v>
+        <v>-4.2953175954381598E-2</v>
       </c>
       <c r="CK9">
-        <v>-1.68621649187808E-2</v>
+        <v>-4.18698175851559E-2</v>
       </c>
       <c r="CL9">
-        <v>-1.66728407786088E-2</v>
+        <v>-4.1427924453495003E-2</v>
       </c>
       <c r="CM9">
-        <v>-1.6419718110186499E-2</v>
+        <v>-4.1738816222794899E-2</v>
       </c>
       <c r="CN9">
-        <v>-1.60313547704206E-2</v>
+        <v>-4.2019789277398599E-2</v>
       </c>
       <c r="CO9">
-        <v>-1.55916560754433E-2</v>
+        <v>-4.21670700849123E-2</v>
       </c>
       <c r="CP9">
-        <v>-1.54157887807628E-2</v>
+        <v>-4.22263016145926E-2</v>
       </c>
       <c r="CQ9">
-        <v>-1.49750802512796E-2</v>
+        <v>-4.2272397016754601E-2</v>
       </c>
       <c r="CR9">
-        <v>-1.45750076429196E-2</v>
+        <v>-4.2157168673448098E-2</v>
       </c>
       <c r="CS9">
-        <v>-1.4326551908346001E-2</v>
+        <v>-4.2053034870137902E-2</v>
       </c>
       <c r="CT9">
-        <v>-1.3877887950777599E-2</v>
+        <v>-4.1965567331526198E-2</v>
       </c>
       <c r="CU9">
-        <v>-1.3630144600077301E-2</v>
+        <v>-4.1882647413599497E-2</v>
       </c>
       <c r="CV9">
-        <v>-1.35485966345736E-2</v>
+        <v>-4.17016191006674E-2</v>
       </c>
       <c r="CW9">
-        <v>-1.3181406704629001E-2</v>
+        <v>-4.1538650591733499E-2</v>
       </c>
       <c r="CX9">
-        <v>-1.2931194877497399E-2</v>
+        <v>-4.1404026963030097E-2</v>
       </c>
       <c r="CY9">
-        <v>-1.27663934302551E-2</v>
+        <v>-4.1488570067037898E-2</v>
       </c>
       <c r="CZ9">
-        <v>-1.25068575336326E-2</v>
+        <v>-4.1420425746846401E-2</v>
       </c>
       <c r="DA9">
-        <v>-1.2437955698606199E-2</v>
+        <v>-4.1433140224608297E-2</v>
       </c>
       <c r="DB9">
-        <v>-1.21824300455392E-2</v>
+        <v>-4.1403022773483102E-2</v>
       </c>
       <c r="DC9">
-        <v>-1.20205262587315E-2</v>
+        <v>-4.1467446976901599E-2</v>
       </c>
       <c r="DD9">
-        <v>-1.18193106932053E-2</v>
+        <v>-4.1773346779026402E-2</v>
       </c>
       <c r="DE9">
-        <v>-1.18217340088843E-2</v>
+        <v>-4.1841343471933197E-2</v>
       </c>
       <c r="DF9">
-        <v>-1.1613614416450001E-2</v>
+        <v>-4.1959541341003902E-2</v>
       </c>
       <c r="DG9">
-        <v>-1.1469175244685201E-2</v>
+        <v>-4.2062824833396302E-2</v>
       </c>
       <c r="DH9">
-        <v>-1.13175133232187E-2</v>
+        <v>-4.2059484770064999E-2</v>
       </c>
       <c r="DI9">
-        <v>-1.1188550391733399E-2</v>
+        <v>-4.2097505130620598E-2</v>
       </c>
       <c r="DJ9">
-        <v>-1.10677725794878E-2</v>
+        <v>-4.2191229057482203E-2</v>
       </c>
       <c r="DK9">
-        <v>-1.0976253557428199E-2</v>
+        <v>-4.2309221076864099E-2</v>
       </c>
       <c r="DL9">
-        <v>-1.08715284472662E-2</v>
+        <v>-4.2274585218486802E-2</v>
       </c>
       <c r="DM9">
-        <v>-1.07792510815393E-2</v>
+        <v>-4.22138791736111E-2</v>
       </c>
       <c r="DN9">
-        <v>-1.0670381926401001E-2</v>
+        <v>-4.1877666801708902E-2</v>
       </c>
       <c r="DO9">
-        <v>-1.05920579306356E-2</v>
+        <v>-4.1665653032118798E-2</v>
       </c>
       <c r="DP9">
-        <v>-1.0520979945788E-2</v>
+        <v>-4.1661783004773599E-2</v>
       </c>
       <c r="DQ9">
-        <v>-1.05556812119059E-2</v>
+        <v>-4.1640728761914297E-2</v>
       </c>
       <c r="DR9">
-        <v>-1.04097646933029E-2</v>
+        <v>-4.1604163101223897E-2</v>
       </c>
       <c r="DS9">
-        <v>-1.0351034639389099E-2</v>
+        <v>-4.1592641387442099E-2</v>
       </c>
       <c r="DT9">
-        <v>-1.0182676100600399E-2</v>
+        <v>-4.1621895564579098E-2</v>
       </c>
       <c r="DU9">
-        <v>-1.0234682158593999E-2</v>
+        <v>-4.16860730840376E-2</v>
       </c>
       <c r="DV9">
-        <v>-1.00695862637979E-2</v>
+        <v>-4.1646181246179803E-2</v>
       </c>
       <c r="DW9">
-        <v>-1.0055295785439599E-2</v>
+        <v>-4.1697249261246697E-2</v>
       </c>
       <c r="DX9">
-        <v>-9.9422223792815304E-3</v>
+        <v>-4.1577279554868202E-2</v>
       </c>
       <c r="DY9">
-        <v>-9.9668022135508197E-3</v>
+        <v>-4.1309557127817198E-2</v>
       </c>
       <c r="DZ9">
-        <v>-9.8497513203364799E-3</v>
+        <v>-4.1048027035530503E-2</v>
       </c>
       <c r="EA9">
-        <v>-9.7826079800442303E-3</v>
+        <v>-4.0572001521125299E-2</v>
       </c>
       <c r="EB9">
-        <v>-9.7553609888588501E-3</v>
+        <v>-3.9932767414790397E-2</v>
       </c>
       <c r="EC9">
-        <v>-9.7013689777356998E-3</v>
+        <v>-3.9574478517426001E-2</v>
       </c>
       <c r="ED9">
-        <v>-9.6497908005754706E-3</v>
+        <v>-3.9024250223702997E-2</v>
       </c>
       <c r="EE9">
-        <v>-9.6701625570978708E-3</v>
+        <v>-3.8995463621502899E-2</v>
       </c>
       <c r="EF9">
-        <v>-9.6373506109000903E-3</v>
+        <v>-3.9025215513298302E-2</v>
       </c>
       <c r="EG9">
-        <v>-9.5252799631732905E-3</v>
+        <v>-3.9041427939960897E-2</v>
       </c>
       <c r="EH9">
-        <v>-9.5455653853661702E-3</v>
+        <v>-3.92443805892407E-2</v>
       </c>
       <c r="EI9">
-        <v>-9.4720489775475397E-3</v>
+        <v>-3.9337645684924497E-2</v>
       </c>
       <c r="EJ9">
-        <v>-9.3902572647401403E-3</v>
+        <v>-3.9303255739082402E-2</v>
       </c>
       <c r="EK9">
-        <v>-9.3805050225309293E-3</v>
+        <v>-3.9290277934251501E-2</v>
       </c>
       <c r="EL9">
-        <v>-9.3847967793326392E-3</v>
+        <v>-3.91002648372447E-2</v>
       </c>
       <c r="EM9">
-        <v>-9.3452649756180506E-3</v>
+        <v>-3.9093263036739101E-2</v>
       </c>
       <c r="EN9">
-        <v>-9.2775436337358894E-3</v>
+        <v>-3.8748384074111297E-2</v>
       </c>
       <c r="EO9">
-        <v>-9.1808459677442493E-3</v>
+        <v>-3.85888949017461E-2</v>
       </c>
       <c r="EP9">
-        <v>-9.1532746967988698E-3</v>
+        <v>-3.8348963729356401E-2</v>
       </c>
       <c r="EQ9">
-        <v>-9.1641223786242208E-3</v>
+        <v>-3.7907093807698702E-2</v>
       </c>
       <c r="ER9">
-        <v>-8.9981585288034498E-3</v>
+        <v>-3.73961722161857E-2</v>
       </c>
       <c r="ES9">
-        <v>-8.9792071982060604E-3</v>
+        <v>-3.7081469362411301E-2</v>
       </c>
       <c r="ET9">
-        <v>-8.9119900671495306E-3</v>
+        <v>-3.6769273882522303E-2</v>
       </c>
       <c r="EU9">
-        <v>-8.9317581245635502E-3</v>
+        <v>-3.6151143969653902E-2</v>
       </c>
       <c r="EV9">
-        <v>-8.8000872951195692E-3</v>
+        <v>-3.5592983165815599E-2</v>
       </c>
       <c r="EW9">
-        <v>-8.7905169304836397E-3</v>
+        <v>-3.4927597998115199E-2</v>
       </c>
       <c r="EX9">
-        <v>-8.7577118060782801E-3</v>
+        <v>-3.4276205581286003E-2</v>
       </c>
       <c r="EY9">
-        <v>-8.7173162229080593E-3</v>
+        <v>-3.3822419140500201E-2</v>
       </c>
       <c r="EZ9">
-        <v>-8.7757415582439893E-3</v>
+        <v>-3.3185558821060099E-2</v>
       </c>
       <c r="FA9">
-        <v>-8.7484134265632101E-3</v>
+        <v>-3.2687464827302497E-2</v>
       </c>
       <c r="FB9">
-        <v>-8.6152138613444992E-3</v>
+        <v>-3.2366545658323101E-2</v>
       </c>
       <c r="FC9">
-        <v>-8.5604462679278806E-3</v>
+        <v>-3.2104134012617302E-2</v>
       </c>
       <c r="FD9">
-        <v>-8.5621490610884397E-3</v>
+        <v>-3.18992898301379E-2</v>
       </c>
       <c r="FE9">
-        <v>-8.6238717071992002E-3</v>
+        <v>-3.1597845587774898E-2</v>
       </c>
       <c r="FF9">
-        <v>-8.5189284526661201E-3</v>
+        <v>-3.1438116479099103E-2</v>
       </c>
       <c r="FG9">
-        <v>-8.4259613876359503E-3</v>
+        <v>-3.1172434154221999E-2</v>
       </c>
       <c r="FH9">
-        <v>-8.4545642874765802E-3</v>
+        <v>-3.08112011445274E-2</v>
       </c>
       <c r="FI9">
-        <v>-8.3722802138183998E-3</v>
+        <v>-3.0566191108959698E-2</v>
       </c>
       <c r="FJ9">
-        <v>-8.3336891154391305E-3</v>
+        <v>-3.0013421553345399E-2</v>
       </c>
       <c r="FK9">
-        <v>-8.22376781198636E-3</v>
+        <v>-2.97090321388436E-2</v>
       </c>
       <c r="FL9">
-        <v>-8.1988956515109002E-3</v>
+        <v>-2.9563028841967501E-2</v>
       </c>
       <c r="FM9">
-        <v>-8.1473226222793602E-3</v>
+        <v>-2.92597482294863E-2</v>
       </c>
       <c r="FN9">
-        <v>-8.1021034135764208E-3</v>
+        <v>-2.89284885778174E-2</v>
       </c>
       <c r="FO9">
-        <v>-7.9921338784845301E-3</v>
+        <v>-2.87562145047606E-2</v>
       </c>
       <c r="FP9">
-        <v>-7.9722047674148592E-3</v>
+        <v>-2.8544417584209301E-2</v>
       </c>
       <c r="FQ9">
-        <v>-8.0079609719042096E-3</v>
+        <v>-2.8418978819570201E-2</v>
       </c>
       <c r="FR9">
-        <v>-7.8996061224385905E-3</v>
+        <v>-2.8187958544666599E-2</v>
       </c>
       <c r="FS9">
-        <v>-7.8490689720310397E-3</v>
+        <v>-2.8043867201014101E-2</v>
       </c>
       <c r="FT9">
-        <v>-7.8071106146660801E-3</v>
+        <v>-2.7868426154135699E-2</v>
       </c>
       <c r="FU9">
-        <v>-7.6770446571358198E-3</v>
+        <v>-2.7755706384490299E-2</v>
       </c>
       <c r="FV9">
-        <v>-7.6771006731861597E-3</v>
+        <v>-2.75772174544139E-2</v>
       </c>
       <c r="FW9">
-        <v>-7.6532082937099998E-3</v>
+        <v>-2.7465008698412698E-2</v>
       </c>
       <c r="FX9">
-        <v>-7.5679537645551203E-3</v>
+        <v>-2.73836657147766E-2</v>
       </c>
       <c r="FY9">
-        <v>-7.5651001406062002E-3</v>
+        <v>-2.7112407188075501E-2</v>
       </c>
       <c r="FZ9">
-        <v>-7.5004299384680102E-3</v>
+        <v>-2.70181730333354E-2</v>
       </c>
       <c r="GA9">
-        <v>-7.4332174282244704E-3</v>
+        <v>-2.6779570468511999E-2</v>
       </c>
       <c r="GB9">
-        <v>-7.4109391947419102E-3</v>
+        <v>-2.6615968074501801E-2</v>
       </c>
       <c r="GC9">
-        <v>-7.2775405876057903E-3</v>
+        <v>-2.64457842154905E-2</v>
       </c>
       <c r="GD9">
-        <v>-7.2840640684787503E-3</v>
+        <v>-2.6331769460897901E-2</v>
       </c>
       <c r="GE9">
-        <v>-7.0848629904620699E-3</v>
+        <v>-2.6224730911259601E-2</v>
       </c>
       <c r="GF9">
-        <v>-7.1850996963362303E-3</v>
+        <v>-2.61593735013958E-2</v>
       </c>
       <c r="GG9">
-        <v>-7.1282145263702398E-3</v>
+        <v>-2.6067444409413599E-2</v>
       </c>
       <c r="GH9">
-        <v>-7.0585691827615401E-3</v>
+        <v>-2.60242659208107E-2</v>
       </c>
       <c r="GI9">
-        <v>-7.0938438646777199E-3</v>
+        <v>-2.5688371877163399E-2</v>
       </c>
       <c r="GJ9">
-        <v>-7.0101660106962E-3</v>
+        <v>-2.58143597419122E-2</v>
       </c>
       <c r="GK9">
-        <v>-6.8746829648053103E-3</v>
+        <v>-2.5627375982710501E-2</v>
       </c>
       <c r="GL9">
-        <v>-6.9167430447380296E-3</v>
+        <v>-2.5514523761181102E-2</v>
       </c>
       <c r="GM9">
-        <v>-6.8774691827904102E-3</v>
+        <v>-2.53743307973224E-2</v>
       </c>
       <c r="GN9">
-        <v>-6.7934091663660904E-3</v>
+        <v>-2.5106364986299201E-2</v>
       </c>
       <c r="GO9">
-        <v>-6.7998014741153601E-3</v>
+        <v>-2.4990822732139199E-2</v>
       </c>
       <c r="GP9">
-        <v>-6.7011752598139804E-3</v>
+        <v>-2.4983161014051999E-2</v>
       </c>
       <c r="GQ9">
-        <v>-6.6603391298898197E-3</v>
+        <v>-2.4751233517379401E-2</v>
       </c>
       <c r="GR9">
-        <v>-6.6285913419983503E-3</v>
+        <v>-2.4747212664137701E-2</v>
       </c>
       <c r="GS9">
-        <v>-6.5800584921709296E-3</v>
+        <v>-2.4493441173847299E-2</v>
       </c>
       <c r="GT9">
-        <v>-6.50550558357857E-3</v>
+        <v>-2.44650349446443E-2</v>
       </c>
       <c r="GU9">
-        <v>-6.48918506138043E-3</v>
+        <v>-2.4453234821161698E-2</v>
       </c>
       <c r="GV9">
-        <v>-6.4102016027308599E-3</v>
+        <v>-2.4479987443506299E-2</v>
       </c>
       <c r="GW9">
-        <v>-6.3779361138004498E-3</v>
+        <v>-2.4391569625274299E-2</v>
       </c>
       <c r="GX9">
-        <v>-6.3486807026583696E-3</v>
+        <v>-2.4435629696921299E-2</v>
       </c>
       <c r="GY9">
-        <v>-6.2789876023319801E-3</v>
+        <v>-2.44510732844027E-2</v>
       </c>
       <c r="GZ9">
-        <v>-6.1856082959428496E-3</v>
+        <v>-2.43370246066743E-2</v>
       </c>
       <c r="HA9">
-        <v>-6.1691967557550098E-3</v>
+        <v>-2.4411634315955999E-2</v>
       </c>
       <c r="HB9">
-        <v>-6.0958918620063196E-3</v>
+        <v>-2.4522908176732298E-2</v>
       </c>
       <c r="HC9">
-        <v>-6.0094791016787998E-3</v>
+        <v>-2.4382189733390399E-2</v>
       </c>
       <c r="HD9">
-        <v>-5.9349166672138598E-3</v>
+        <v>-2.4408487703877501E-2</v>
       </c>
       <c r="HE9">
-        <v>-5.9235251773632897E-3</v>
+        <v>-2.4260925254341901E-2</v>
       </c>
       <c r="HF9">
-        <v>-5.9137518890051101E-3</v>
+        <v>-2.4366319607422499E-2</v>
       </c>
       <c r="HG9">
-        <v>-5.7706068055864198E-3</v>
+        <v>-2.4200568079226499E-2</v>
       </c>
       <c r="HH9">
-        <v>-5.7081388068313203E-3</v>
+        <v>-2.40717626376276E-2</v>
       </c>
       <c r="HI9">
-        <v>-5.6995644435909199E-3</v>
+        <v>-2.3840168031305099E-2</v>
       </c>
       <c r="HJ9">
-        <v>-5.6114084044901202E-3</v>
+        <v>-2.3674149219047799E-2</v>
       </c>
       <c r="HK9">
-        <v>-5.6797609135289702E-3</v>
+        <v>-2.34823613367161E-2</v>
       </c>
       <c r="HL9">
-        <v>-5.6429204735929097E-3</v>
+        <v>-2.3187787733123799E-2</v>
       </c>
       <c r="HM9">
-        <v>-5.4367486212134296E-3</v>
+        <v>-2.2985258732204701E-2</v>
       </c>
       <c r="HN9">
-        <v>-5.4645932611506499E-3</v>
+        <v>-2.2910532072715699E-2</v>
       </c>
       <c r="HO9">
-        <v>-5.4674345586052699E-3</v>
+        <v>-2.2794112720884899E-2</v>
       </c>
       <c r="HP9">
-        <v>-5.4600905400678098E-3</v>
+        <v>-2.2651880708908299E-2</v>
       </c>
       <c r="HQ9">
-        <v>-5.4499881328292201E-3</v>
+        <v>-2.2506193692550799E-2</v>
       </c>
       <c r="HR9">
-        <v>-5.1899856142518996E-3</v>
+        <v>-2.2518858306914798E-2</v>
       </c>
       <c r="HS9">
-        <v>-5.2343084237521801E-3</v>
+        <v>-2.2244504536473898E-2</v>
       </c>
       <c r="HT9">
-        <v>-5.0819717072453103E-3</v>
+        <v>-2.2190045486377898E-2</v>
       </c>
       <c r="HU9">
-        <v>-5.1562858669251402E-3</v>
+        <v>-2.1984883627862099E-2</v>
       </c>
       <c r="HV9">
-        <v>-5.0683989908179199E-3</v>
+        <v>-2.1749635770339299E-2</v>
       </c>
       <c r="HW9">
-        <v>-5.0702134753290596E-3</v>
+        <v>-2.1397254214508901E-2</v>
       </c>
       <c r="HX9">
-        <v>-5.0451216376879602E-3</v>
+        <v>-2.1074272827165098E-2</v>
       </c>
       <c r="HY9">
-        <v>-4.9346554946177699E-3</v>
+        <v>-2.0820349346327299E-2</v>
       </c>
       <c r="HZ9">
-        <v>-4.90883390995082E-3</v>
+        <v>-2.0703122334699599E-2</v>
       </c>
       <c r="IA9">
-        <v>-4.9446597870044604E-3</v>
+        <v>-2.0524690536220601E-2</v>
       </c>
       <c r="IB9">
-        <v>-4.7583832626956497E-3</v>
+        <v>-2.0490698032692E-2</v>
       </c>
       <c r="IC9">
-        <v>-4.7884595180463403E-3</v>
+        <v>-2.0556183145226298E-2</v>
       </c>
       <c r="ID9">
-        <v>-4.7155743839517204E-3</v>
+        <v>-2.0616605941190799E-2</v>
       </c>
       <c r="IE9">
-        <v>-4.6252298405548503E-3</v>
+        <v>-2.0622861678087301E-2</v>
       </c>
       <c r="IF9">
-        <v>-4.56315194119453E-3</v>
+        <v>-2.05713064507471E-2</v>
       </c>
       <c r="IG9">
-        <v>-4.5998240009859402E-3</v>
+        <v>-2.0641033734096599E-2</v>
       </c>
       <c r="IH9">
-        <v>-4.4670742792774004E-3</v>
+        <v>-2.0661260419854902E-2</v>
       </c>
       <c r="II9">
-        <v>-4.4407102287546598E-3</v>
+        <v>-2.0751491238198101E-2</v>
       </c>
       <c r="IJ9">
-        <v>-4.3350706847904699E-3</v>
+        <v>-2.0755236069183201E-2</v>
       </c>
       <c r="IK9">
-        <v>-4.3323280945446897E-3</v>
+        <v>-2.0678313860533998E-2</v>
       </c>
       <c r="IL9">
-        <v>-4.3164902482625703E-3</v>
+        <v>-2.07723094963E-2</v>
       </c>
       <c r="IM9">
-        <v>-4.1510757341648302E-3</v>
+        <v>-2.0780334728603099E-2</v>
       </c>
       <c r="IN9">
-        <v>-4.1162098705258797E-3</v>
+        <v>-2.0793228568941599E-2</v>
       </c>
       <c r="IO9">
-        <v>-4.0172541561636103E-3</v>
+        <v>-2.0857273982972602E-2</v>
       </c>
       <c r="IP9">
-        <v>-3.9783676904727502E-3</v>
+        <v>-2.0858529908178599E-2</v>
       </c>
       <c r="IQ9">
-        <v>-3.9943909215894198E-3</v>
+        <v>-2.0548723731929699E-2</v>
       </c>
       <c r="IR9">
-        <v>-3.9207874653121397E-3</v>
+        <v>-2.0313836228364499E-2</v>
       </c>
       <c r="IS9">
-        <v>-3.8422632337749099E-3</v>
+        <v>-2.00335587936206E-2</v>
       </c>
       <c r="IT9">
-        <v>-3.8364731672615999E-3</v>
+        <v>-1.9750377755739401E-2</v>
       </c>
       <c r="IU9">
-        <v>-3.7876723859995502E-3</v>
+        <v>-1.9628830732403599E-2</v>
       </c>
       <c r="IV9">
-        <v>-3.8181707607606499E-3</v>
+        <v>-1.95969966657734E-2</v>
       </c>
       <c r="IW9">
-        <v>-3.7048295500137999E-3</v>
+        <v>-1.9665267121753E-2</v>
       </c>
       <c r="IX9">
-        <v>-3.6684492811941399E-3</v>
+        <v>-1.9607758833392299E-2</v>
       </c>
       <c r="IY9">
-        <v>-3.6570633243660699E-3</v>
+        <v>-1.9606144311956699E-2</v>
       </c>
       <c r="IZ9">
-        <v>-3.68462265528111E-3</v>
+        <v>-1.9644487134530798E-2</v>
       </c>
       <c r="JA9">
-        <v>-3.6048764893805299E-3</v>
+        <v>-1.9462036575539E-2</v>
       </c>
       <c r="JB9">
-        <v>-3.5335486242785699E-3</v>
+        <v>-1.9448600225790799E-2</v>
       </c>
       <c r="JC9">
-        <v>-3.4857817055679099E-3</v>
+        <v>-1.9368885746808801E-2</v>
       </c>
       <c r="JD9">
-        <v>-3.46883055862826E-3</v>
+        <v>-1.9348937001548699E-2</v>
       </c>
       <c r="JE9">
-        <v>-3.4214164423130699E-3</v>
+        <v>-1.9298877492350399E-2</v>
       </c>
       <c r="JF9">
-        <v>-3.4146132596797798E-3</v>
+        <v>-1.91417009245444E-2</v>
       </c>
       <c r="JG9">
-        <v>-3.34048051526082E-3</v>
+        <v>-1.9008933501199199E-2</v>
       </c>
       <c r="JH9">
-        <v>-3.3750731156893302E-3</v>
+        <v>-1.8855703939135701E-2</v>
       </c>
       <c r="JI9">
-        <v>-3.3220928750446101E-3</v>
+        <v>-1.8633502158637801E-2</v>
       </c>
       <c r="JJ9">
-        <v>-3.2902574700177799E-3</v>
+        <v>-1.8599780685758099E-2</v>
       </c>
       <c r="JK9">
-        <v>-3.20858141901604E-3</v>
+        <v>-1.8414640604242E-2</v>
       </c>
       <c r="JL9">
-        <v>-3.3025852038062299E-3</v>
+        <v>-1.83072181994413E-2</v>
       </c>
       <c r="JM9">
-        <v>-3.19710114493966E-3</v>
+        <v>-1.8112774725510698E-2</v>
       </c>
       <c r="JN9">
-        <v>-3.2722871564481999E-3</v>
+        <v>-1.80158086962104E-2</v>
       </c>
       <c r="JO9">
-        <v>-3.0924687959852401E-3</v>
+        <v>-1.80159464536012E-2</v>
       </c>
       <c r="JP9">
-        <v>-3.0705637698068798E-3</v>
+        <v>-1.7885207113574001E-2</v>
       </c>
       <c r="JQ9">
-        <v>-3.1266654385329901E-3</v>
+        <v>-1.77067831332097E-2</v>
       </c>
       <c r="JR9">
-        <v>-3.1013641993393199E-3</v>
+        <v>-1.7743502183512901E-2</v>
       </c>
       <c r="JS9">
-        <v>-2.9717674743390899E-3</v>
+        <v>-1.77669673578221E-2</v>
       </c>
       <c r="JT9">
-        <v>-3.0462938662773999E-3</v>
+        <v>-1.7615259578382302E-2</v>
       </c>
       <c r="JU9">
-        <v>-2.91101387644877E-3</v>
+        <v>-1.74639543474489E-2</v>
       </c>
       <c r="JV9">
-        <v>-3.0292697268815599E-3</v>
+        <v>-1.75253474646445E-2</v>
       </c>
       <c r="JW9">
-        <v>-2.9232175936194098E-3</v>
+        <v>-1.7408868599676799E-2</v>
       </c>
       <c r="JX9">
-        <v>-2.8884698485899898E-3</v>
+        <v>-1.72918957050428E-2</v>
       </c>
       <c r="JY9">
-        <v>-2.92539078069344E-3</v>
+        <v>-1.7321869497984699E-2</v>
       </c>
       <c r="JZ9">
-        <v>-2.87101158697072E-3</v>
+        <v>-1.7325897903712001E-2</v>
       </c>
       <c r="KA9">
-        <v>-2.8652088605657E-3</v>
+        <v>-1.72567984529035E-2</v>
       </c>
       <c r="KB9">
-        <v>-2.8172265776091202E-3</v>
+        <v>-1.7188428169618401E-2</v>
       </c>
       <c r="KC9">
-        <v>-2.7939771270359399E-3</v>
+        <v>-1.72774233244305E-2</v>
       </c>
       <c r="KD9">
-        <v>-2.7285367521284699E-3</v>
+        <v>-1.7231486196536201E-2</v>
       </c>
       <c r="KE9">
-        <v>-2.7567636480010098E-3</v>
+        <v>-1.7245309186957301E-2</v>
       </c>
       <c r="KF9">
-        <v>-2.8009882737618E-3</v>
+        <v>-1.71121896778119E-2</v>
       </c>
       <c r="KG9">
-        <v>-2.7165666600906802E-3</v>
+        <v>-1.70993538441571E-2</v>
       </c>
       <c r="KH9">
-        <v>-2.7524136726884002E-3</v>
+        <v>-1.7164513117444099E-2</v>
       </c>
       <c r="KI9">
-        <v>-2.65492974034965E-3</v>
+        <v>-1.6986589658166001E-2</v>
       </c>
       <c r="KJ9">
-        <v>-2.7527500550290399E-3</v>
+        <v>-1.7060004549714E-2</v>
       </c>
       <c r="KK9">
-        <v>-2.6966138003821499E-3</v>
+        <v>-1.7037315290699601E-2</v>
       </c>
       <c r="KL9">
-        <v>-2.6069030780176698E-3</v>
+        <v>-1.6954043763981901E-2</v>
       </c>
       <c r="KM9">
-        <v>-2.5581586880213001E-3</v>
+        <v>-1.68768462776431E-2</v>
       </c>
       <c r="KN9">
-        <v>-2.6137688471127001E-3</v>
+        <v>-1.6851499411517399E-2</v>
       </c>
       <c r="KO9">
-        <v>-2.6598644978194099E-3</v>
+        <v>-1.6772858085282401E-2</v>
       </c>
       <c r="KP9">
-        <v>-2.45840899399758E-3</v>
+        <v>-1.6732301377951501E-2</v>
       </c>
       <c r="KQ9">
-        <v>-2.4833182969499E-3</v>
+        <v>-1.6628417056380702E-2</v>
       </c>
       <c r="KR9">
-        <v>-2.6153774151179E-3</v>
+        <v>-1.6592653161835402E-2</v>
       </c>
       <c r="KS9">
-        <v>-2.5895827772848398E-3</v>
+        <v>-1.65311042998516E-2</v>
       </c>
       <c r="KT9">
-        <v>-2.5587012386770499E-3</v>
+        <v>-1.63441182624522E-2</v>
       </c>
       <c r="KU9">
-        <v>-2.4916306344053198E-3</v>
+        <v>-1.6340071432454899E-2</v>
       </c>
       <c r="KV9">
-        <v>-2.4882209671096898E-3</v>
+        <v>-1.6331894357018699E-2</v>
       </c>
       <c r="KW9">
-        <v>-2.5245437683614098E-3</v>
+        <v>-1.62713198623935E-2</v>
       </c>
       <c r="KX9">
-        <v>-2.5198866172438999E-3</v>
+        <v>-1.62792359089193E-2</v>
       </c>
       <c r="KY9">
-        <v>-2.5616531352529799E-3</v>
+        <v>-1.6237680033098102E-2</v>
       </c>
       <c r="KZ9">
-        <v>-2.5088730004055701E-3</v>
+        <v>-1.6173406439033401E-2</v>
       </c>
       <c r="LA9">
-        <v>-2.4286761114514898E-3</v>
+        <v>-1.6234875951985701E-2</v>
       </c>
       <c r="LB9">
-        <v>-2.5442776343364598E-3</v>
+        <v>-1.6149583763566101E-2</v>
       </c>
       <c r="LC9">
-        <v>-2.4890802568945801E-3</v>
+        <v>-1.6086400249519298E-2</v>
       </c>
       <c r="LD9">
-        <v>-2.5070878862190702E-3</v>
+        <v>-1.61369917718895E-2</v>
       </c>
       <c r="LE9">
-        <v>-2.4897238589612698E-3</v>
+        <v>-1.6148825606676701E-2</v>
       </c>
       <c r="LF9">
-        <v>-2.4713654096088201E-3</v>
+        <v>-1.6171066290093301E-2</v>
       </c>
       <c r="LG9">
-        <v>-2.35643237956755E-3</v>
+        <v>-1.6076200203922E-2</v>
       </c>
       <c r="LH9">
-        <v>-2.3733269671020601E-3</v>
+        <v>-1.6054768710716701E-2</v>
       </c>
       <c r="LI9">
-        <v>-2.3010925648339299E-3</v>
+        <v>-1.59658508143628E-2</v>
       </c>
       <c r="LJ9">
-        <v>-2.28664351561364E-3</v>
+        <v>-1.6080074508907E-2</v>
       </c>
       <c r="LK9">
-        <v>-2.2945871904190601E-3</v>
+        <v>-1.6098453506315901E-2</v>
       </c>
       <c r="LL9">
-        <v>-2.35300751030618E-3</v>
+        <v>-1.6037045192888202E-2</v>
       </c>
       <c r="LM9">
-        <v>-2.2727642371230101E-3</v>
+        <v>-1.6053152043018801E-2</v>
       </c>
       <c r="LN9">
-        <v>-2.3400266669050501E-3</v>
+        <v>-1.6008301493088802E-2</v>
       </c>
       <c r="LO9">
-        <v>-2.2695874970302499E-3</v>
+        <v>-1.5902027382855601E-2</v>
       </c>
       <c r="LP9">
-        <v>-2.2350455219850899E-3</v>
+        <v>-1.59047386932239E-2</v>
       </c>
       <c r="LQ9">
-        <v>-2.2423531793481898E-3</v>
+        <v>-1.59020347189908E-2</v>
       </c>
       <c r="LR9">
-        <v>-2.30747808319411E-3</v>
+        <v>-1.58150457977373E-2</v>
       </c>
       <c r="LS9">
-        <v>-2.2473488824886201E-3</v>
+        <v>-1.57264941815159E-2</v>
       </c>
       <c r="LT9">
-        <v>-2.2191304741563801E-3</v>
+        <v>-1.57603375187324E-2</v>
       </c>
       <c r="LU9">
-        <v>-2.2444666793412001E-3</v>
+        <v>-1.5677690751515899E-2</v>
       </c>
       <c r="LV9">
-        <v>-2.1982620833200699E-3</v>
+        <v>-1.55715680809677E-2</v>
       </c>
       <c r="LW9">
-        <v>-2.1826361367645901E-3</v>
+        <v>-1.54950492207542E-2</v>
       </c>
       <c r="LX9">
-        <v>-2.2039814602228501E-3</v>
+        <v>-1.5439304167495199E-2</v>
       </c>
       <c r="LY9">
-        <v>-2.1247486717398999E-3</v>
+        <v>-1.5536713654144701E-2</v>
       </c>
       <c r="LZ9">
-        <v>-2.0997390178690502E-3</v>
+        <v>-1.55443052112716E-2</v>
       </c>
       <c r="MA9">
-        <v>-2.2068313583308999E-3</v>
+        <v>-1.54922469141562E-2</v>
       </c>
       <c r="MB9">
-        <v>-2.1394451502588199E-3</v>
+        <v>-1.54021409378618E-2</v>
       </c>
       <c r="MC9">
-        <v>-2.2235839228095799E-3</v>
+        <v>-1.54755242215814E-2</v>
       </c>
       <c r="MD9">
-        <v>-2.1390955005813001E-3</v>
+        <v>-1.52989023603227E-2</v>
       </c>
       <c r="ME9">
-        <v>-2.0303732641940402E-3</v>
+        <v>-1.52490169274944E-2</v>
       </c>
       <c r="MF9">
-        <v>-2.0726131468035698E-3</v>
+        <v>-1.52051051466181E-2</v>
       </c>
       <c r="MG9">
-        <v>-2.1924025027702599E-3</v>
+        <v>-1.5368117175382201E-2</v>
       </c>
       <c r="MH9">
-        <v>-2.1325899297958101E-3</v>
+        <v>-1.52019378545151E-2</v>
       </c>
       <c r="MI9">
-        <v>-2.0282188135429999E-3</v>
+        <v>-1.53000088228384E-2</v>
       </c>
       <c r="MJ9">
-        <v>-2.0847510961355901E-3</v>
+        <v>-1.5190809586346599E-2</v>
       </c>
       <c r="MK9">
-        <v>-2.0402562457153802E-3</v>
+        <v>-1.5224123908354901E-2</v>
       </c>
       <c r="ML9">
-        <v>-2.1107200873573101E-3</v>
+        <v>-1.52112648556956E-2</v>
       </c>
       <c r="MM9">
-        <v>-2.0737581732585301E-3</v>
+        <v>-1.5242562340939099E-2</v>
       </c>
       <c r="MN9">
-        <v>-2.1476247999565202E-3</v>
+        <v>-1.5164686131305999E-2</v>
       </c>
       <c r="MO9">
-        <v>-2.0684272526816099E-3</v>
+        <v>-1.52686990977063E-2</v>
       </c>
       <c r="MP9">
-        <v>-2.1273413043617598E-3</v>
+        <v>-1.51220587082544E-2</v>
       </c>
       <c r="MQ9">
-        <v>-1.9777192865255699E-3</v>
+        <v>-1.52467200686064E-2</v>
       </c>
       <c r="MR9">
-        <v>-2.0453947700340399E-3</v>
+        <v>-1.51873783425711E-2</v>
       </c>
       <c r="MS9">
-        <v>-2.0268349555334999E-3</v>
+        <v>-1.52149872926073E-2</v>
       </c>
       <c r="MT9">
-        <v>-1.9888609502989102E-3</v>
+        <v>-1.53012821366936E-2</v>
       </c>
       <c r="MU9">
-        <v>-2.0182711632174698E-3</v>
+        <v>-1.5200452448353901E-2</v>
       </c>
       <c r="MV9">
-        <v>-1.9595948782962802E-3</v>
+        <v>-1.5216514012754E-2</v>
       </c>
       <c r="MW9">
-        <v>-2.0324140438034602E-3</v>
+        <v>-1.5287292793115999E-2</v>
       </c>
       <c r="MX9">
-        <v>-1.9344837697243E-3</v>
+        <v>-1.51329299810822E-2</v>
       </c>
       <c r="MY9">
-        <v>-2.0444077210984199E-3</v>
+        <v>-1.5198504116278599E-2</v>
       </c>
       <c r="MZ9">
-        <v>-1.9585622127447199E-3</v>
+        <v>-1.51400184634839E-2</v>
       </c>
       <c r="NA9">
-        <v>-2.0004038537739699E-3</v>
+        <v>-1.51459965690607E-2</v>
       </c>
       <c r="NB9">
-        <v>-2.0636276176782399E-3</v>
+        <v>-1.5195354278584001E-2</v>
       </c>
       <c r="NC9">
-        <v>-2.0536292039121198E-3</v>
+        <v>-1.51285973144834E-2</v>
       </c>
       <c r="ND9">
-        <v>-1.87993477252804E-3</v>
+        <v>-1.50364648008616E-2</v>
       </c>
       <c r="NE9">
-        <v>-1.9461611822570899E-3</v>
+        <v>-1.4980122878412201E-2</v>
       </c>
       <c r="NF9">
-        <v>-1.9206816304995599E-3</v>
+        <v>-1.4940169481332701E-2</v>
       </c>
       <c r="NG9">
-        <v>-1.83660526200577E-3</v>
+        <v>-1.47645667948989E-2</v>
       </c>
       <c r="NH9">
-        <v>-1.9317917713958801E-3</v>
+        <v>-1.46923467240491E-2</v>
       </c>
       <c r="NI9">
-        <v>-1.9140809706530201E-3</v>
+        <v>-1.46940435629517E-2</v>
       </c>
       <c r="NJ9">
-        <v>-1.87388887436779E-3</v>
+        <v>-1.45157078692772E-2</v>
       </c>
       <c r="NK9">
-        <v>-1.8738640338977299E-3</v>
+        <v>-1.4484129523562201E-2</v>
       </c>
       <c r="NL9">
-        <v>-1.74633483890789E-3</v>
+        <v>-1.449779616907E-2</v>
       </c>
       <c r="NM9">
-        <v>-1.77313918434924E-3</v>
+        <v>-1.4360632519036499E-2</v>
       </c>
       <c r="NN9">
-        <v>-1.8645354133827699E-3</v>
+        <v>-1.43453473553488E-2</v>
       </c>
       <c r="NO9">
-        <v>-1.7663329606257901E-3</v>
+        <v>-1.4326738231673601E-2</v>
       </c>
       <c r="NP9">
-        <v>-1.7813544077255601E-3</v>
+        <v>-1.41692817859715E-2</v>
       </c>
       <c r="NQ9">
-        <v>-1.84483481732297E-3</v>
+        <v>-1.4209431990680201E-2</v>
       </c>
       <c r="NR9">
-        <v>-1.8423861560500801E-3</v>
+        <v>-1.4066224839951499E-2</v>
       </c>
       <c r="NS9">
-        <v>-1.75900458482228E-3</v>
+        <v>-1.40291679352623E-2</v>
       </c>
       <c r="NT9">
-        <v>-1.77230890681185E-3</v>
+        <v>-1.39187170021961E-2</v>
       </c>
       <c r="NU9">
-        <v>-1.7387167382869799E-3</v>
+        <v>-1.39649120753991E-2</v>
       </c>
       <c r="NV9">
-        <v>-1.8367465334605999E-3</v>
+        <v>-1.3922199207097899E-2</v>
       </c>
       <c r="NW9">
-        <v>-1.7401476162062499E-3</v>
+        <v>-1.3755582074929801E-2</v>
       </c>
       <c r="NX9">
-        <v>-1.73742468660579E-3</v>
+        <v>-1.3738966724908999E-2</v>
       </c>
       <c r="NY9">
-        <v>-1.71526878568397E-3</v>
+        <v>-1.3617285455192999E-2</v>
       </c>
       <c r="NZ9">
-        <v>-1.80143370868418E-3</v>
+        <v>-1.3570413756421301E-2</v>
       </c>
       <c r="OA9">
-        <v>-1.7244417459084201E-3</v>
+        <v>-1.3504095509148901E-2</v>
       </c>
       <c r="OB9">
-        <v>-1.6707037379935E-3</v>
+        <v>-1.35439643788229E-2</v>
       </c>
       <c r="OC9">
-        <v>-1.75410452698086E-3</v>
+        <v>-1.33716493120006E-2</v>
       </c>
       <c r="OD9">
-        <v>-1.74860468030442E-3</v>
+        <v>-1.32485755553476E-2</v>
       </c>
       <c r="OE9">
-        <v>-1.69853838366169E-3</v>
+        <v>-1.32915817714418E-2</v>
       </c>
       <c r="OF9">
-        <v>-1.6869568072070901E-3</v>
+        <v>-1.32122214478828E-2</v>
       </c>
       <c r="OG9">
-        <v>-1.7853387382465401E-3</v>
+        <v>-1.30565171174108E-2</v>
       </c>
       <c r="OH9">
-        <v>-1.7055372064677099E-3</v>
+        <v>-1.29685743753349E-2</v>
       </c>
       <c r="OI9">
-        <v>-1.65791263426149E-3</v>
+        <v>-1.28758352183599E-2</v>
       </c>
       <c r="OJ9">
-        <v>-1.7277791559050599E-3</v>
+        <v>-1.2901384459987999E-2</v>
       </c>
       <c r="OK9">
-        <v>-1.7585004100835399E-3</v>
+        <v>-1.25797397915465E-2</v>
       </c>
       <c r="OL9">
-        <v>-1.6452164806614301E-3</v>
+        <v>-1.25786853374572E-2</v>
       </c>
       <c r="OM9">
-        <v>-1.56571561583528E-3</v>
+        <v>-1.25224490643142E-2</v>
       </c>
       <c r="ON9">
-        <v>-1.5592166831515199E-3</v>
+        <v>-1.22629417859556E-2</v>
       </c>
       <c r="OO9">
-        <v>-1.65090590406474E-3</v>
+        <v>-1.22871406466902E-2</v>
       </c>
       <c r="OP9">
-        <v>-1.70893168983492E-3</v>
+        <v>-1.22646154285694E-2</v>
       </c>
       <c r="OQ9">
-        <v>-1.5551463476798299E-3</v>
+        <v>-1.1971339858821199E-2</v>
       </c>
       <c r="OR9">
-        <v>-1.58223719974536E-3</v>
+        <v>-1.1912292557325699E-2</v>
       </c>
       <c r="OS9">
-        <v>-1.6129296554537301E-3</v>
+        <v>-1.17553610361457E-2</v>
       </c>
       <c r="OT9">
-        <v>-1.5940836285945801E-3</v>
+        <v>-1.1649661797269201E-2</v>
       </c>
       <c r="OU9">
-        <v>-1.57636634139696E-3</v>
+        <v>-1.1394472958060699E-2</v>
       </c>
       <c r="OV9">
-        <v>-1.54336035943557E-3</v>
+        <v>-1.14187176283358E-2</v>
       </c>
       <c r="OW9">
-        <v>-1.67056509153757E-3</v>
+        <v>-1.11336803909353E-2</v>
       </c>
       <c r="OX9">
-        <v>-1.5848455520762401E-3</v>
+        <v>-1.0853643478013699E-2</v>
       </c>
       <c r="OY9">
-        <v>-1.55199100802583E-3</v>
+        <v>-1.0658222915034999E-2</v>
       </c>
       <c r="OZ9">
-        <v>-1.5320014170169701E-3</v>
+        <v>-1.05421610253526E-2</v>
       </c>
       <c r="PA9">
-        <v>-1.50514594249125E-3</v>
+        <v>-1.0339229254019E-2</v>
       </c>
       <c r="PB9">
-        <v>-1.553410928833E-3</v>
+        <v>-1.0226699907602801E-2</v>
       </c>
       <c r="PC9">
-        <v>-1.62777871331973E-3</v>
+        <v>-1.00705577642162E-2</v>
       </c>
       <c r="PD9">
-        <v>-1.56237840206608E-3</v>
+        <v>-9.8737526206100802E-3</v>
       </c>
       <c r="PE9">
-        <v>-1.5309145553389001E-3</v>
+        <v>-9.7742431636731204E-3</v>
       </c>
       <c r="PF9">
-        <v>-1.62270821048171E-3</v>
+        <v>-9.6110821266699592E-3</v>
       </c>
       <c r="PG9">
-        <v>-1.5354404003127999E-3</v>
+        <v>-9.4800809702308992E-3</v>
       </c>
       <c r="PH9">
-        <v>-1.46433270422968E-3</v>
+        <v>-9.2723216472067899E-3</v>
       </c>
       <c r="PI9">
-        <v>-1.4644372749569401E-3</v>
+        <v>-9.1457233560255299E-3</v>
       </c>
       <c r="PJ9">
-        <v>-1.46959181811762E-3</v>
+        <v>-9.0476616452939591E-3</v>
       </c>
       <c r="PK9">
-        <v>-1.4306623951870199E-3</v>
+        <v>-8.6989672358011704E-3</v>
       </c>
       <c r="PL9">
-        <v>-1.5042667886842899E-3</v>
+        <v>-8.8186832263644696E-3</v>
       </c>
       <c r="PM9">
-        <v>-1.5328197408003301E-3</v>
+        <v>-8.6082174898977192E-3</v>
       </c>
       <c r="PN9">
-        <v>-1.51820666257931E-3</v>
+        <v>-8.5544152064994591E-3</v>
       </c>
       <c r="PO9">
-        <v>-1.50225642992529E-3</v>
+        <v>-8.4267625708398797E-3</v>
       </c>
       <c r="PP9">
-        <v>-1.4893416256174E-3</v>
+        <v>-8.3920568051524501E-3</v>
       </c>
       <c r="PQ9">
-        <v>-1.51261486629941E-3</v>
+        <v>-8.1172289932957397E-3</v>
       </c>
       <c r="PR9">
-        <v>-1.41614027265703E-3</v>
+        <v>-8.0678057435073901E-3</v>
       </c>
       <c r="PS9">
-        <v>-1.3662976629089101E-3</v>
+        <v>-7.91858434689292E-3</v>
       </c>
       <c r="PT9">
-        <v>-1.38788873256623E-3</v>
+        <v>-7.7339031452406098E-3</v>
       </c>
       <c r="PU9">
-        <v>-1.45236916829292E-3</v>
+        <v>-7.60980204300648E-3</v>
       </c>
       <c r="PV9">
-        <v>-1.5135916613101799E-3</v>
+        <v>-7.5045796152489004E-3</v>
       </c>
       <c r="PW9">
-        <v>-1.47751603418866E-3</v>
+        <v>-7.4871465953501998E-3</v>
       </c>
       <c r="PX9">
-        <v>-1.33320697892673E-3</v>
+        <v>-7.40688400094827E-3</v>
       </c>
       <c r="PY9">
-        <v>-1.3778599995394999E-3</v>
+        <v>-7.30616003974745E-3</v>
       </c>
       <c r="PZ9">
-        <v>-1.4358326862397199E-3</v>
+        <v>-7.1392107476214196E-3</v>
       </c>
       <c r="QA9">
-        <v>-1.4625911611030799E-3</v>
+        <v>-6.9786732891633698E-3</v>
       </c>
       <c r="QB9">
-        <v>-1.4694954566540699E-3</v>
+        <v>-6.9249459687766596E-3</v>
       </c>
       <c r="QC9">
-        <v>-1.44934098555881E-3</v>
+        <v>-6.9092759605291496E-3</v>
       </c>
       <c r="QD9">
-        <v>-1.4721857305681301E-3</v>
+        <v>-6.8364514408090302E-3</v>
       </c>
       <c r="QE9">
-        <v>-1.4689131674050101E-3</v>
+        <v>-6.8887403150293802E-3</v>
       </c>
       <c r="QF9">
-        <v>-1.48046593316782E-3</v>
+        <v>-6.6594241629971598E-3</v>
       </c>
       <c r="QG9">
-        <v>-1.4977897040169301E-3</v>
+        <v>-6.50051688992365E-3</v>
       </c>
       <c r="QH9">
-        <v>-1.6204564448026901E-3</v>
+        <v>-6.41667402307264E-3</v>
       </c>
       <c r="QI9">
-        <v>-1.4991508271916E-3</v>
+        <v>-6.2591118637998801E-3</v>
       </c>
       <c r="QJ9">
-        <v>-1.5653151197731899E-3</v>
+        <v>-6.1652685817802696E-3</v>
       </c>
     </row>
   </sheetData>

--- a/data_luanvan/NH3 0.5.xlsx
+++ b/data_luanvan/NH3 0.5.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -324,7 +324,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -335,7 +335,7 @@
   <dimension ref="A2:QJ9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8490,2718 +8490,2718 @@
     </row>
     <row r="8" spans="1:452">
       <c r="A8">
-        <v>-6.5893026269424296E-2</v>
+        <v>-0.114804246033959</v>
       </c>
       <c r="B8">
-        <v>-6.4565878674086793E-2</v>
+        <v>-0.113057500000671</v>
       </c>
       <c r="C8">
-        <v>-6.2824984558733907E-2</v>
+        <v>-0.111198927895947</v>
       </c>
       <c r="D8">
-        <v>-6.1642462425891699E-2</v>
+        <v>-0.109131083592376</v>
       </c>
       <c r="E8">
-        <v>-6.0575019923810702E-2</v>
+        <v>-0.107171197664387</v>
       </c>
       <c r="F8">
-        <v>-5.9451155007590198E-2</v>
+        <v>-0.10524899322083001</v>
       </c>
       <c r="G8">
-        <v>-5.7777135359346601E-2</v>
+        <v>-0.10363301345894101</v>
       </c>
       <c r="H8">
-        <v>-5.6765375716190503E-2</v>
+        <v>-0.102439625397708</v>
       </c>
       <c r="I8">
-        <v>-5.5658930572953298E-2</v>
+        <v>-0.100689013611933</v>
       </c>
       <c r="J8">
-        <v>-5.4358904791840003E-2</v>
+        <v>-9.8873337716839801E-2</v>
       </c>
       <c r="K8">
-        <v>-5.3225052106992E-2</v>
+        <v>-9.6684771325726601E-2</v>
       </c>
       <c r="L8">
-        <v>-5.2127018354124401E-2</v>
+        <v>-9.4120519529847596E-2</v>
       </c>
       <c r="M8">
-        <v>-5.1337999747305303E-2</v>
+        <v>-9.1727057957895805E-2</v>
       </c>
       <c r="N8">
-        <v>-5.0004042024664998E-2</v>
+        <v>-8.9879026461079606E-2</v>
       </c>
       <c r="O8">
-        <v>-4.8780260779271202E-2</v>
+        <v>-8.8158431362127795E-2</v>
       </c>
       <c r="P8">
-        <v>-4.7882245057837301E-2</v>
+        <v>-8.6299436247376807E-2</v>
       </c>
       <c r="Q8">
-        <v>-4.6962290632114802E-2</v>
+        <v>-8.4362012822159396E-2</v>
       </c>
       <c r="R8">
-        <v>-4.62697198407587E-2</v>
+        <v>-8.2317597542902701E-2</v>
       </c>
       <c r="S8">
-        <v>-4.54754132193071E-2</v>
+        <v>-8.0628975156219099E-2</v>
       </c>
       <c r="T8">
-        <v>-4.4686963441924403E-2</v>
+        <v>-7.8541149001081501E-2</v>
       </c>
       <c r="U8">
-        <v>-4.3764833880926703E-2</v>
+        <v>-7.6863156031076296E-2</v>
       </c>
       <c r="V8">
-        <v>-4.2858472643256602E-2</v>
+        <v>-7.5119964040670797E-2</v>
       </c>
       <c r="W8">
-        <v>-4.2014342159976098E-2</v>
+        <v>-7.3229219047499294E-2</v>
       </c>
       <c r="X8">
-        <v>-4.12641528563608E-2</v>
+        <v>-7.1723607396500605E-2</v>
       </c>
       <c r="Y8">
-        <v>-4.03402183731855E-2</v>
+        <v>-7.0267682334989701E-2</v>
       </c>
       <c r="Z8">
-        <v>-3.9747938111981199E-2</v>
+        <v>-6.8988666260638001E-2</v>
       </c>
       <c r="AA8">
-        <v>-3.9099649457075399E-2</v>
+        <v>-6.7795018391440406E-2</v>
       </c>
       <c r="AB8">
-        <v>-3.8459357327912398E-2</v>
+        <v>-6.6649439626706594E-2</v>
       </c>
       <c r="AC8">
-        <v>-3.7752164522568403E-2</v>
+        <v>-6.5718575269748294E-2</v>
       </c>
       <c r="AD8">
-        <v>-3.7173021128218603E-2</v>
+        <v>-6.4556286630336204E-2</v>
       </c>
       <c r="AE8">
-        <v>-3.6565568151693102E-2</v>
+        <v>-6.3334481631385803E-2</v>
       </c>
       <c r="AF8">
-        <v>-3.6037425269127697E-2</v>
+        <v>-6.2576912525857203E-2</v>
       </c>
       <c r="AG8">
-        <v>-3.5508492366273597E-2</v>
+        <v>-6.1469389328930098E-2</v>
       </c>
       <c r="AH8">
-        <v>-3.5106474755638002E-2</v>
+        <v>-6.0504140335342203E-2</v>
       </c>
       <c r="AI8">
-        <v>-3.44388374999492E-2</v>
+        <v>-5.9703338011668501E-2</v>
       </c>
       <c r="AJ8">
-        <v>-3.4022798207495597E-2</v>
+        <v>-5.88876214153123E-2</v>
       </c>
       <c r="AK8">
-        <v>-3.3682234685511903E-2</v>
+        <v>-5.8277034653438399E-2</v>
       </c>
       <c r="AL8">
-        <v>-3.3036158957920302E-2</v>
+        <v>-5.7631899015372003E-2</v>
       </c>
       <c r="AM8">
-        <v>-3.2782130231699E-2</v>
+        <v>-5.6906425642015902E-2</v>
       </c>
       <c r="AN8">
-        <v>-3.2370066178309398E-2</v>
+        <v>-5.6248567229735903E-2</v>
       </c>
       <c r="AO8">
-        <v>-3.19816543021995E-2</v>
+        <v>-5.5578250439561203E-2</v>
       </c>
       <c r="AP8">
-        <v>-3.1578746347767798E-2</v>
+        <v>-5.5085380669113303E-2</v>
       </c>
       <c r="AQ8">
-        <v>-3.1183880494891E-2</v>
+        <v>-5.4391871372039498E-2</v>
       </c>
       <c r="AR8">
-        <v>-3.07317386866999E-2</v>
+        <v>-5.3943796797037397E-2</v>
       </c>
       <c r="AS8">
-        <v>-3.0313831402510798E-2</v>
+        <v>-5.3193391476109603E-2</v>
       </c>
       <c r="AT8">
-        <v>-3.0096926308583599E-2</v>
+        <v>-5.2907368590093602E-2</v>
       </c>
       <c r="AU8">
-        <v>-2.9662943293091298E-2</v>
+        <v>-5.2368485399779403E-2</v>
       </c>
       <c r="AV8">
-        <v>-2.94520613993512E-2</v>
+        <v>-5.1828750017094499E-2</v>
       </c>
       <c r="AW8">
-        <v>-2.9063668731053399E-2</v>
+        <v>-5.1443977483120899E-2</v>
       </c>
       <c r="AX8">
-        <v>-2.8708360017858901E-2</v>
+        <v>-5.0993646354398202E-2</v>
       </c>
       <c r="AY8">
-        <v>-2.8534363561675401E-2</v>
+        <v>-5.0685015079595601E-2</v>
       </c>
       <c r="AZ8">
-        <v>-2.8247794484693198E-2</v>
+        <v>-5.0300132218127902E-2</v>
       </c>
       <c r="BA8">
-        <v>-2.7927062176450902E-2</v>
+        <v>-4.9878146541845303E-2</v>
       </c>
       <c r="BB8">
-        <v>-2.7423287868046001E-2</v>
+        <v>-4.9686929214464902E-2</v>
       </c>
       <c r="BC8">
-        <v>-2.7330617106947001E-2</v>
+        <v>-4.9339661503408301E-2</v>
       </c>
       <c r="BD8">
-        <v>-2.69765468613779E-2</v>
+        <v>-4.8887137471015502E-2</v>
       </c>
       <c r="BE8">
-        <v>-2.6779905662752401E-2</v>
+        <v>-4.8515967913466698E-2</v>
       </c>
       <c r="BF8">
-        <v>-2.6416938322401301E-2</v>
+        <v>-4.83173753348555E-2</v>
       </c>
       <c r="BG8">
-        <v>-2.61600776546984E-2</v>
+        <v>-4.7923446383702203E-2</v>
       </c>
       <c r="BH8">
-        <v>-2.57359758389656E-2</v>
+        <v>-4.7702250012879803E-2</v>
       </c>
       <c r="BI8">
-        <v>-2.5389129680977E-2</v>
+        <v>-4.7594720664994102E-2</v>
       </c>
       <c r="BJ8">
-        <v>-2.5251775671236501E-2</v>
+        <v>-4.7526152928795203E-2</v>
       </c>
       <c r="BK8">
-        <v>-2.49124817900984E-2</v>
+        <v>-4.7402513428037897E-2</v>
       </c>
       <c r="BL8">
-        <v>-2.4612267045076699E-2</v>
+        <v>-4.7247743318861501E-2</v>
       </c>
       <c r="BM8">
-        <v>-2.4183755542755099E-2</v>
+        <v>-4.6998650397738498E-2</v>
       </c>
       <c r="BN8">
-        <v>-2.38752754287751E-2</v>
+        <v>-4.6809480042648101E-2</v>
       </c>
       <c r="BO8">
-        <v>-2.3610423195519498E-2</v>
+        <v>-4.6343017051250601E-2</v>
       </c>
       <c r="BP8">
-        <v>-2.3212460934901102E-2</v>
+        <v>-4.5494135686522899E-2</v>
       </c>
       <c r="BQ8">
-        <v>-2.29353203071062E-2</v>
+        <v>-4.4475132154221997E-2</v>
       </c>
       <c r="BR8">
-        <v>-2.29133219538343E-2</v>
+        <v>-4.3694940893832503E-2</v>
       </c>
       <c r="BS8">
-        <v>-2.2633494655348599E-2</v>
+        <v>-4.3058643023942397E-2</v>
       </c>
       <c r="BT8">
-        <v>-2.2376227332553601E-2</v>
+        <v>-4.29539041491152E-2</v>
       </c>
       <c r="BU8">
-        <v>-2.2274052503761702E-2</v>
+        <v>-4.3179914329525899E-2</v>
       </c>
       <c r="BV8">
-        <v>-2.1977467669240299E-2</v>
+        <v>-4.3367231173521197E-2</v>
       </c>
       <c r="BW8">
-        <v>-2.1672878974346999E-2</v>
+        <v>-4.34414898861743E-2</v>
       </c>
       <c r="BX8">
-        <v>-2.12349677085171E-2</v>
+        <v>-4.36145816855723E-2</v>
       </c>
       <c r="BY8">
-        <v>-2.0926712484952901E-2</v>
+        <v>-4.3589984506303303E-2</v>
       </c>
       <c r="BZ8">
-        <v>-2.0629041773739101E-2</v>
+        <v>-4.35956568700165E-2</v>
       </c>
       <c r="CA8">
-        <v>-2.0282102009206798E-2</v>
+        <v>-4.3559992459915202E-2</v>
       </c>
       <c r="CB8">
-        <v>-1.9863262841305199E-2</v>
+        <v>-4.3634522325578101E-2</v>
       </c>
       <c r="CC8">
-        <v>-1.9556231512842699E-2</v>
+        <v>-4.3684975953601497E-2</v>
       </c>
       <c r="CD8">
-        <v>-1.9147039381985202E-2</v>
+        <v>-4.3803739582720998E-2</v>
       </c>
       <c r="CE8">
-        <v>-1.88854536440279E-2</v>
+        <v>-4.3791143764653699E-2</v>
       </c>
       <c r="CF8">
-        <v>-1.8420770319791901E-2</v>
+        <v>-4.4097909690505102E-2</v>
       </c>
       <c r="CG8">
-        <v>-1.8091049571264801E-2</v>
+        <v>-4.42454515891198E-2</v>
       </c>
       <c r="CH8">
-        <v>-1.77486173281373E-2</v>
+        <v>-4.4281312225540499E-2</v>
       </c>
       <c r="CI8">
-        <v>-1.7270789728666799E-2</v>
+        <v>-4.40221092602033E-2</v>
       </c>
       <c r="CJ8">
-        <v>-1.7121598375424402E-2</v>
+        <v>-4.2953175954381598E-2</v>
       </c>
       <c r="CK8">
-        <v>-1.68621649187808E-2</v>
+        <v>-4.18698175851559E-2</v>
       </c>
       <c r="CL8">
-        <v>-1.66728407786088E-2</v>
+        <v>-4.1427924453495003E-2</v>
       </c>
       <c r="CM8">
-        <v>-1.6419718110186499E-2</v>
+        <v>-4.1738816222794899E-2</v>
       </c>
       <c r="CN8">
-        <v>-1.60313547704206E-2</v>
+        <v>-4.2019789277398599E-2</v>
       </c>
       <c r="CO8">
-        <v>-1.55916560754433E-2</v>
+        <v>-4.21670700849123E-2</v>
       </c>
       <c r="CP8">
-        <v>-1.54157887807628E-2</v>
+        <v>-4.22263016145926E-2</v>
       </c>
       <c r="CQ8">
-        <v>-1.49750802512796E-2</v>
+        <v>-4.2272397016754601E-2</v>
       </c>
       <c r="CR8">
-        <v>-1.45750076429196E-2</v>
+        <v>-4.2157168673448098E-2</v>
       </c>
       <c r="CS8">
-        <v>-1.4326551908346001E-2</v>
+        <v>-4.2053034870137902E-2</v>
       </c>
       <c r="CT8">
-        <v>-1.3877887950777599E-2</v>
+        <v>-4.1965567331526198E-2</v>
       </c>
       <c r="CU8">
-        <v>-1.3630144600077301E-2</v>
+        <v>-4.1882647413599497E-2</v>
       </c>
       <c r="CV8">
-        <v>-1.35485966345736E-2</v>
+        <v>-4.17016191006674E-2</v>
       </c>
       <c r="CW8">
-        <v>-1.3181406704629001E-2</v>
+        <v>-4.1538650591733499E-2</v>
       </c>
       <c r="CX8">
-        <v>-1.2931194877497399E-2</v>
+        <v>-4.1404026963030097E-2</v>
       </c>
       <c r="CY8">
-        <v>-1.27663934302551E-2</v>
+        <v>-4.1488570067037898E-2</v>
       </c>
       <c r="CZ8">
-        <v>-1.25068575336326E-2</v>
+        <v>-4.1420425746846401E-2</v>
       </c>
       <c r="DA8">
-        <v>-1.2437955698606199E-2</v>
+        <v>-4.1433140224608297E-2</v>
       </c>
       <c r="DB8">
-        <v>-1.21824300455392E-2</v>
+        <v>-4.1403022773483102E-2</v>
       </c>
       <c r="DC8">
-        <v>-1.20205262587315E-2</v>
+        <v>-4.1467446976901599E-2</v>
       </c>
       <c r="DD8">
-        <v>-1.18193106932053E-2</v>
+        <v>-4.1773346779026402E-2</v>
       </c>
       <c r="DE8">
-        <v>-1.18217340088843E-2</v>
+        <v>-4.1841343471933197E-2</v>
       </c>
       <c r="DF8">
-        <v>-1.1613614416450001E-2</v>
+        <v>-4.1959541341003902E-2</v>
       </c>
       <c r="DG8">
-        <v>-1.1469175244685201E-2</v>
+        <v>-4.2062824833396302E-2</v>
       </c>
       <c r="DH8">
-        <v>-1.13175133232187E-2</v>
+        <v>-4.2059484770064999E-2</v>
       </c>
       <c r="DI8">
-        <v>-1.1188550391733399E-2</v>
+        <v>-4.2097505130620598E-2</v>
       </c>
       <c r="DJ8">
-        <v>-1.10677725794878E-2</v>
+        <v>-4.2191229057482203E-2</v>
       </c>
       <c r="DK8">
-        <v>-1.0976253557428199E-2</v>
+        <v>-4.2309221076864099E-2</v>
       </c>
       <c r="DL8">
-        <v>-1.08715284472662E-2</v>
+        <v>-4.2274585218486802E-2</v>
       </c>
       <c r="DM8">
-        <v>-1.07792510815393E-2</v>
+        <v>-4.22138791736111E-2</v>
       </c>
       <c r="DN8">
-        <v>-1.0670381926401001E-2</v>
+        <v>-4.1877666801708902E-2</v>
       </c>
       <c r="DO8">
-        <v>-1.05920579306356E-2</v>
+        <v>-4.1665653032118798E-2</v>
       </c>
       <c r="DP8">
-        <v>-1.0520979945788E-2</v>
+        <v>-4.1661783004773599E-2</v>
       </c>
       <c r="DQ8">
-        <v>-1.05556812119059E-2</v>
+        <v>-4.1640728761914297E-2</v>
       </c>
       <c r="DR8">
-        <v>-1.04097646933029E-2</v>
+        <v>-4.1604163101223897E-2</v>
       </c>
       <c r="DS8">
-        <v>-1.0351034639389099E-2</v>
+        <v>-4.1592641387442099E-2</v>
       </c>
       <c r="DT8">
-        <v>-1.0182676100600399E-2</v>
+        <v>-4.1621895564579098E-2</v>
       </c>
       <c r="DU8">
-        <v>-1.0234682158593999E-2</v>
+        <v>-4.16860730840376E-2</v>
       </c>
       <c r="DV8">
-        <v>-1.00695862637979E-2</v>
+        <v>-4.1646181246179803E-2</v>
       </c>
       <c r="DW8">
-        <v>-1.0055295785439599E-2</v>
+        <v>-4.1697249261246697E-2</v>
       </c>
       <c r="DX8">
-        <v>-9.9422223792815304E-3</v>
+        <v>-4.1577279554868202E-2</v>
       </c>
       <c r="DY8">
-        <v>-9.9668022135508197E-3</v>
+        <v>-4.1309557127817198E-2</v>
       </c>
       <c r="DZ8">
-        <v>-9.8497513203364799E-3</v>
+        <v>-4.1048027035530503E-2</v>
       </c>
       <c r="EA8">
-        <v>-9.7826079800442303E-3</v>
+        <v>-4.0572001521125299E-2</v>
       </c>
       <c r="EB8">
-        <v>-9.7553609888588501E-3</v>
+        <v>-3.9932767414790397E-2</v>
       </c>
       <c r="EC8">
-        <v>-9.7013689777356998E-3</v>
+        <v>-3.9574478517426001E-2</v>
       </c>
       <c r="ED8">
-        <v>-9.6497908005754706E-3</v>
+        <v>-3.9024250223702997E-2</v>
       </c>
       <c r="EE8">
-        <v>-9.6701625570978708E-3</v>
+        <v>-3.8995463621502899E-2</v>
       </c>
       <c r="EF8">
-        <v>-9.6373506109000903E-3</v>
+        <v>-3.9025215513298302E-2</v>
       </c>
       <c r="EG8">
-        <v>-9.5252799631732905E-3</v>
+        <v>-3.9041427939960897E-2</v>
       </c>
       <c r="EH8">
-        <v>-9.5455653853661702E-3</v>
+        <v>-3.92443805892407E-2</v>
       </c>
       <c r="EI8">
-        <v>-9.4720489775475397E-3</v>
+        <v>-3.9337645684924497E-2</v>
       </c>
       <c r="EJ8">
-        <v>-9.3902572647401403E-3</v>
+        <v>-3.9303255739082402E-2</v>
       </c>
       <c r="EK8">
-        <v>-9.3805050225309293E-3</v>
+        <v>-3.9290277934251501E-2</v>
       </c>
       <c r="EL8">
-        <v>-9.3847967793326392E-3</v>
+        <v>-3.91002648372447E-2</v>
       </c>
       <c r="EM8">
-        <v>-9.3452649756180506E-3</v>
+        <v>-3.9093263036739101E-2</v>
       </c>
       <c r="EN8">
-        <v>-9.2775436337358894E-3</v>
+        <v>-3.8748384074111297E-2</v>
       </c>
       <c r="EO8">
-        <v>-9.1808459677442493E-3</v>
+        <v>-3.85888949017461E-2</v>
       </c>
       <c r="EP8">
-        <v>-9.1532746967988698E-3</v>
+        <v>-3.8348963729356401E-2</v>
       </c>
       <c r="EQ8">
-        <v>-9.1641223786242208E-3</v>
+        <v>-3.7907093807698702E-2</v>
       </c>
       <c r="ER8">
-        <v>-8.9981585288034498E-3</v>
+        <v>-3.73961722161857E-2</v>
       </c>
       <c r="ES8">
-        <v>-8.9792071982060604E-3</v>
+        <v>-3.7081469362411301E-2</v>
       </c>
       <c r="ET8">
-        <v>-8.9119900671495306E-3</v>
+        <v>-3.6769273882522303E-2</v>
       </c>
       <c r="EU8">
-        <v>-8.9317581245635502E-3</v>
+        <v>-3.6151143969653902E-2</v>
       </c>
       <c r="EV8">
-        <v>-8.8000872951195692E-3</v>
+        <v>-3.5592983165815599E-2</v>
       </c>
       <c r="EW8">
-        <v>-8.7905169304836397E-3</v>
+        <v>-3.4927597998115199E-2</v>
       </c>
       <c r="EX8">
-        <v>-8.7577118060782801E-3</v>
+        <v>-3.4276205581286003E-2</v>
       </c>
       <c r="EY8">
-        <v>-8.7173162229080593E-3</v>
+        <v>-3.3822419140500201E-2</v>
       </c>
       <c r="EZ8">
-        <v>-8.7757415582439893E-3</v>
+        <v>-3.3185558821060099E-2</v>
       </c>
       <c r="FA8">
-        <v>-8.7484134265632101E-3</v>
+        <v>-3.2687464827302497E-2</v>
       </c>
       <c r="FB8">
-        <v>-8.6152138613444992E-3</v>
+        <v>-3.2366545658323101E-2</v>
       </c>
       <c r="FC8">
-        <v>-8.5604462679278806E-3</v>
+        <v>-3.2104134012617302E-2</v>
       </c>
       <c r="FD8">
-        <v>-8.5621490610884397E-3</v>
+        <v>-3.18992898301379E-2</v>
       </c>
       <c r="FE8">
-        <v>-8.6238717071992002E-3</v>
+        <v>-3.1597845587774898E-2</v>
       </c>
       <c r="FF8">
-        <v>-8.5189284526661201E-3</v>
+        <v>-3.1438116479099103E-2</v>
       </c>
       <c r="FG8">
-        <v>-8.4259613876359503E-3</v>
+        <v>-3.1172434154221999E-2</v>
       </c>
       <c r="FH8">
-        <v>-8.4545642874765802E-3</v>
+        <v>-3.08112011445274E-2</v>
       </c>
       <c r="FI8">
-        <v>-8.3722802138183998E-3</v>
+        <v>-3.0566191108959698E-2</v>
       </c>
       <c r="FJ8">
-        <v>-8.3336891154391305E-3</v>
+        <v>-3.0013421553345399E-2</v>
       </c>
       <c r="FK8">
-        <v>-8.22376781198636E-3</v>
+        <v>-2.97090321388436E-2</v>
       </c>
       <c r="FL8">
-        <v>-8.1988956515109002E-3</v>
+        <v>-2.9563028841967501E-2</v>
       </c>
       <c r="FM8">
-        <v>-8.1473226222793602E-3</v>
+        <v>-2.92597482294863E-2</v>
       </c>
       <c r="FN8">
-        <v>-8.1021034135764208E-3</v>
+        <v>-2.89284885778174E-2</v>
       </c>
       <c r="FO8">
-        <v>-7.9921338784845301E-3</v>
+        <v>-2.87562145047606E-2</v>
       </c>
       <c r="FP8">
-        <v>-7.9722047674148592E-3</v>
+        <v>-2.8544417584209301E-2</v>
       </c>
       <c r="FQ8">
-        <v>-8.0079609719042096E-3</v>
+        <v>-2.8418978819570201E-2</v>
       </c>
       <c r="FR8">
-        <v>-7.8996061224385905E-3</v>
+        <v>-2.8187958544666599E-2</v>
       </c>
       <c r="FS8">
-        <v>-7.8490689720310397E-3</v>
+        <v>-2.8043867201014101E-2</v>
       </c>
       <c r="FT8">
-        <v>-7.8071106146660801E-3</v>
+        <v>-2.7868426154135699E-2</v>
       </c>
       <c r="FU8">
-        <v>-7.6770446571358198E-3</v>
+        <v>-2.7755706384490299E-2</v>
       </c>
       <c r="FV8">
-        <v>-7.6771006731861597E-3</v>
+        <v>-2.75772174544139E-2</v>
       </c>
       <c r="FW8">
-        <v>-7.6532082937099998E-3</v>
+        <v>-2.7465008698412698E-2</v>
       </c>
       <c r="FX8">
-        <v>-7.5679537645551203E-3</v>
+        <v>-2.73836657147766E-2</v>
       </c>
       <c r="FY8">
-        <v>-7.5651001406062002E-3</v>
+        <v>-2.7112407188075501E-2</v>
       </c>
       <c r="FZ8">
-        <v>-7.5004299384680102E-3</v>
+        <v>-2.70181730333354E-2</v>
       </c>
       <c r="GA8">
-        <v>-7.4332174282244704E-3</v>
+        <v>-2.6779570468511999E-2</v>
       </c>
       <c r="GB8">
-        <v>-7.4109391947419102E-3</v>
+        <v>-2.6615968074501801E-2</v>
       </c>
       <c r="GC8">
-        <v>-7.2775405876057903E-3</v>
+        <v>-2.64457842154905E-2</v>
       </c>
       <c r="GD8">
-        <v>-7.2840640684787503E-3</v>
+        <v>-2.6331769460897901E-2</v>
       </c>
       <c r="GE8">
-        <v>-7.0848629904620699E-3</v>
+        <v>-2.6224730911259601E-2</v>
       </c>
       <c r="GF8">
-        <v>-7.1850996963362303E-3</v>
+        <v>-2.61593735013958E-2</v>
       </c>
       <c r="GG8">
-        <v>-7.1282145263702398E-3</v>
+        <v>-2.6067444409413599E-2</v>
       </c>
       <c r="GH8">
-        <v>-7.0585691827615401E-3</v>
+        <v>-2.60242659208107E-2</v>
       </c>
       <c r="GI8">
-        <v>-7.0938438646777199E-3</v>
+        <v>-2.5688371877163399E-2</v>
       </c>
       <c r="GJ8">
-        <v>-7.0101660106962E-3</v>
+        <v>-2.58143597419122E-2</v>
       </c>
       <c r="GK8">
-        <v>-6.8746829648053103E-3</v>
+        <v>-2.5627375982710501E-2</v>
       </c>
       <c r="GL8">
-        <v>-6.9167430447380296E-3</v>
+        <v>-2.5514523761181102E-2</v>
       </c>
       <c r="GM8">
-        <v>-6.8774691827904102E-3</v>
+        <v>-2.53743307973224E-2</v>
       </c>
       <c r="GN8">
-        <v>-6.7934091663660904E-3</v>
+        <v>-2.5106364986299201E-2</v>
       </c>
       <c r="GO8">
-        <v>-6.7998014741153601E-3</v>
+        <v>-2.4990822732139199E-2</v>
       </c>
       <c r="GP8">
-        <v>-6.7011752598139804E-3</v>
+        <v>-2.4983161014051999E-2</v>
       </c>
       <c r="GQ8">
-        <v>-6.6603391298898197E-3</v>
+        <v>-2.4751233517379401E-2</v>
       </c>
       <c r="GR8">
-        <v>-6.6285913419983503E-3</v>
+        <v>-2.4747212664137701E-2</v>
       </c>
       <c r="GS8">
-        <v>-6.5800584921709296E-3</v>
+        <v>-2.4493441173847299E-2</v>
       </c>
       <c r="GT8">
-        <v>-6.50550558357857E-3</v>
+        <v>-2.44650349446443E-2</v>
       </c>
       <c r="GU8">
-        <v>-6.48918506138043E-3</v>
+        <v>-2.4453234821161698E-2</v>
       </c>
       <c r="GV8">
-        <v>-6.4102016027308599E-3</v>
+        <v>-2.4479987443506299E-2</v>
       </c>
       <c r="GW8">
-        <v>-6.3779361138004498E-3</v>
+        <v>-2.4391569625274299E-2</v>
       </c>
       <c r="GX8">
-        <v>-6.3486807026583696E-3</v>
+        <v>-2.4435629696921299E-2</v>
       </c>
       <c r="GY8">
-        <v>-6.2789876023319801E-3</v>
+        <v>-2.44510732844027E-2</v>
       </c>
       <c r="GZ8">
-        <v>-6.1856082959428496E-3</v>
+        <v>-2.43370246066743E-2</v>
       </c>
       <c r="HA8">
-        <v>-6.1691967557550098E-3</v>
+        <v>-2.4411634315955999E-2</v>
       </c>
       <c r="HB8">
-        <v>-6.0958918620063196E-3</v>
+        <v>-2.4522908176732298E-2</v>
       </c>
       <c r="HC8">
-        <v>-6.0094791016787998E-3</v>
+        <v>-2.4382189733390399E-2</v>
       </c>
       <c r="HD8">
-        <v>-5.9349166672138598E-3</v>
+        <v>-2.4408487703877501E-2</v>
       </c>
       <c r="HE8">
-        <v>-5.9235251773632897E-3</v>
+        <v>-2.4260925254341901E-2</v>
       </c>
       <c r="HF8">
-        <v>-5.9137518890051101E-3</v>
+        <v>-2.4366319607422499E-2</v>
       </c>
       <c r="HG8">
-        <v>-5.7706068055864198E-3</v>
+        <v>-2.4200568079226499E-2</v>
       </c>
       <c r="HH8">
-        <v>-5.7081388068313203E-3</v>
+        <v>-2.40717626376276E-2</v>
       </c>
       <c r="HI8">
-        <v>-5.6995644435909199E-3</v>
+        <v>-2.3840168031305099E-2</v>
       </c>
       <c r="HJ8">
-        <v>-5.6114084044901202E-3</v>
+        <v>-2.3674149219047799E-2</v>
       </c>
       <c r="HK8">
-        <v>-5.6797609135289702E-3</v>
+        <v>-2.34823613367161E-2</v>
       </c>
       <c r="HL8">
-        <v>-5.6429204735929097E-3</v>
+        <v>-2.3187787733123799E-2</v>
       </c>
       <c r="HM8">
-        <v>-5.4367486212134296E-3</v>
+        <v>-2.2985258732204701E-2</v>
       </c>
       <c r="HN8">
-        <v>-5.4645932611506499E-3</v>
+        <v>-2.2910532072715699E-2</v>
       </c>
       <c r="HO8">
-        <v>-5.4674345586052699E-3</v>
+        <v>-2.2794112720884899E-2</v>
       </c>
       <c r="HP8">
-        <v>-5.4600905400678098E-3</v>
+        <v>-2.2651880708908299E-2</v>
       </c>
       <c r="HQ8">
-        <v>-5.4499881328292201E-3</v>
+        <v>-2.2506193692550799E-2</v>
       </c>
       <c r="HR8">
-        <v>-5.1899856142518996E-3</v>
+        <v>-2.2518858306914798E-2</v>
       </c>
       <c r="HS8">
-        <v>-5.2343084237521801E-3</v>
+        <v>-2.2244504536473898E-2</v>
       </c>
       <c r="HT8">
-        <v>-5.0819717072453103E-3</v>
+        <v>-2.2190045486377898E-2</v>
       </c>
       <c r="HU8">
-        <v>-5.1562858669251402E-3</v>
+        <v>-2.1984883627862099E-2</v>
       </c>
       <c r="HV8">
-        <v>-5.0683989908179199E-3</v>
+        <v>-2.1749635770339299E-2</v>
       </c>
       <c r="HW8">
-        <v>-5.0702134753290596E-3</v>
+        <v>-2.1397254214508901E-2</v>
       </c>
       <c r="HX8">
-        <v>-5.0451216376879602E-3</v>
+        <v>-2.1074272827165098E-2</v>
       </c>
       <c r="HY8">
-        <v>-4.9346554946177699E-3</v>
+        <v>-2.0820349346327299E-2</v>
       </c>
       <c r="HZ8">
-        <v>-4.90883390995082E-3</v>
+        <v>-2.0703122334699599E-2</v>
       </c>
       <c r="IA8">
-        <v>-4.9446597870044604E-3</v>
+        <v>-2.0524690536220601E-2</v>
       </c>
       <c r="IB8">
-        <v>-4.7583832626956497E-3</v>
+        <v>-2.0490698032692E-2</v>
       </c>
       <c r="IC8">
-        <v>-4.7884595180463403E-3</v>
+        <v>-2.0556183145226298E-2</v>
       </c>
       <c r="ID8">
-        <v>-4.7155743839517204E-3</v>
+        <v>-2.0616605941190799E-2</v>
       </c>
       <c r="IE8">
-        <v>-4.6252298405548503E-3</v>
+        <v>-2.0622861678087301E-2</v>
       </c>
       <c r="IF8">
-        <v>-4.56315194119453E-3</v>
+        <v>-2.05713064507471E-2</v>
       </c>
       <c r="IG8">
-        <v>-4.5998240009859402E-3</v>
+        <v>-2.0641033734096599E-2</v>
       </c>
       <c r="IH8">
-        <v>-4.4670742792774004E-3</v>
+        <v>-2.0661260419854902E-2</v>
       </c>
       <c r="II8">
-        <v>-4.4407102287546598E-3</v>
+        <v>-2.0751491238198101E-2</v>
       </c>
       <c r="IJ8">
-        <v>-4.3350706847904699E-3</v>
+        <v>-2.0755236069183201E-2</v>
       </c>
       <c r="IK8">
-        <v>-4.3323280945446897E-3</v>
+        <v>-2.0678313860533998E-2</v>
       </c>
       <c r="IL8">
-        <v>-4.3164902482625703E-3</v>
+        <v>-2.07723094963E-2</v>
       </c>
       <c r="IM8">
-        <v>-4.1510757341648302E-3</v>
+        <v>-2.0780334728603099E-2</v>
       </c>
       <c r="IN8">
-        <v>-4.1162098705258797E-3</v>
+        <v>-2.0793228568941599E-2</v>
       </c>
       <c r="IO8">
-        <v>-4.0172541561636103E-3</v>
+        <v>-2.0857273982972602E-2</v>
       </c>
       <c r="IP8">
-        <v>-3.9783676904727502E-3</v>
+        <v>-2.0858529908178599E-2</v>
       </c>
       <c r="IQ8">
-        <v>-3.9943909215894198E-3</v>
+        <v>-2.0548723731929699E-2</v>
       </c>
       <c r="IR8">
-        <v>-3.9207874653121397E-3</v>
+        <v>-2.0313836228364499E-2</v>
       </c>
       <c r="IS8">
-        <v>-3.8422632337749099E-3</v>
+        <v>-2.00335587936206E-2</v>
       </c>
       <c r="IT8">
-        <v>-3.8364731672615999E-3</v>
+        <v>-1.9750377755739401E-2</v>
       </c>
       <c r="IU8">
-        <v>-3.7876723859995502E-3</v>
+        <v>-1.9628830732403599E-2</v>
       </c>
       <c r="IV8">
-        <v>-3.8181707607606499E-3</v>
+        <v>-1.95969966657734E-2</v>
       </c>
       <c r="IW8">
-        <v>-3.7048295500137999E-3</v>
+        <v>-1.9665267121753E-2</v>
       </c>
       <c r="IX8">
-        <v>-3.6684492811941399E-3</v>
+        <v>-1.9607758833392299E-2</v>
       </c>
       <c r="IY8">
-        <v>-3.6570633243660699E-3</v>
+        <v>-1.9606144311956699E-2</v>
       </c>
       <c r="IZ8">
-        <v>-3.68462265528111E-3</v>
+        <v>-1.9644487134530798E-2</v>
       </c>
       <c r="JA8">
-        <v>-3.6048764893805299E-3</v>
+        <v>-1.9462036575539E-2</v>
       </c>
       <c r="JB8">
-        <v>-3.5335486242785699E-3</v>
+        <v>-1.9448600225790799E-2</v>
       </c>
       <c r="JC8">
-        <v>-3.4857817055679099E-3</v>
+        <v>-1.9368885746808801E-2</v>
       </c>
       <c r="JD8">
-        <v>-3.46883055862826E-3</v>
+        <v>-1.9348937001548699E-2</v>
       </c>
       <c r="JE8">
-        <v>-3.4214164423130699E-3</v>
+        <v>-1.9298877492350399E-2</v>
       </c>
       <c r="JF8">
-        <v>-3.4146132596797798E-3</v>
+        <v>-1.91417009245444E-2</v>
       </c>
       <c r="JG8">
-        <v>-3.34048051526082E-3</v>
+        <v>-1.9008933501199199E-2</v>
       </c>
       <c r="JH8">
-        <v>-3.3750731156893302E-3</v>
+        <v>-1.8855703939135701E-2</v>
       </c>
       <c r="JI8">
-        <v>-3.3220928750446101E-3</v>
+        <v>-1.8633502158637801E-2</v>
       </c>
       <c r="JJ8">
-        <v>-3.2902574700177799E-3</v>
+        <v>-1.8599780685758099E-2</v>
       </c>
       <c r="JK8">
-        <v>-3.20858141901604E-3</v>
+        <v>-1.8414640604242E-2</v>
       </c>
       <c r="JL8">
-        <v>-3.3025852038062299E-3</v>
+        <v>-1.83072181994413E-2</v>
       </c>
       <c r="JM8">
-        <v>-3.19710114493966E-3</v>
+        <v>-1.8112774725510698E-2</v>
       </c>
       <c r="JN8">
-        <v>-3.2722871564481999E-3</v>
+        <v>-1.80158086962104E-2</v>
       </c>
       <c r="JO8">
-        <v>-3.0924687959852401E-3</v>
+        <v>-1.80159464536012E-2</v>
       </c>
       <c r="JP8">
-        <v>-3.0705637698068798E-3</v>
+        <v>-1.7885207113574001E-2</v>
       </c>
       <c r="JQ8">
-        <v>-3.1266654385329901E-3</v>
+        <v>-1.77067831332097E-2</v>
       </c>
       <c r="JR8">
-        <v>-3.1013641993393199E-3</v>
+        <v>-1.7743502183512901E-2</v>
       </c>
       <c r="JS8">
-        <v>-2.9717674743390899E-3</v>
+        <v>-1.77669673578221E-2</v>
       </c>
       <c r="JT8">
-        <v>-3.0462938662773999E-3</v>
+        <v>-1.7615259578382302E-2</v>
       </c>
       <c r="JU8">
-        <v>-2.91101387644877E-3</v>
+        <v>-1.74639543474489E-2</v>
       </c>
       <c r="JV8">
-        <v>-3.0292697268815599E-3</v>
+        <v>-1.75253474646445E-2</v>
       </c>
       <c r="JW8">
-        <v>-2.9232175936194098E-3</v>
+        <v>-1.7408868599676799E-2</v>
       </c>
       <c r="JX8">
-        <v>-2.8884698485899898E-3</v>
+        <v>-1.72918957050428E-2</v>
       </c>
       <c r="JY8">
-        <v>-2.92539078069344E-3</v>
+        <v>-1.7321869497984699E-2</v>
       </c>
       <c r="JZ8">
-        <v>-2.87101158697072E-3</v>
+        <v>-1.7325897903712001E-2</v>
       </c>
       <c r="KA8">
-        <v>-2.8652088605657E-3</v>
+        <v>-1.72567984529035E-2</v>
       </c>
       <c r="KB8">
-        <v>-2.8172265776091202E-3</v>
+        <v>-1.7188428169618401E-2</v>
       </c>
       <c r="KC8">
-        <v>-2.7939771270359399E-3</v>
+        <v>-1.72774233244305E-2</v>
       </c>
       <c r="KD8">
-        <v>-2.7285367521284699E-3</v>
+        <v>-1.7231486196536201E-2</v>
       </c>
       <c r="KE8">
-        <v>-2.7567636480010098E-3</v>
+        <v>-1.7245309186957301E-2</v>
       </c>
       <c r="KF8">
-        <v>-2.8009882737618E-3</v>
+        <v>-1.71121896778119E-2</v>
       </c>
       <c r="KG8">
-        <v>-2.7165666600906802E-3</v>
+        <v>-1.70993538441571E-2</v>
       </c>
       <c r="KH8">
-        <v>-2.7524136726884002E-3</v>
+        <v>-1.7164513117444099E-2</v>
       </c>
       <c r="KI8">
-        <v>-2.65492974034965E-3</v>
+        <v>-1.6986589658166001E-2</v>
       </c>
       <c r="KJ8">
-        <v>-2.7527500550290399E-3</v>
+        <v>-1.7060004549714E-2</v>
       </c>
       <c r="KK8">
-        <v>-2.6966138003821499E-3</v>
+        <v>-1.7037315290699601E-2</v>
       </c>
       <c r="KL8">
-        <v>-2.6069030780176698E-3</v>
+        <v>-1.6954043763981901E-2</v>
       </c>
       <c r="KM8">
-        <v>-2.5581586880213001E-3</v>
+        <v>-1.68768462776431E-2</v>
       </c>
       <c r="KN8">
-        <v>-2.6137688471127001E-3</v>
+        <v>-1.6851499411517399E-2</v>
       </c>
       <c r="KO8">
-        <v>-2.6598644978194099E-3</v>
+        <v>-1.6772858085282401E-2</v>
       </c>
       <c r="KP8">
-        <v>-2.45840899399758E-3</v>
+        <v>-1.6732301377951501E-2</v>
       </c>
       <c r="KQ8">
-        <v>-2.4833182969499E-3</v>
+        <v>-1.6628417056380702E-2</v>
       </c>
       <c r="KR8">
-        <v>-2.6153774151179E-3</v>
+        <v>-1.6592653161835402E-2</v>
       </c>
       <c r="KS8">
-        <v>-2.5895827772848398E-3</v>
+        <v>-1.65311042998516E-2</v>
       </c>
       <c r="KT8">
-        <v>-2.5587012386770499E-3</v>
+        <v>-1.63441182624522E-2</v>
       </c>
       <c r="KU8">
-        <v>-2.4916306344053198E-3</v>
+        <v>-1.6340071432454899E-2</v>
       </c>
       <c r="KV8">
-        <v>-2.4882209671096898E-3</v>
+        <v>-1.6331894357018699E-2</v>
       </c>
       <c r="KW8">
-        <v>-2.5245437683614098E-3</v>
+        <v>-1.62713198623935E-2</v>
       </c>
       <c r="KX8">
-        <v>-2.5198866172438999E-3</v>
+        <v>-1.62792359089193E-2</v>
       </c>
       <c r="KY8">
-        <v>-2.5616531352529799E-3</v>
+        <v>-1.6237680033098102E-2</v>
       </c>
       <c r="KZ8">
-        <v>-2.5088730004055701E-3</v>
+        <v>-1.6173406439033401E-2</v>
       </c>
       <c r="LA8">
-        <v>-2.4286761114514898E-3</v>
+        <v>-1.6234875951985701E-2</v>
       </c>
       <c r="LB8">
-        <v>-2.5442776343364598E-3</v>
+        <v>-1.6149583763566101E-2</v>
       </c>
       <c r="LC8">
-        <v>-2.4890802568945801E-3</v>
+        <v>-1.6086400249519298E-2</v>
       </c>
       <c r="LD8">
-        <v>-2.5070878862190702E-3</v>
+        <v>-1.61369917718895E-2</v>
       </c>
       <c r="LE8">
-        <v>-2.4897238589612698E-3</v>
+        <v>-1.6148825606676701E-2</v>
       </c>
       <c r="LF8">
-        <v>-2.4713654096088201E-3</v>
+        <v>-1.6171066290093301E-2</v>
       </c>
       <c r="LG8">
-        <v>-2.35643237956755E-3</v>
+        <v>-1.6076200203922E-2</v>
       </c>
       <c r="LH8">
-        <v>-2.3733269671020601E-3</v>
+        <v>-1.6054768710716701E-2</v>
       </c>
       <c r="LI8">
-        <v>-2.3010925648339299E-3</v>
+        <v>-1.59658508143628E-2</v>
       </c>
       <c r="LJ8">
-        <v>-2.28664351561364E-3</v>
+        <v>-1.6080074508907E-2</v>
       </c>
       <c r="LK8">
-        <v>-2.2945871904190601E-3</v>
+        <v>-1.6098453506315901E-2</v>
       </c>
       <c r="LL8">
-        <v>-2.35300751030618E-3</v>
+        <v>-1.6037045192888202E-2</v>
       </c>
       <c r="LM8">
-        <v>-2.2727642371230101E-3</v>
+        <v>-1.6053152043018801E-2</v>
       </c>
       <c r="LN8">
-        <v>-2.3400266669050501E-3</v>
+        <v>-1.6008301493088802E-2</v>
       </c>
       <c r="LO8">
-        <v>-2.2695874970302499E-3</v>
+        <v>-1.5902027382855601E-2</v>
       </c>
       <c r="LP8">
-        <v>-2.2350455219850899E-3</v>
+        <v>-1.59047386932239E-2</v>
       </c>
       <c r="LQ8">
-        <v>-2.2423531793481898E-3</v>
+        <v>-1.59020347189908E-2</v>
       </c>
       <c r="LR8">
-        <v>-2.30747808319411E-3</v>
+        <v>-1.58150457977373E-2</v>
       </c>
       <c r="LS8">
-        <v>-2.2473488824886201E-3</v>
+        <v>-1.57264941815159E-2</v>
       </c>
       <c r="LT8">
-        <v>-2.2191304741563801E-3</v>
+        <v>-1.57603375187324E-2</v>
       </c>
       <c r="LU8">
-        <v>-2.2444666793412001E-3</v>
+        <v>-1.5677690751515899E-2</v>
       </c>
       <c r="LV8">
-        <v>-2.1982620833200699E-3</v>
+        <v>-1.55715680809677E-2</v>
       </c>
       <c r="LW8">
-        <v>-2.1826361367645901E-3</v>
+        <v>-1.54950492207542E-2</v>
       </c>
       <c r="LX8">
-        <v>-2.2039814602228501E-3</v>
+        <v>-1.5439304167495199E-2</v>
       </c>
       <c r="LY8">
-        <v>-2.1247486717398999E-3</v>
+        <v>-1.5536713654144701E-2</v>
       </c>
       <c r="LZ8">
-        <v>-2.0997390178690502E-3</v>
+        <v>-1.55443052112716E-2</v>
       </c>
       <c r="MA8">
-        <v>-2.2068313583308999E-3</v>
+        <v>-1.54922469141562E-2</v>
       </c>
       <c r="MB8">
-        <v>-2.1394451502588199E-3</v>
+        <v>-1.54021409378618E-2</v>
       </c>
       <c r="MC8">
-        <v>-2.2235839228095799E-3</v>
+        <v>-1.54755242215814E-2</v>
       </c>
       <c r="MD8">
-        <v>-2.1390955005813001E-3</v>
+        <v>-1.52989023603227E-2</v>
       </c>
       <c r="ME8">
-        <v>-2.0303732641940402E-3</v>
+        <v>-1.52490169274944E-2</v>
       </c>
       <c r="MF8">
-        <v>-2.0726131468035698E-3</v>
+        <v>-1.52051051466181E-2</v>
       </c>
       <c r="MG8">
-        <v>-2.1924025027702599E-3</v>
+        <v>-1.5368117175382201E-2</v>
       </c>
       <c r="MH8">
-        <v>-2.1325899297958101E-3</v>
+        <v>-1.52019378545151E-2</v>
       </c>
       <c r="MI8">
-        <v>-2.0282188135429999E-3</v>
+        <v>-1.53000088228384E-2</v>
       </c>
       <c r="MJ8">
-        <v>-2.0847510961355901E-3</v>
+        <v>-1.5190809586346599E-2</v>
       </c>
       <c r="MK8">
-        <v>-2.0402562457153802E-3</v>
+        <v>-1.5224123908354901E-2</v>
       </c>
       <c r="ML8">
-        <v>-2.1107200873573101E-3</v>
+        <v>-1.52112648556956E-2</v>
       </c>
       <c r="MM8">
-        <v>-2.0737581732585301E-3</v>
+        <v>-1.5242562340939099E-2</v>
       </c>
       <c r="MN8">
-        <v>-2.1476247999565202E-3</v>
+        <v>-1.5164686131305999E-2</v>
       </c>
       <c r="MO8">
-        <v>-2.0684272526816099E-3</v>
+        <v>-1.52686990977063E-2</v>
       </c>
       <c r="MP8">
-        <v>-2.1273413043617598E-3</v>
+        <v>-1.51220587082544E-2</v>
       </c>
       <c r="MQ8">
-        <v>-1.9777192865255699E-3</v>
+        <v>-1.52467200686064E-2</v>
       </c>
       <c r="MR8">
-        <v>-2.0453947700340399E-3</v>
+        <v>-1.51873783425711E-2</v>
       </c>
       <c r="MS8">
-        <v>-2.0268349555334999E-3</v>
+        <v>-1.52149872926073E-2</v>
       </c>
       <c r="MT8">
-        <v>-1.9888609502989102E-3</v>
+        <v>-1.53012821366936E-2</v>
       </c>
       <c r="MU8">
-        <v>-2.0182711632174698E-3</v>
+        <v>-1.5200452448353901E-2</v>
       </c>
       <c r="MV8">
-        <v>-1.9595948782962802E-3</v>
+        <v>-1.5216514012754E-2</v>
       </c>
       <c r="MW8">
-        <v>-2.0324140438034602E-3</v>
+        <v>-1.5287292793115999E-2</v>
       </c>
       <c r="MX8">
-        <v>-1.9344837697243E-3</v>
+        <v>-1.51329299810822E-2</v>
       </c>
       <c r="MY8">
-        <v>-2.0444077210984199E-3</v>
+        <v>-1.5198504116278599E-2</v>
       </c>
       <c r="MZ8">
-        <v>-1.9585622127447199E-3</v>
+        <v>-1.51400184634839E-2</v>
       </c>
       <c r="NA8">
-        <v>-2.0004038537739699E-3</v>
+        <v>-1.51459965690607E-2</v>
       </c>
       <c r="NB8">
-        <v>-2.0636276176782399E-3</v>
+        <v>-1.5195354278584001E-2</v>
       </c>
       <c r="NC8">
-        <v>-2.0536292039121198E-3</v>
+        <v>-1.51285973144834E-2</v>
       </c>
       <c r="ND8">
-        <v>-1.87993477252804E-3</v>
+        <v>-1.50364648008616E-2</v>
       </c>
       <c r="NE8">
-        <v>-1.9461611822570899E-3</v>
+        <v>-1.4980122878412201E-2</v>
       </c>
       <c r="NF8">
-        <v>-1.9206816304995599E-3</v>
+        <v>-1.4940169481332701E-2</v>
       </c>
       <c r="NG8">
-        <v>-1.83660526200577E-3</v>
+        <v>-1.47645667948989E-2</v>
       </c>
       <c r="NH8">
-        <v>-1.9317917713958801E-3</v>
+        <v>-1.46923467240491E-2</v>
       </c>
       <c r="NI8">
-        <v>-1.9140809706530201E-3</v>
+        <v>-1.46940435629517E-2</v>
       </c>
       <c r="NJ8">
-        <v>-1.87388887436779E-3</v>
+        <v>-1.45157078692772E-2</v>
       </c>
       <c r="NK8">
-        <v>-1.8738640338977299E-3</v>
+        <v>-1.4484129523562201E-2</v>
       </c>
       <c r="NL8">
-        <v>-1.74633483890789E-3</v>
+        <v>-1.449779616907E-2</v>
       </c>
       <c r="NM8">
-        <v>-1.77313918434924E-3</v>
+        <v>-1.4360632519036499E-2</v>
       </c>
       <c r="NN8">
-        <v>-1.8645354133827699E-3</v>
+        <v>-1.43453473553488E-2</v>
       </c>
       <c r="NO8">
-        <v>-1.7663329606257901E-3</v>
+        <v>-1.4326738231673601E-2</v>
       </c>
       <c r="NP8">
-        <v>-1.7813544077255601E-3</v>
+        <v>-1.41692817859715E-2</v>
       </c>
       <c r="NQ8">
-        <v>-1.84483481732297E-3</v>
+        <v>-1.4209431990680201E-2</v>
       </c>
       <c r="NR8">
-        <v>-1.8423861560500801E-3</v>
+        <v>-1.4066224839951499E-2</v>
       </c>
       <c r="NS8">
-        <v>-1.75900458482228E-3</v>
+        <v>-1.40291679352623E-2</v>
       </c>
       <c r="NT8">
-        <v>-1.77230890681185E-3</v>
+        <v>-1.39187170021961E-2</v>
       </c>
       <c r="NU8">
-        <v>-1.7387167382869799E-3</v>
+        <v>-1.39649120753991E-2</v>
       </c>
       <c r="NV8">
-        <v>-1.8367465334605999E-3</v>
+        <v>-1.3922199207097899E-2</v>
       </c>
       <c r="NW8">
-        <v>-1.7401476162062499E-3</v>
+        <v>-1.3755582074929801E-2</v>
       </c>
       <c r="NX8">
-        <v>-1.73742468660579E-3</v>
+        <v>-1.3738966724908999E-2</v>
       </c>
       <c r="NY8">
-        <v>-1.71526878568397E-3</v>
+        <v>-1.3617285455192999E-2</v>
       </c>
       <c r="NZ8">
-        <v>-1.80143370868418E-3</v>
+        <v>-1.3570413756421301E-2</v>
       </c>
       <c r="OA8">
-        <v>-1.7244417459084201E-3</v>
+        <v>-1.3504095509148901E-2</v>
       </c>
       <c r="OB8">
-        <v>-1.6707037379935E-3</v>
+        <v>-1.35439643788229E-2</v>
       </c>
       <c r="OC8">
-        <v>-1.75410452698086E-3</v>
+        <v>-1.33716493120006E-2</v>
       </c>
       <c r="OD8">
-        <v>-1.74860468030442E-3</v>
+        <v>-1.32485755553476E-2</v>
       </c>
       <c r="OE8">
-        <v>-1.69853838366169E-3</v>
+        <v>-1.32915817714418E-2</v>
       </c>
       <c r="OF8">
-        <v>-1.6869568072070901E-3</v>
+        <v>-1.32122214478828E-2</v>
       </c>
       <c r="OG8">
-        <v>-1.7853387382465401E-3</v>
+        <v>-1.30565171174108E-2</v>
       </c>
       <c r="OH8">
-        <v>-1.7055372064677099E-3</v>
+        <v>-1.29685743753349E-2</v>
       </c>
       <c r="OI8">
-        <v>-1.65791263426149E-3</v>
+        <v>-1.28758352183599E-2</v>
       </c>
       <c r="OJ8">
-        <v>-1.7277791559050599E-3</v>
+        <v>-1.2901384459987999E-2</v>
       </c>
       <c r="OK8">
-        <v>-1.7585004100835399E-3</v>
+        <v>-1.25797397915465E-2</v>
       </c>
       <c r="OL8">
-        <v>-1.6452164806614301E-3</v>
+        <v>-1.25786853374572E-2</v>
       </c>
       <c r="OM8">
-        <v>-1.56571561583528E-3</v>
+        <v>-1.25224490643142E-2</v>
       </c>
       <c r="ON8">
-        <v>-1.5592166831515199E-3</v>
+        <v>-1.22629417859556E-2</v>
       </c>
       <c r="OO8">
-        <v>-1.65090590406474E-3</v>
+        <v>-1.22871406466902E-2</v>
       </c>
       <c r="OP8">
-        <v>-1.70893168983492E-3</v>
+        <v>-1.22646154285694E-2</v>
       </c>
       <c r="OQ8">
-        <v>-1.5551463476798299E-3</v>
+        <v>-1.1971339858821199E-2</v>
       </c>
       <c r="OR8">
-        <v>-1.58223719974536E-3</v>
+        <v>-1.1912292557325699E-2</v>
       </c>
       <c r="OS8">
-        <v>-1.6129296554537301E-3</v>
+        <v>-1.17553610361457E-2</v>
       </c>
       <c r="OT8">
-        <v>-1.5940836285945801E-3</v>
+        <v>-1.1649661797269201E-2</v>
       </c>
       <c r="OU8">
-        <v>-1.57636634139696E-3</v>
+        <v>-1.1394472958060699E-2</v>
       </c>
       <c r="OV8">
-        <v>-1.54336035943557E-3</v>
+        <v>-1.14187176283358E-2</v>
       </c>
       <c r="OW8">
-        <v>-1.67056509153757E-3</v>
+        <v>-1.11336803909353E-2</v>
       </c>
       <c r="OX8">
-        <v>-1.5848455520762401E-3</v>
+        <v>-1.0853643478013699E-2</v>
       </c>
       <c r="OY8">
-        <v>-1.55199100802583E-3</v>
+        <v>-1.0658222915034999E-2</v>
       </c>
       <c r="OZ8">
-        <v>-1.5320014170169701E-3</v>
+        <v>-1.05421610253526E-2</v>
       </c>
       <c r="PA8">
-        <v>-1.50514594249125E-3</v>
+        <v>-1.0339229254019E-2</v>
       </c>
       <c r="PB8">
-        <v>-1.553410928833E-3</v>
+        <v>-1.0226699907602801E-2</v>
       </c>
       <c r="PC8">
-        <v>-1.62777871331973E-3</v>
+        <v>-1.00705577642162E-2</v>
       </c>
       <c r="PD8">
-        <v>-1.56237840206608E-3</v>
+        <v>-9.8737526206100802E-3</v>
       </c>
       <c r="PE8">
-        <v>-1.5309145553389001E-3</v>
+        <v>-9.7742431636731204E-3</v>
       </c>
       <c r="PF8">
-        <v>-1.62270821048171E-3</v>
+        <v>-9.6110821266699592E-3</v>
       </c>
       <c r="PG8">
-        <v>-1.5354404003127999E-3</v>
+        <v>-9.4800809702308992E-3</v>
       </c>
       <c r="PH8">
-        <v>-1.46433270422968E-3</v>
+        <v>-9.2723216472067899E-3</v>
       </c>
       <c r="PI8">
-        <v>-1.4644372749569401E-3</v>
+        <v>-9.1457233560255299E-3</v>
       </c>
       <c r="PJ8">
-        <v>-1.46959181811762E-3</v>
+        <v>-9.0476616452939591E-3</v>
       </c>
       <c r="PK8">
-        <v>-1.4306623951870199E-3</v>
+        <v>-8.6989672358011704E-3</v>
       </c>
       <c r="PL8">
-        <v>-1.5042667886842899E-3</v>
+        <v>-8.8186832263644696E-3</v>
       </c>
       <c r="PM8">
-        <v>-1.5328197408003301E-3</v>
+        <v>-8.6082174898977192E-3</v>
       </c>
       <c r="PN8">
-        <v>-1.51820666257931E-3</v>
+        <v>-8.5544152064994591E-3</v>
       </c>
       <c r="PO8">
-        <v>-1.50225642992529E-3</v>
+        <v>-8.4267625708398797E-3</v>
       </c>
       <c r="PP8">
-        <v>-1.4893416256174E-3</v>
+        <v>-8.3920568051524501E-3</v>
       </c>
       <c r="PQ8">
-        <v>-1.51261486629941E-3</v>
+        <v>-8.1172289932957397E-3</v>
       </c>
       <c r="PR8">
-        <v>-1.41614027265703E-3</v>
+        <v>-8.0678057435073901E-3</v>
       </c>
       <c r="PS8">
-        <v>-1.3662976629089101E-3</v>
+        <v>-7.91858434689292E-3</v>
       </c>
       <c r="PT8">
-        <v>-1.38788873256623E-3</v>
+        <v>-7.7339031452406098E-3</v>
       </c>
       <c r="PU8">
-        <v>-1.45236916829292E-3</v>
+        <v>-7.60980204300648E-3</v>
       </c>
       <c r="PV8">
-        <v>-1.5135916613101799E-3</v>
+        <v>-7.5045796152489004E-3</v>
       </c>
       <c r="PW8">
-        <v>-1.47751603418866E-3</v>
+        <v>-7.4871465953501998E-3</v>
       </c>
       <c r="PX8">
-        <v>-1.33320697892673E-3</v>
+        <v>-7.40688400094827E-3</v>
       </c>
       <c r="PY8">
-        <v>-1.3778599995394999E-3</v>
+        <v>-7.30616003974745E-3</v>
       </c>
       <c r="PZ8">
-        <v>-1.4358326862397199E-3</v>
+        <v>-7.1392107476214196E-3</v>
       </c>
       <c r="QA8">
-        <v>-1.4625911611030799E-3</v>
+        <v>-6.9786732891633698E-3</v>
       </c>
       <c r="QB8">
-        <v>-1.4694954566540699E-3</v>
+        <v>-6.9249459687766596E-3</v>
       </c>
       <c r="QC8">
-        <v>-1.44934098555881E-3</v>
+        <v>-6.9092759605291496E-3</v>
       </c>
       <c r="QD8">
-        <v>-1.4721857305681301E-3</v>
+        <v>-6.8364514408090302E-3</v>
       </c>
       <c r="QE8">
-        <v>-1.4689131674050101E-3</v>
+        <v>-6.8887403150293802E-3</v>
       </c>
       <c r="QF8">
-        <v>-1.48046593316782E-3</v>
+        <v>-6.6594241629971598E-3</v>
       </c>
       <c r="QG8">
-        <v>-1.4977897040169301E-3</v>
+        <v>-6.50051688992365E-3</v>
       </c>
       <c r="QH8">
-        <v>-1.6204564448026901E-3</v>
+        <v>-6.41667402307264E-3</v>
       </c>
       <c r="QI8">
-        <v>-1.4991508271916E-3</v>
+        <v>-6.2591118637998801E-3</v>
       </c>
       <c r="QJ8">
-        <v>-1.5653151197731899E-3</v>
+        <v>-6.1652685817802696E-3</v>
       </c>
     </row>
     <row r="9" spans="1:452">
       <c r="A9">
-        <v>-0.114804246033959</v>
+        <v>-6.5893026269424296E-2</v>
       </c>
       <c r="B9">
-        <v>-0.113057500000671</v>
+        <v>-6.4565878674086793E-2</v>
       </c>
       <c r="C9">
-        <v>-0.111198927895947</v>
+        <v>-6.2824984558733907E-2</v>
       </c>
       <c r="D9">
-        <v>-0.109131083592376</v>
+        <v>-6.1642462425891699E-2</v>
       </c>
       <c r="E9">
-        <v>-0.107171197664387</v>
+        <v>-6.0575019923810702E-2</v>
       </c>
       <c r="F9">
-        <v>-0.10524899322083001</v>
+        <v>-5.9451155007590198E-2</v>
       </c>
       <c r="G9">
-        <v>-0.10363301345894101</v>
+        <v>-5.7777135359346601E-2</v>
       </c>
       <c r="H9">
-        <v>-0.102439625397708</v>
+        <v>-5.6765375716190503E-2</v>
       </c>
       <c r="I9">
-        <v>-0.100689013611933</v>
+        <v>-5.5658930572953298E-2</v>
       </c>
       <c r="J9">
-        <v>-9.8873337716839801E-2</v>
+        <v>-5.4358904791840003E-2</v>
       </c>
       <c r="K9">
-        <v>-9.6684771325726601E-2</v>
+        <v>-5.3225052106992E-2</v>
       </c>
       <c r="L9">
-        <v>-9.4120519529847596E-2</v>
+        <v>-5.2127018354124401E-2</v>
       </c>
       <c r="M9">
-        <v>-9.1727057957895805E-2</v>
+        <v>-5.1337999747305303E-2</v>
       </c>
       <c r="N9">
-        <v>-8.9879026461079606E-2</v>
+        <v>-5.0004042024664998E-2</v>
       </c>
       <c r="O9">
-        <v>-8.8158431362127795E-2</v>
+        <v>-4.8780260779271202E-2</v>
       </c>
       <c r="P9">
-        <v>-8.6299436247376807E-2</v>
+        <v>-4.7882245057837301E-2</v>
       </c>
       <c r="Q9">
-        <v>-8.4362012822159396E-2</v>
+        <v>-4.6962290632114802E-2</v>
       </c>
       <c r="R9">
-        <v>-8.2317597542902701E-2</v>
+        <v>-4.62697198407587E-2</v>
       </c>
       <c r="S9">
-        <v>-8.0628975156219099E-2</v>
+        <v>-4.54754132193071E-2</v>
       </c>
       <c r="T9">
-        <v>-7.8541149001081501E-2</v>
+        <v>-4.4686963441924403E-2</v>
       </c>
       <c r="U9">
-        <v>-7.6863156031076296E-2</v>
+        <v>-4.3764833880926703E-2</v>
       </c>
       <c r="V9">
-        <v>-7.5119964040670797E-2</v>
+        <v>-4.2858472643256602E-2</v>
       </c>
       <c r="W9">
-        <v>-7.3229219047499294E-2</v>
+        <v>-4.2014342159976098E-2</v>
       </c>
       <c r="X9">
-        <v>-7.1723607396500605E-2</v>
+        <v>-4.12641528563608E-2</v>
       </c>
       <c r="Y9">
-        <v>-7.0267682334989701E-2</v>
+        <v>-4.03402183731855E-2</v>
       </c>
       <c r="Z9">
-        <v>-6.8988666260638001E-2</v>
+        <v>-3.9747938111981199E-2</v>
       </c>
       <c r="AA9">
-        <v>-6.7795018391440406E-2</v>
+        <v>-3.9099649457075399E-2</v>
       </c>
       <c r="AB9">
-        <v>-6.6649439626706594E-2</v>
+        <v>-3.8459357327912398E-2</v>
       </c>
       <c r="AC9">
-        <v>-6.5718575269748294E-2</v>
+        <v>-3.7752164522568403E-2</v>
       </c>
       <c r="AD9">
-        <v>-6.4556286630336204E-2</v>
+        <v>-3.7173021128218603E-2</v>
       </c>
       <c r="AE9">
-        <v>-6.3334481631385803E-2</v>
+        <v>-3.6565568151693102E-2</v>
       </c>
       <c r="AF9">
-        <v>-6.2576912525857203E-2</v>
+        <v>-3.6037425269127697E-2</v>
       </c>
       <c r="AG9">
-        <v>-6.1469389328930098E-2</v>
+        <v>-3.5508492366273597E-2</v>
       </c>
       <c r="AH9">
-        <v>-6.0504140335342203E-2</v>
+        <v>-3.5106474755638002E-2</v>
       </c>
       <c r="AI9">
-        <v>-5.9703338011668501E-2</v>
+        <v>-3.44388374999492E-2</v>
       </c>
       <c r="AJ9">
-        <v>-5.88876214153123E-2</v>
+        <v>-3.4022798207495597E-2</v>
       </c>
       <c r="AK9">
-        <v>-5.8277034653438399E-2</v>
+        <v>-3.3682234685511903E-2</v>
       </c>
       <c r="AL9">
-        <v>-5.7631899015372003E-2</v>
+        <v>-3.3036158957920302E-2</v>
       </c>
       <c r="AM9">
-        <v>-5.6906425642015902E-2</v>
+        <v>-3.2782130231699E-2</v>
       </c>
       <c r="AN9">
-        <v>-5.6248567229735903E-2</v>
+        <v>-3.2370066178309398E-2</v>
       </c>
       <c r="AO9">
-        <v>-5.5578250439561203E-2</v>
+        <v>-3.19816543021995E-2</v>
       </c>
       <c r="AP9">
-        <v>-5.5085380669113303E-2</v>
+        <v>-3.1578746347767798E-2</v>
       </c>
       <c r="AQ9">
-        <v>-5.4391871372039498E-2</v>
+        <v>-3.1183880494891E-2</v>
       </c>
       <c r="AR9">
-        <v>-5.3943796797037397E-2</v>
+        <v>-3.07317386866999E-2</v>
       </c>
       <c r="AS9">
-        <v>-5.3193391476109603E-2</v>
+        <v>-3.0313831402510798E-2</v>
       </c>
       <c r="AT9">
-        <v>-5.2907368590093602E-2</v>
+        <v>-3.0096926308583599E-2</v>
       </c>
       <c r="AU9">
-        <v>-5.2368485399779403E-2</v>
+        <v>-2.9662943293091298E-2</v>
       </c>
       <c r="AV9">
-        <v>-5.1828750017094499E-2</v>
+        <v>-2.94520613993512E-2</v>
       </c>
       <c r="AW9">
-        <v>-5.1443977483120899E-2</v>
+        <v>-2.9063668731053399E-2</v>
       </c>
       <c r="AX9">
-        <v>-5.0993646354398202E-2</v>
+        <v>-2.8708360017858901E-2</v>
       </c>
       <c r="AY9">
-        <v>-5.0685015079595601E-2</v>
+        <v>-2.8534363561675401E-2</v>
       </c>
       <c r="AZ9">
-        <v>-5.0300132218127902E-2</v>
+        <v>-2.8247794484693198E-2</v>
       </c>
       <c r="BA9">
-        <v>-4.9878146541845303E-2</v>
+        <v>-2.7927062176450902E-2</v>
       </c>
       <c r="BB9">
-        <v>-4.9686929214464902E-2</v>
+        <v>-2.7423287868046001E-2</v>
       </c>
       <c r="BC9">
-        <v>-4.9339661503408301E-2</v>
+        <v>-2.7330617106947001E-2</v>
       </c>
       <c r="BD9">
-        <v>-4.8887137471015502E-2</v>
+        <v>-2.69765468613779E-2</v>
       </c>
       <c r="BE9">
-        <v>-4.8515967913466698E-2</v>
+        <v>-2.6779905662752401E-2</v>
       </c>
       <c r="BF9">
-        <v>-4.83173753348555E-2</v>
+        <v>-2.6416938322401301E-2</v>
       </c>
       <c r="BG9">
-        <v>-4.7923446383702203E-2</v>
+        <v>-2.61600776546984E-2</v>
       </c>
       <c r="BH9">
-        <v>-4.7702250012879803E-2</v>
+        <v>-2.57359758389656E-2</v>
       </c>
       <c r="BI9">
-        <v>-4.7594720664994102E-2</v>
+        <v>-2.5389129680977E-2</v>
       </c>
       <c r="BJ9">
-        <v>-4.7526152928795203E-2</v>
+        <v>-2.5251775671236501E-2</v>
       </c>
       <c r="BK9">
-        <v>-4.7402513428037897E-2</v>
+        <v>-2.49124817900984E-2</v>
       </c>
       <c r="BL9">
-        <v>-4.7247743318861501E-2</v>
+        <v>-2.4612267045076699E-2</v>
       </c>
       <c r="BM9">
-        <v>-4.6998650397738498E-2</v>
+        <v>-2.4183755542755099E-2</v>
       </c>
       <c r="BN9">
-        <v>-4.6809480042648101E-2</v>
+        <v>-2.38752754287751E-2</v>
       </c>
       <c r="BO9">
-        <v>-4.6343017051250601E-2</v>
+        <v>-2.3610423195519498E-2</v>
       </c>
       <c r="BP9">
-        <v>-4.5494135686522899E-2</v>
+        <v>-2.3212460934901102E-2</v>
       </c>
       <c r="BQ9">
-        <v>-4.4475132154221997E-2</v>
+        <v>-2.29353203071062E-2</v>
       </c>
       <c r="BR9">
-        <v>-4.3694940893832503E-2</v>
+        <v>-2.29133219538343E-2</v>
       </c>
       <c r="BS9">
-        <v>-4.3058643023942397E-2</v>
+        <v>-2.2633494655348599E-2</v>
       </c>
       <c r="BT9">
-        <v>-4.29539041491152E-2</v>
+        <v>-2.2376227332553601E-2</v>
       </c>
       <c r="BU9">
-        <v>-4.3179914329525899E-2</v>
+        <v>-2.2274052503761702E-2</v>
       </c>
       <c r="BV9">
-        <v>-4.3367231173521197E-2</v>
+        <v>-2.1977467669240299E-2</v>
       </c>
       <c r="BW9">
-        <v>-4.34414898861743E-2</v>
+        <v>-2.1672878974346999E-2</v>
       </c>
       <c r="BX9">
-        <v>-4.36145816855723E-2</v>
+        <v>-2.12349677085171E-2</v>
       </c>
       <c r="BY9">
-        <v>-4.3589984506303303E-2</v>
+        <v>-2.0926712484952901E-2</v>
       </c>
       <c r="BZ9">
-        <v>-4.35956568700165E-2</v>
+        <v>-2.0629041773739101E-2</v>
       </c>
       <c r="CA9">
-        <v>-4.3559992459915202E-2</v>
+        <v>-2.0282102009206798E-2</v>
       </c>
       <c r="CB9">
-        <v>-4.3634522325578101E-2</v>
+        <v>-1.9863262841305199E-2</v>
       </c>
       <c r="CC9">
-        <v>-4.3684975953601497E-2</v>
+        <v>-1.9556231512842699E-2</v>
       </c>
       <c r="CD9">
-        <v>-4.3803739582720998E-2</v>
+        <v>-1.9147039381985202E-2</v>
       </c>
       <c r="CE9">
-        <v>-4.3791143764653699E-2</v>
+        <v>-1.88854536440279E-2</v>
       </c>
       <c r="CF9">
-        <v>-4.4097909690505102E-2</v>
+        <v>-1.8420770319791901E-2</v>
       </c>
       <c r="CG9">
-        <v>-4.42454515891198E-2</v>
+        <v>-1.8091049571264801E-2</v>
       </c>
       <c r="CH9">
-        <v>-4.4281312225540499E-2</v>
+        <v>-1.77486173281373E-2</v>
       </c>
       <c r="CI9">
-        <v>-4.40221092602033E-2</v>
+        <v>-1.7270789728666799E-2</v>
       </c>
       <c r="CJ9">
-        <v>-4.2953175954381598E-2</v>
+        <v>-1.7121598375424402E-2</v>
       </c>
       <c r="CK9">
-        <v>-4.18698175851559E-2</v>
+        <v>-1.68621649187808E-2</v>
       </c>
       <c r="CL9">
-        <v>-4.1427924453495003E-2</v>
+        <v>-1.66728407786088E-2</v>
       </c>
       <c r="CM9">
-        <v>-4.1738816222794899E-2</v>
+        <v>-1.6419718110186499E-2</v>
       </c>
       <c r="CN9">
-        <v>-4.2019789277398599E-2</v>
+        <v>-1.60313547704206E-2</v>
       </c>
       <c r="CO9">
-        <v>-4.21670700849123E-2</v>
+        <v>-1.55916560754433E-2</v>
       </c>
       <c r="CP9">
-        <v>-4.22263016145926E-2</v>
+        <v>-1.54157887807628E-2</v>
       </c>
       <c r="CQ9">
-        <v>-4.2272397016754601E-2</v>
+        <v>-1.49750802512796E-2</v>
       </c>
       <c r="CR9">
-        <v>-4.2157168673448098E-2</v>
+        <v>-1.45750076429196E-2</v>
       </c>
       <c r="CS9">
-        <v>-4.2053034870137902E-2</v>
+        <v>-1.4326551908346001E-2</v>
       </c>
       <c r="CT9">
-        <v>-4.1965567331526198E-2</v>
+        <v>-1.3877887950777599E-2</v>
       </c>
       <c r="CU9">
-        <v>-4.1882647413599497E-2</v>
+        <v>-1.3630144600077301E-2</v>
       </c>
       <c r="CV9">
-        <v>-4.17016191006674E-2</v>
+        <v>-1.35485966345736E-2</v>
       </c>
       <c r="CW9">
-        <v>-4.1538650591733499E-2</v>
+        <v>-1.3181406704629001E-2</v>
       </c>
       <c r="CX9">
-        <v>-4.1404026963030097E-2</v>
+        <v>-1.2931194877497399E-2</v>
       </c>
       <c r="CY9">
-        <v>-4.1488570067037898E-2</v>
+        <v>-1.27663934302551E-2</v>
       </c>
       <c r="CZ9">
-        <v>-4.1420425746846401E-2</v>
+        <v>-1.25068575336326E-2</v>
       </c>
       <c r="DA9">
-        <v>-4.1433140224608297E-2</v>
+        <v>-1.2437955698606199E-2</v>
       </c>
       <c r="DB9">
-        <v>-4.1403022773483102E-2</v>
+        <v>-1.21824300455392E-2</v>
       </c>
       <c r="DC9">
-        <v>-4.1467446976901599E-2</v>
+        <v>-1.20205262587315E-2</v>
       </c>
       <c r="DD9">
-        <v>-4.1773346779026402E-2</v>
+        <v>-1.18193106932053E-2</v>
       </c>
       <c r="DE9">
-        <v>-4.1841343471933197E-2</v>
+        <v>-1.18217340088843E-2</v>
       </c>
       <c r="DF9">
-        <v>-4.1959541341003902E-2</v>
+        <v>-1.1613614416450001E-2</v>
       </c>
       <c r="DG9">
-        <v>-4.2062824833396302E-2</v>
+        <v>-1.1469175244685201E-2</v>
       </c>
       <c r="DH9">
-        <v>-4.2059484770064999E-2</v>
+        <v>-1.13175133232187E-2</v>
       </c>
       <c r="DI9">
-        <v>-4.2097505130620598E-2</v>
+        <v>-1.1188550391733399E-2</v>
       </c>
       <c r="DJ9">
-        <v>-4.2191229057482203E-2</v>
+        <v>-1.10677725794878E-2</v>
       </c>
       <c r="DK9">
-        <v>-4.2309221076864099E-2</v>
+        <v>-1.0976253557428199E-2</v>
       </c>
       <c r="DL9">
-        <v>-4.2274585218486802E-2</v>
+        <v>-1.08715284472662E-2</v>
       </c>
       <c r="DM9">
-        <v>-4.22138791736111E-2</v>
+        <v>-1.07792510815393E-2</v>
       </c>
       <c r="DN9">
-        <v>-4.1877666801708902E-2</v>
+        <v>-1.0670381926401001E-2</v>
       </c>
       <c r="DO9">
-        <v>-4.1665653032118798E-2</v>
+        <v>-1.05920579306356E-2</v>
       </c>
       <c r="DP9">
-        <v>-4.1661783004773599E-2</v>
+        <v>-1.0520979945788E-2</v>
       </c>
       <c r="DQ9">
-        <v>-4.1640728761914297E-2</v>
+        <v>-1.05556812119059E-2</v>
       </c>
       <c r="DR9">
-        <v>-4.1604163101223897E-2</v>
+        <v>-1.04097646933029E-2</v>
       </c>
       <c r="DS9">
-        <v>-4.1592641387442099E-2</v>
+        <v>-1.0351034639389099E-2</v>
       </c>
       <c r="DT9">
-        <v>-4.1621895564579098E-2</v>
+        <v>-1.0182676100600399E-2</v>
       </c>
       <c r="DU9">
-        <v>-4.16860730840376E-2</v>
+        <v>-1.0234682158593999E-2</v>
       </c>
       <c r="DV9">
-        <v>-4.1646181246179803E-2</v>
+        <v>-1.00695862637979E-2</v>
       </c>
       <c r="DW9">
-        <v>-4.1697249261246697E-2</v>
+        <v>-1.0055295785439599E-2</v>
       </c>
       <c r="DX9">
-        <v>-4.1577279554868202E-2</v>
+        <v>-9.9422223792815304E-3</v>
       </c>
       <c r="DY9">
-        <v>-4.1309557127817198E-2</v>
+        <v>-9.9668022135508197E-3</v>
       </c>
       <c r="DZ9">
-        <v>-4.1048027035530503E-2</v>
+        <v>-9.8497513203364799E-3</v>
       </c>
       <c r="EA9">
-        <v>-4.0572001521125299E-2</v>
+        <v>-9.7826079800442303E-3</v>
       </c>
       <c r="EB9">
-        <v>-3.9932767414790397E-2</v>
+        <v>-9.7553609888588501E-3</v>
       </c>
       <c r="EC9">
-        <v>-3.9574478517426001E-2</v>
+        <v>-9.7013689777356998E-3</v>
       </c>
       <c r="ED9">
-        <v>-3.9024250223702997E-2</v>
+        <v>-9.6497908005754706E-3</v>
       </c>
       <c r="EE9">
-        <v>-3.8995463621502899E-2</v>
+        <v>-9.6701625570978708E-3</v>
       </c>
       <c r="EF9">
-        <v>-3.9025215513298302E-2</v>
+        <v>-9.6373506109000903E-3</v>
       </c>
       <c r="EG9">
-        <v>-3.9041427939960897E-2</v>
+        <v>-9.5252799631732905E-3</v>
       </c>
       <c r="EH9">
-        <v>-3.92443805892407E-2</v>
+        <v>-9.5455653853661702E-3</v>
       </c>
       <c r="EI9">
-        <v>-3.9337645684924497E-2</v>
+        <v>-9.4720489775475397E-3</v>
       </c>
       <c r="EJ9">
-        <v>-3.9303255739082402E-2</v>
+        <v>-9.3902572647401403E-3</v>
       </c>
       <c r="EK9">
-        <v>-3.9290277934251501E-2</v>
+        <v>-9.3805050225309293E-3</v>
       </c>
       <c r="EL9">
-        <v>-3.91002648372447E-2</v>
+        <v>-9.3847967793326392E-3</v>
       </c>
       <c r="EM9">
-        <v>-3.9093263036739101E-2</v>
+        <v>-9.3452649756180506E-3</v>
       </c>
       <c r="EN9">
-        <v>-3.8748384074111297E-2</v>
+        <v>-9.2775436337358894E-3</v>
       </c>
       <c r="EO9">
-        <v>-3.85888949017461E-2</v>
+        <v>-9.1808459677442493E-3</v>
       </c>
       <c r="EP9">
-        <v>-3.8348963729356401E-2</v>
+        <v>-9.1532746967988698E-3</v>
       </c>
       <c r="EQ9">
-        <v>-3.7907093807698702E-2</v>
+        <v>-9.1641223786242208E-3</v>
       </c>
       <c r="ER9">
-        <v>-3.73961722161857E-2</v>
+        <v>-8.9981585288034498E-3</v>
       </c>
       <c r="ES9">
-        <v>-3.7081469362411301E-2</v>
+        <v>-8.9792071982060604E-3</v>
       </c>
       <c r="ET9">
-        <v>-3.6769273882522303E-2</v>
+        <v>-8.9119900671495306E-3</v>
       </c>
       <c r="EU9">
-        <v>-3.6151143969653902E-2</v>
+        <v>-8.9317581245635502E-3</v>
       </c>
       <c r="EV9">
-        <v>-3.5592983165815599E-2</v>
+        <v>-8.8000872951195692E-3</v>
       </c>
       <c r="EW9">
-        <v>-3.4927597998115199E-2</v>
+        <v>-8.7905169304836397E-3</v>
       </c>
       <c r="EX9">
-        <v>-3.4276205581286003E-2</v>
+        <v>-8.7577118060782801E-3</v>
       </c>
       <c r="EY9">
-        <v>-3.3822419140500201E-2</v>
+        <v>-8.7173162229080593E-3</v>
       </c>
       <c r="EZ9">
-        <v>-3.3185558821060099E-2</v>
+        <v>-8.7757415582439893E-3</v>
       </c>
       <c r="FA9">
-        <v>-3.2687464827302497E-2</v>
+        <v>-8.7484134265632101E-3</v>
       </c>
       <c r="FB9">
-        <v>-3.2366545658323101E-2</v>
+        <v>-8.6152138613444992E-3</v>
       </c>
       <c r="FC9">
-        <v>-3.2104134012617302E-2</v>
+        <v>-8.5604462679278806E-3</v>
       </c>
       <c r="FD9">
-        <v>-3.18992898301379E-2</v>
+        <v>-8.5621490610884397E-3</v>
       </c>
       <c r="FE9">
-        <v>-3.1597845587774898E-2</v>
+        <v>-8.6238717071992002E-3</v>
       </c>
       <c r="FF9">
-        <v>-3.1438116479099103E-2</v>
+        <v>-8.5189284526661201E-3</v>
       </c>
       <c r="FG9">
-        <v>-3.1172434154221999E-2</v>
+        <v>-8.4259613876359503E-3</v>
       </c>
       <c r="FH9">
-        <v>-3.08112011445274E-2</v>
+        <v>-8.4545642874765802E-3</v>
       </c>
       <c r="FI9">
-        <v>-3.0566191108959698E-2</v>
+        <v>-8.3722802138183998E-3</v>
       </c>
       <c r="FJ9">
-        <v>-3.0013421553345399E-2</v>
+        <v>-8.3336891154391305E-3</v>
       </c>
       <c r="FK9">
-        <v>-2.97090321388436E-2</v>
+        <v>-8.22376781198636E-3</v>
       </c>
       <c r="FL9">
-        <v>-2.9563028841967501E-2</v>
+        <v>-8.1988956515109002E-3</v>
       </c>
       <c r="FM9">
-        <v>-2.92597482294863E-2</v>
+        <v>-8.1473226222793602E-3</v>
       </c>
       <c r="FN9">
-        <v>-2.89284885778174E-2</v>
+        <v>-8.1021034135764208E-3</v>
       </c>
       <c r="FO9">
-        <v>-2.87562145047606E-2</v>
+        <v>-7.9921338784845301E-3</v>
       </c>
       <c r="FP9">
-        <v>-2.8544417584209301E-2</v>
+        <v>-7.9722047674148592E-3</v>
       </c>
       <c r="FQ9">
-        <v>-2.8418978819570201E-2</v>
+        <v>-8.0079609719042096E-3</v>
       </c>
       <c r="FR9">
-        <v>-2.8187958544666599E-2</v>
+        <v>-7.8996061224385905E-3</v>
       </c>
       <c r="FS9">
-        <v>-2.8043867201014101E-2</v>
+        <v>-7.8490689720310397E-3</v>
       </c>
       <c r="FT9">
-        <v>-2.7868426154135699E-2</v>
+        <v>-7.8071106146660801E-3</v>
       </c>
       <c r="FU9">
-        <v>-2.7755706384490299E-2</v>
+        <v>-7.6770446571358198E-3</v>
       </c>
       <c r="FV9">
-        <v>-2.75772174544139E-2</v>
+        <v>-7.6771006731861597E-3</v>
       </c>
       <c r="FW9">
-        <v>-2.7465008698412698E-2</v>
+        <v>-7.6532082937099998E-3</v>
       </c>
       <c r="FX9">
-        <v>-2.73836657147766E-2</v>
+        <v>-7.5679537645551203E-3</v>
       </c>
       <c r="FY9">
-        <v>-2.7112407188075501E-2</v>
+        <v>-7.5651001406062002E-3</v>
       </c>
       <c r="FZ9">
-        <v>-2.70181730333354E-2</v>
+        <v>-7.5004299384680102E-3</v>
       </c>
       <c r="GA9">
-        <v>-2.6779570468511999E-2</v>
+        <v>-7.4332174282244704E-3</v>
       </c>
       <c r="GB9">
-        <v>-2.6615968074501801E-2</v>
+        <v>-7.4109391947419102E-3</v>
       </c>
       <c r="GC9">
-        <v>-2.64457842154905E-2</v>
+        <v>-7.2775405876057903E-3</v>
       </c>
       <c r="GD9">
-        <v>-2.6331769460897901E-2</v>
+        <v>-7.2840640684787503E-3</v>
       </c>
       <c r="GE9">
-        <v>-2.6224730911259601E-2</v>
+        <v>-7.0848629904620699E-3</v>
       </c>
       <c r="GF9">
-        <v>-2.61593735013958E-2</v>
+        <v>-7.1850996963362303E-3</v>
       </c>
       <c r="GG9">
-        <v>-2.6067444409413599E-2</v>
+        <v>-7.1282145263702398E-3</v>
       </c>
       <c r="GH9">
-        <v>-2.60242659208107E-2</v>
+        <v>-7.0585691827615401E-3</v>
       </c>
       <c r="GI9">
-        <v>-2.5688371877163399E-2</v>
+        <v>-7.0938438646777199E-3</v>
       </c>
       <c r="GJ9">
-        <v>-2.58143597419122E-2</v>
+        <v>-7.0101660106962E-3</v>
       </c>
       <c r="GK9">
-        <v>-2.5627375982710501E-2</v>
+        <v>-6.8746829648053103E-3</v>
       </c>
       <c r="GL9">
-        <v>-2.5514523761181102E-2</v>
+        <v>-6.9167430447380296E-3</v>
       </c>
       <c r="GM9">
-        <v>-2.53743307973224E-2</v>
+        <v>-6.8774691827904102E-3</v>
       </c>
       <c r="GN9">
-        <v>-2.5106364986299201E-2</v>
+        <v>-6.7934091663660904E-3</v>
       </c>
       <c r="GO9">
-        <v>-2.4990822732139199E-2</v>
+        <v>-6.7998014741153601E-3</v>
       </c>
       <c r="GP9">
-        <v>-2.4983161014051999E-2</v>
+        <v>-6.7011752598139804E-3</v>
       </c>
       <c r="GQ9">
-        <v>-2.4751233517379401E-2</v>
+        <v>-6.6603391298898197E-3</v>
       </c>
       <c r="GR9">
-        <v>-2.4747212664137701E-2</v>
+        <v>-6.6285913419983503E-3</v>
       </c>
       <c r="GS9">
-        <v>-2.4493441173847299E-2</v>
+        <v>-6.5800584921709296E-3</v>
       </c>
       <c r="GT9">
-        <v>-2.44650349446443E-2</v>
+        <v>-6.50550558357857E-3</v>
       </c>
       <c r="GU9">
-        <v>-2.4453234821161698E-2</v>
+        <v>-6.48918506138043E-3</v>
       </c>
       <c r="GV9">
-        <v>-2.4479987443506299E-2</v>
+        <v>-6.4102016027308599E-3</v>
       </c>
       <c r="GW9">
-        <v>-2.4391569625274299E-2</v>
+        <v>-6.3779361138004498E-3</v>
       </c>
       <c r="GX9">
-        <v>-2.4435629696921299E-2</v>
+        <v>-6.3486807026583696E-3</v>
       </c>
       <c r="GY9">
-        <v>-2.44510732844027E-2</v>
+        <v>-6.2789876023319801E-3</v>
       </c>
       <c r="GZ9">
-        <v>-2.43370246066743E-2</v>
+        <v>-6.1856082959428496E-3</v>
       </c>
       <c r="HA9">
-        <v>-2.4411634315955999E-2</v>
+        <v>-6.1691967557550098E-3</v>
       </c>
       <c r="HB9">
-        <v>-2.4522908176732298E-2</v>
+        <v>-6.0958918620063196E-3</v>
       </c>
       <c r="HC9">
-        <v>-2.4382189733390399E-2</v>
+        <v>-6.0094791016787998E-3</v>
       </c>
       <c r="HD9">
-        <v>-2.4408487703877501E-2</v>
+        <v>-5.9349166672138598E-3</v>
       </c>
       <c r="HE9">
-        <v>-2.4260925254341901E-2</v>
+        <v>-5.9235251773632897E-3</v>
       </c>
       <c r="HF9">
-        <v>-2.4366319607422499E-2</v>
+        <v>-5.9137518890051101E-3</v>
       </c>
       <c r="HG9">
-        <v>-2.4200568079226499E-2</v>
+        <v>-5.7706068055864198E-3</v>
       </c>
       <c r="HH9">
-        <v>-2.40717626376276E-2</v>
+        <v>-5.7081388068313203E-3</v>
       </c>
       <c r="HI9">
-        <v>-2.3840168031305099E-2</v>
+        <v>-5.6995644435909199E-3</v>
       </c>
       <c r="HJ9">
-        <v>-2.3674149219047799E-2</v>
+        <v>-5.6114084044901202E-3</v>
       </c>
       <c r="HK9">
-        <v>-2.34823613367161E-2</v>
+        <v>-5.6797609135289702E-3</v>
       </c>
       <c r="HL9">
-        <v>-2.3187787733123799E-2</v>
+        <v>-5.6429204735929097E-3</v>
       </c>
       <c r="HM9">
-        <v>-2.2985258732204701E-2</v>
+        <v>-5.4367486212134296E-3</v>
       </c>
       <c r="HN9">
-        <v>-2.2910532072715699E-2</v>
+        <v>-5.4645932611506499E-3</v>
       </c>
       <c r="HO9">
-        <v>-2.2794112720884899E-2</v>
+        <v>-5.4674345586052699E-3</v>
       </c>
       <c r="HP9">
-        <v>-2.2651880708908299E-2</v>
+        <v>-5.4600905400678098E-3</v>
       </c>
       <c r="HQ9">
-        <v>-2.2506193692550799E-2</v>
+        <v>-5.4499881328292201E-3</v>
       </c>
       <c r="HR9">
-        <v>-2.2518858306914798E-2</v>
+        <v>-5.1899856142518996E-3</v>
       </c>
       <c r="HS9">
-        <v>-2.2244504536473898E-2</v>
+        <v>-5.2343084237521801E-3</v>
       </c>
       <c r="HT9">
-        <v>-2.2190045486377898E-2</v>
+        <v>-5.0819717072453103E-3</v>
       </c>
       <c r="HU9">
-        <v>-2.1984883627862099E-2</v>
+        <v>-5.1562858669251402E-3</v>
       </c>
       <c r="HV9">
-        <v>-2.1749635770339299E-2</v>
+        <v>-5.0683989908179199E-3</v>
       </c>
       <c r="HW9">
-        <v>-2.1397254214508901E-2</v>
+        <v>-5.0702134753290596E-3</v>
       </c>
       <c r="HX9">
-        <v>-2.1074272827165098E-2</v>
+        <v>-5.0451216376879602E-3</v>
       </c>
       <c r="HY9">
-        <v>-2.0820349346327299E-2</v>
+        <v>-4.9346554946177699E-3</v>
       </c>
       <c r="HZ9">
-        <v>-2.0703122334699599E-2</v>
+        <v>-4.90883390995082E-3</v>
       </c>
       <c r="IA9">
-        <v>-2.0524690536220601E-2</v>
+        <v>-4.9446597870044604E-3</v>
       </c>
       <c r="IB9">
-        <v>-2.0490698032692E-2</v>
+        <v>-4.7583832626956497E-3</v>
       </c>
       <c r="IC9">
-        <v>-2.0556183145226298E-2</v>
+        <v>-4.7884595180463403E-3</v>
       </c>
       <c r="ID9">
-        <v>-2.0616605941190799E-2</v>
+        <v>-4.7155743839517204E-3</v>
       </c>
       <c r="IE9">
-        <v>-2.0622861678087301E-2</v>
+        <v>-4.6252298405548503E-3</v>
       </c>
       <c r="IF9">
-        <v>-2.05713064507471E-2</v>
+        <v>-4.56315194119453E-3</v>
       </c>
       <c r="IG9">
-        <v>-2.0641033734096599E-2</v>
+        <v>-4.5998240009859402E-3</v>
       </c>
       <c r="IH9">
-        <v>-2.0661260419854902E-2</v>
+        <v>-4.4670742792774004E-3</v>
       </c>
       <c r="II9">
-        <v>-2.0751491238198101E-2</v>
+        <v>-4.4407102287546598E-3</v>
       </c>
       <c r="IJ9">
-        <v>-2.0755236069183201E-2</v>
+        <v>-4.3350706847904699E-3</v>
       </c>
       <c r="IK9">
-        <v>-2.0678313860533998E-2</v>
+        <v>-4.3323280945446897E-3</v>
       </c>
       <c r="IL9">
-        <v>-2.07723094963E-2</v>
+        <v>-4.3164902482625703E-3</v>
       </c>
       <c r="IM9">
-        <v>-2.0780334728603099E-2</v>
+        <v>-4.1510757341648302E-3</v>
       </c>
       <c r="IN9">
-        <v>-2.0793228568941599E-2</v>
+        <v>-4.1162098705258797E-3</v>
       </c>
       <c r="IO9">
-        <v>-2.0857273982972602E-2</v>
+        <v>-4.0172541561636103E-3</v>
       </c>
       <c r="IP9">
-        <v>-2.0858529908178599E-2</v>
+        <v>-3.9783676904727502E-3</v>
       </c>
       <c r="IQ9">
-        <v>-2.0548723731929699E-2</v>
+        <v>-3.9943909215894198E-3</v>
       </c>
       <c r="IR9">
-        <v>-2.0313836228364499E-2</v>
+        <v>-3.9207874653121397E-3</v>
       </c>
       <c r="IS9">
-        <v>-2.00335587936206E-2</v>
+        <v>-3.8422632337749099E-3</v>
       </c>
       <c r="IT9">
-        <v>-1.9750377755739401E-2</v>
+        <v>-3.8364731672615999E-3</v>
       </c>
       <c r="IU9">
-        <v>-1.9628830732403599E-2</v>
+        <v>-3.7876723859995502E-3</v>
       </c>
       <c r="IV9">
-        <v>-1.95969966657734E-2</v>
+        <v>-3.8181707607606499E-3</v>
       </c>
       <c r="IW9">
-        <v>-1.9665267121753E-2</v>
+        <v>-3.7048295500137999E-3</v>
       </c>
       <c r="IX9">
-        <v>-1.9607758833392299E-2</v>
+        <v>-3.6684492811941399E-3</v>
       </c>
       <c r="IY9">
-        <v>-1.9606144311956699E-2</v>
+        <v>-3.6570633243660699E-3</v>
       </c>
       <c r="IZ9">
-        <v>-1.9644487134530798E-2</v>
+        <v>-3.68462265528111E-3</v>
       </c>
       <c r="JA9">
-        <v>-1.9462036575539E-2</v>
+        <v>-3.6048764893805299E-3</v>
       </c>
       <c r="JB9">
-        <v>-1.9448600225790799E-2</v>
+        <v>-3.5335486242785699E-3</v>
       </c>
       <c r="JC9">
-        <v>-1.9368885746808801E-2</v>
+        <v>-3.4857817055679099E-3</v>
       </c>
       <c r="JD9">
-        <v>-1.9348937001548699E-2</v>
+        <v>-3.46883055862826E-3</v>
       </c>
       <c r="JE9">
-        <v>-1.9298877492350399E-2</v>
+        <v>-3.4214164423130699E-3</v>
       </c>
       <c r="JF9">
-        <v>-1.91417009245444E-2</v>
+        <v>-3.4146132596797798E-3</v>
       </c>
       <c r="JG9">
-        <v>-1.9008933501199199E-2</v>
+        <v>-3.34048051526082E-3</v>
       </c>
       <c r="JH9">
-        <v>-1.8855703939135701E-2</v>
+        <v>-3.3750731156893302E-3</v>
       </c>
       <c r="JI9">
-        <v>-1.8633502158637801E-2</v>
+        <v>-3.3220928750446101E-3</v>
       </c>
       <c r="JJ9">
-        <v>-1.8599780685758099E-2</v>
+        <v>-3.2902574700177799E-3</v>
       </c>
       <c r="JK9">
-        <v>-1.8414640604242E-2</v>
+        <v>-3.20858141901604E-3</v>
       </c>
       <c r="JL9">
-        <v>-1.83072181994413E-2</v>
+        <v>-3.3025852038062299E-3</v>
       </c>
       <c r="JM9">
-        <v>-1.8112774725510698E-2</v>
+        <v>-3.19710114493966E-3</v>
       </c>
       <c r="JN9">
-        <v>-1.80158086962104E-2</v>
+        <v>-3.2722871564481999E-3</v>
       </c>
       <c r="JO9">
-        <v>-1.80159464536012E-2</v>
+        <v>-3.0924687959852401E-3</v>
       </c>
       <c r="JP9">
-        <v>-1.7885207113574001E-2</v>
+        <v>-3.0705637698068798E-3</v>
       </c>
       <c r="JQ9">
-        <v>-1.77067831332097E-2</v>
+        <v>-3.1266654385329901E-3</v>
       </c>
       <c r="JR9">
-        <v>-1.7743502183512901E-2</v>
+        <v>-3.1013641993393199E-3</v>
       </c>
       <c r="JS9">
-        <v>-1.77669673578221E-2</v>
+        <v>-2.9717674743390899E-3</v>
       </c>
       <c r="JT9">
-        <v>-1.7615259578382302E-2</v>
+        <v>-3.0462938662773999E-3</v>
       </c>
       <c r="JU9">
-        <v>-1.74639543474489E-2</v>
+        <v>-2.91101387644877E-3</v>
       </c>
       <c r="JV9">
-        <v>-1.75253474646445E-2</v>
+        <v>-3.0292697268815599E-3</v>
       </c>
       <c r="JW9">
-        <v>-1.7408868599676799E-2</v>
+        <v>-2.9232175936194098E-3</v>
       </c>
       <c r="JX9">
-        <v>-1.72918957050428E-2</v>
+        <v>-2.8884698485899898E-3</v>
       </c>
       <c r="JY9">
-        <v>-1.7321869497984699E-2</v>
+        <v>-2.92539078069344E-3</v>
       </c>
       <c r="JZ9">
-        <v>-1.7325897903712001E-2</v>
+        <v>-2.87101158697072E-3</v>
       </c>
       <c r="KA9">
-        <v>-1.72567984529035E-2</v>
+        <v>-2.8652088605657E-3</v>
       </c>
       <c r="KB9">
-        <v>-1.7188428169618401E-2</v>
+        <v>-2.8172265776091202E-3</v>
       </c>
       <c r="KC9">
-        <v>-1.72774233244305E-2</v>
+        <v>-2.7939771270359399E-3</v>
       </c>
       <c r="KD9">
-        <v>-1.7231486196536201E-2</v>
+        <v>-2.7285367521284699E-3</v>
       </c>
       <c r="KE9">
-        <v>-1.7245309186957301E-2</v>
+        <v>-2.7567636480010098E-3</v>
       </c>
       <c r="KF9">
-        <v>-1.71121896778119E-2</v>
+        <v>-2.8009882737618E-3</v>
       </c>
       <c r="KG9">
-        <v>-1.70993538441571E-2</v>
+        <v>-2.7165666600906802E-3</v>
       </c>
       <c r="KH9">
-        <v>-1.7164513117444099E-2</v>
+        <v>-2.7524136726884002E-3</v>
       </c>
       <c r="KI9">
-        <v>-1.6986589658166001E-2</v>
+        <v>-2.65492974034965E-3</v>
       </c>
       <c r="KJ9">
-        <v>-1.7060004549714E-2</v>
+        <v>-2.7527500550290399E-3</v>
       </c>
       <c r="KK9">
-        <v>-1.7037315290699601E-2</v>
+        <v>-2.6966138003821499E-3</v>
       </c>
       <c r="KL9">
-        <v>-1.6954043763981901E-2</v>
+        <v>-2.6069030780176698E-3</v>
       </c>
       <c r="KM9">
-        <v>-1.68768462776431E-2</v>
+        <v>-2.5581586880213001E-3</v>
       </c>
       <c r="KN9">
-        <v>-1.6851499411517399E-2</v>
+        <v>-2.6137688471127001E-3</v>
       </c>
       <c r="KO9">
-        <v>-1.6772858085282401E-2</v>
+        <v>-2.6598644978194099E-3</v>
       </c>
       <c r="KP9">
-        <v>-1.6732301377951501E-2</v>
+        <v>-2.45840899399758E-3</v>
       </c>
       <c r="KQ9">
-        <v>-1.6628417056380702E-2</v>
+        <v>-2.4833182969499E-3</v>
       </c>
       <c r="KR9">
-        <v>-1.6592653161835402E-2</v>
+        <v>-2.6153774151179E-3</v>
       </c>
       <c r="KS9">
-        <v>-1.65311042998516E-2</v>
+        <v>-2.5895827772848398E-3</v>
       </c>
       <c r="KT9">
-        <v>-1.63441182624522E-2</v>
+        <v>-2.5587012386770499E-3</v>
       </c>
       <c r="KU9">
-        <v>-1.6340071432454899E-2</v>
+        <v>-2.4916306344053198E-3</v>
       </c>
       <c r="KV9">
-        <v>-1.6331894357018699E-2</v>
+        <v>-2.4882209671096898E-3</v>
       </c>
       <c r="KW9">
-        <v>-1.62713198623935E-2</v>
+        <v>-2.5245437683614098E-3</v>
       </c>
       <c r="KX9">
-        <v>-1.62792359089193E-2</v>
+        <v>-2.5198866172438999E-3</v>
       </c>
       <c r="KY9">
-        <v>-1.6237680033098102E-2</v>
+        <v>-2.5616531352529799E-3</v>
       </c>
       <c r="KZ9">
-        <v>-1.6173406439033401E-2</v>
+        <v>-2.5088730004055701E-3</v>
       </c>
       <c r="LA9">
-        <v>-1.6234875951985701E-2</v>
+        <v>-2.4286761114514898E-3</v>
       </c>
       <c r="LB9">
-        <v>-1.6149583763566101E-2</v>
+        <v>-2.5442776343364598E-3</v>
       </c>
       <c r="LC9">
-        <v>-1.6086400249519298E-2</v>
+        <v>-2.4890802568945801E-3</v>
       </c>
       <c r="LD9">
-        <v>-1.61369917718895E-2</v>
+        <v>-2.5070878862190702E-3</v>
       </c>
       <c r="LE9">
-        <v>-1.6148825606676701E-2</v>
+        <v>-2.4897238589612698E-3</v>
       </c>
       <c r="LF9">
-        <v>-1.6171066290093301E-2</v>
+        <v>-2.4713654096088201E-3</v>
       </c>
       <c r="LG9">
-        <v>-1.6076200203922E-2</v>
+        <v>-2.35643237956755E-3</v>
       </c>
       <c r="LH9">
-        <v>-1.6054768710716701E-2</v>
+        <v>-2.3733269671020601E-3</v>
       </c>
       <c r="LI9">
-        <v>-1.59658508143628E-2</v>
+        <v>-2.3010925648339299E-3</v>
       </c>
       <c r="LJ9">
-        <v>-1.6080074508907E-2</v>
+        <v>-2.28664351561364E-3</v>
       </c>
       <c r="LK9">
-        <v>-1.6098453506315901E-2</v>
+        <v>-2.2945871904190601E-3</v>
       </c>
       <c r="LL9">
-        <v>-1.6037045192888202E-2</v>
+        <v>-2.35300751030618E-3</v>
       </c>
       <c r="LM9">
-        <v>-1.6053152043018801E-2</v>
+        <v>-2.2727642371230101E-3</v>
       </c>
       <c r="LN9">
-        <v>-1.6008301493088802E-2</v>
+        <v>-2.3400266669050501E-3</v>
       </c>
       <c r="LO9">
-        <v>-1.5902027382855601E-2</v>
+        <v>-2.2695874970302499E-3</v>
       </c>
       <c r="LP9">
-        <v>-1.59047386932239E-2</v>
+        <v>-2.2350455219850899E-3</v>
       </c>
       <c r="LQ9">
-        <v>-1.59020347189908E-2</v>
+        <v>-2.2423531793481898E-3</v>
       </c>
       <c r="LR9">
-        <v>-1.58150457977373E-2</v>
+        <v>-2.30747808319411E-3</v>
       </c>
       <c r="LS9">
-        <v>-1.57264941815159E-2</v>
+        <v>-2.2473488824886201E-3</v>
       </c>
       <c r="LT9">
-        <v>-1.57603375187324E-2</v>
+        <v>-2.2191304741563801E-3</v>
       </c>
       <c r="LU9">
-        <v>-1.5677690751515899E-2</v>
+        <v>-2.2444666793412001E-3</v>
       </c>
       <c r="LV9">
-        <v>-1.55715680809677E-2</v>
+        <v>-2.1982620833200699E-3</v>
       </c>
       <c r="LW9">
-        <v>-1.54950492207542E-2</v>
+        <v>-2.1826361367645901E-3</v>
       </c>
       <c r="LX9">
-        <v>-1.5439304167495199E-2</v>
+        <v>-2.2039814602228501E-3</v>
       </c>
       <c r="LY9">
-        <v>-1.5536713654144701E-2</v>
+        <v>-2.1247486717398999E-3</v>
       </c>
       <c r="LZ9">
-        <v>-1.55443052112716E-2</v>
+        <v>-2.0997390178690502E-3</v>
       </c>
       <c r="MA9">
-        <v>-1.54922469141562E-2</v>
+        <v>-2.2068313583308999E-3</v>
       </c>
       <c r="MB9">
-        <v>-1.54021409378618E-2</v>
+        <v>-2.1394451502588199E-3</v>
       </c>
       <c r="MC9">
-        <v>-1.54755242215814E-2</v>
+        <v>-2.2235839228095799E-3</v>
       </c>
       <c r="MD9">
-        <v>-1.52989023603227E-2</v>
+        <v>-2.1390955005813001E-3</v>
       </c>
       <c r="ME9">
-        <v>-1.52490169274944E-2</v>
+        <v>-2.0303732641940402E-3</v>
       </c>
       <c r="MF9">
-        <v>-1.52051051466181E-2</v>
+        <v>-2.0726131468035698E-3</v>
       </c>
       <c r="MG9">
-        <v>-1.5368117175382201E-2</v>
+        <v>-2.1924025027702599E-3</v>
       </c>
       <c r="MH9">
-        <v>-1.52019378545151E-2</v>
+        <v>-2.1325899297958101E-3</v>
       </c>
       <c r="MI9">
-        <v>-1.53000088228384E-2</v>
+        <v>-2.0282188135429999E-3</v>
       </c>
       <c r="MJ9">
-        <v>-1.5190809586346599E-2</v>
+        <v>-2.0847510961355901E-3</v>
       </c>
       <c r="MK9">
-        <v>-1.5224123908354901E-2</v>
+        <v>-2.0402562457153802E-3</v>
       </c>
       <c r="ML9">
-        <v>-1.52112648556956E-2</v>
+        <v>-2.1107200873573101E-3</v>
       </c>
       <c r="MM9">
-        <v>-1.5242562340939099E-2</v>
+        <v>-2.0737581732585301E-3</v>
       </c>
       <c r="MN9">
-        <v>-1.5164686131305999E-2</v>
+        <v>-2.1476247999565202E-3</v>
       </c>
       <c r="MO9">
-        <v>-1.52686990977063E-2</v>
+        <v>-2.0684272526816099E-3</v>
       </c>
       <c r="MP9">
-        <v>-1.51220587082544E-2</v>
+        <v>-2.1273413043617598E-3</v>
       </c>
       <c r="MQ9">
-        <v>-1.52467200686064E-2</v>
+        <v>-1.9777192865255699E-3</v>
       </c>
       <c r="MR9">
-        <v>-1.51873783425711E-2</v>
+        <v>-2.0453947700340399E-3</v>
       </c>
       <c r="MS9">
-        <v>-1.52149872926073E-2</v>
+        <v>-2.0268349555334999E-3</v>
       </c>
       <c r="MT9">
-        <v>-1.53012821366936E-2</v>
+        <v>-1.9888609502989102E-3</v>
       </c>
       <c r="MU9">
-        <v>-1.5200452448353901E-2</v>
+        <v>-2.0182711632174698E-3</v>
       </c>
       <c r="MV9">
-        <v>-1.5216514012754E-2</v>
+        <v>-1.9595948782962802E-3</v>
       </c>
       <c r="MW9">
-        <v>-1.5287292793115999E-2</v>
+        <v>-2.0324140438034602E-3</v>
       </c>
       <c r="MX9">
-        <v>-1.51329299810822E-2</v>
+        <v>-1.9344837697243E-3</v>
       </c>
       <c r="MY9">
-        <v>-1.5198504116278599E-2</v>
+        <v>-2.0444077210984199E-3</v>
       </c>
       <c r="MZ9">
-        <v>-1.51400184634839E-2</v>
+        <v>-1.9585622127447199E-3</v>
       </c>
       <c r="NA9">
-        <v>-1.51459965690607E-2</v>
+        <v>-2.0004038537739699E-3</v>
       </c>
       <c r="NB9">
-        <v>-1.5195354278584001E-2</v>
+        <v>-2.0636276176782399E-3</v>
       </c>
       <c r="NC9">
-        <v>-1.51285973144834E-2</v>
+        <v>-2.0536292039121198E-3</v>
       </c>
       <c r="ND9">
-        <v>-1.50364648008616E-2</v>
+        <v>-1.87993477252804E-3</v>
       </c>
       <c r="NE9">
-        <v>-1.4980122878412201E-2</v>
+        <v>-1.9461611822570899E-3</v>
       </c>
       <c r="NF9">
-        <v>-1.4940169481332701E-2</v>
+        <v>-1.9206816304995599E-3</v>
       </c>
       <c r="NG9">
-        <v>-1.47645667948989E-2</v>
+        <v>-1.83660526200577E-3</v>
       </c>
       <c r="NH9">
-        <v>-1.46923467240491E-2</v>
+        <v>-1.9317917713958801E-3</v>
       </c>
       <c r="NI9">
-        <v>-1.46940435629517E-2</v>
+        <v>-1.9140809706530201E-3</v>
       </c>
       <c r="NJ9">
-        <v>-1.45157078692772E-2</v>
+        <v>-1.87388887436779E-3</v>
       </c>
       <c r="NK9">
-        <v>-1.4484129523562201E-2</v>
+        <v>-1.8738640338977299E-3</v>
       </c>
       <c r="NL9">
-        <v>-1.449779616907E-2</v>
+        <v>-1.74633483890789E-3</v>
       </c>
       <c r="NM9">
-        <v>-1.4360632519036499E-2</v>
+        <v>-1.77313918434924E-3</v>
       </c>
       <c r="NN9">
-        <v>-1.43453473553488E-2</v>
+        <v>-1.8645354133827699E-3</v>
       </c>
       <c r="NO9">
-        <v>-1.4326738231673601E-2</v>
+        <v>-1.7663329606257901E-3</v>
       </c>
       <c r="NP9">
-        <v>-1.41692817859715E-2</v>
+        <v>-1.7813544077255601E-3</v>
       </c>
       <c r="NQ9">
-        <v>-1.4209431990680201E-2</v>
+        <v>-1.84483481732297E-3</v>
       </c>
       <c r="NR9">
-        <v>-1.4066224839951499E-2</v>
+        <v>-1.8423861560500801E-3</v>
       </c>
       <c r="NS9">
-        <v>-1.40291679352623E-2</v>
+        <v>-1.75900458482228E-3</v>
       </c>
       <c r="NT9">
-        <v>-1.39187170021961E-2</v>
+        <v>-1.77230890681185E-3</v>
       </c>
       <c r="NU9">
-        <v>-1.39649120753991E-2</v>
+        <v>-1.7387167382869799E-3</v>
       </c>
       <c r="NV9">
-        <v>-1.3922199207097899E-2</v>
+        <v>-1.8367465334605999E-3</v>
       </c>
       <c r="NW9">
-        <v>-1.3755582074929801E-2</v>
+        <v>-1.7401476162062499E-3</v>
       </c>
       <c r="NX9">
-        <v>-1.3738966724908999E-2</v>
+        <v>-1.73742468660579E-3</v>
       </c>
       <c r="NY9">
-        <v>-1.3617285455192999E-2</v>
+        <v>-1.71526878568397E-3</v>
       </c>
       <c r="NZ9">
-        <v>-1.3570413756421301E-2</v>
+        <v>-1.80143370868418E-3</v>
       </c>
       <c r="OA9">
-        <v>-1.3504095509148901E-2</v>
+        <v>-1.7244417459084201E-3</v>
       </c>
       <c r="OB9">
-        <v>-1.35439643788229E-2</v>
+        <v>-1.6707037379935E-3</v>
       </c>
       <c r="OC9">
-        <v>-1.33716493120006E-2</v>
+        <v>-1.75410452698086E-3</v>
       </c>
       <c r="OD9">
-        <v>-1.32485755553476E-2</v>
+        <v>-1.74860468030442E-3</v>
       </c>
       <c r="OE9">
-        <v>-1.32915817714418E-2</v>
+        <v>-1.69853838366169E-3</v>
       </c>
       <c r="OF9">
-        <v>-1.32122214478828E-2</v>
+        <v>-1.6869568072070901E-3</v>
       </c>
       <c r="OG9">
-        <v>-1.30565171174108E-2</v>
+        <v>-1.7853387382465401E-3</v>
       </c>
       <c r="OH9">
-        <v>-1.29685743753349E-2</v>
+        <v>-1.7055372064677099E-3</v>
       </c>
       <c r="OI9">
-        <v>-1.28758352183599E-2</v>
+        <v>-1.65791263426149E-3</v>
       </c>
       <c r="OJ9">
-        <v>-1.2901384459987999E-2</v>
+        <v>-1.7277791559050599E-3</v>
       </c>
       <c r="OK9">
-        <v>-1.25797397915465E-2</v>
+        <v>-1.7585004100835399E-3</v>
       </c>
       <c r="OL9">
-        <v>-1.25786853374572E-2</v>
+        <v>-1.6452164806614301E-3</v>
       </c>
       <c r="OM9">
-        <v>-1.25224490643142E-2</v>
+        <v>-1.56571561583528E-3</v>
       </c>
       <c r="ON9">
-        <v>-1.22629417859556E-2</v>
+        <v>-1.5592166831515199E-3</v>
       </c>
       <c r="OO9">
-        <v>-1.22871406466902E-2</v>
+        <v>-1.65090590406474E-3</v>
       </c>
       <c r="OP9">
-        <v>-1.22646154285694E-2</v>
+        <v>-1.70893168983492E-3</v>
       </c>
       <c r="OQ9">
-        <v>-1.1971339858821199E-2</v>
+        <v>-1.5551463476798299E-3</v>
       </c>
       <c r="OR9">
-        <v>-1.1912292557325699E-2</v>
+        <v>-1.58223719974536E-3</v>
       </c>
       <c r="OS9">
-        <v>-1.17553610361457E-2</v>
+        <v>-1.6129296554537301E-3</v>
       </c>
       <c r="OT9">
-        <v>-1.1649661797269201E-2</v>
+        <v>-1.5940836285945801E-3</v>
       </c>
       <c r="OU9">
-        <v>-1.1394472958060699E-2</v>
+        <v>-1.57636634139696E-3</v>
       </c>
       <c r="OV9">
-        <v>-1.14187176283358E-2</v>
+        <v>-1.54336035943557E-3</v>
       </c>
       <c r="OW9">
-        <v>-1.11336803909353E-2</v>
+        <v>-1.67056509153757E-3</v>
       </c>
       <c r="OX9">
-        <v>-1.0853643478013699E-2</v>
+        <v>-1.5848455520762401E-3</v>
       </c>
       <c r="OY9">
-        <v>-1.0658222915034999E-2</v>
+        <v>-1.55199100802583E-3</v>
       </c>
       <c r="OZ9">
-        <v>-1.05421610253526E-2</v>
+        <v>-1.5320014170169701E-3</v>
       </c>
       <c r="PA9">
-        <v>-1.0339229254019E-2</v>
+        <v>-1.50514594249125E-3</v>
       </c>
       <c r="PB9">
-        <v>-1.0226699907602801E-2</v>
+        <v>-1.553410928833E-3</v>
       </c>
       <c r="PC9">
-        <v>-1.00705577642162E-2</v>
+        <v>-1.62777871331973E-3</v>
       </c>
       <c r="PD9">
-        <v>-9.8737526206100802E-3</v>
+        <v>-1.56237840206608E-3</v>
       </c>
       <c r="PE9">
-        <v>-9.7742431636731204E-3</v>
+        <v>-1.5309145553389001E-3</v>
       </c>
       <c r="PF9">
-        <v>-9.6110821266699592E-3</v>
+        <v>-1.62270821048171E-3</v>
       </c>
       <c r="PG9">
-        <v>-9.4800809702308992E-3</v>
+        <v>-1.5354404003127999E-3</v>
       </c>
       <c r="PH9">
-        <v>-9.2723216472067899E-3</v>
+        <v>-1.46433270422968E-3</v>
       </c>
       <c r="PI9">
-        <v>-9.1457233560255299E-3</v>
+        <v>-1.4644372749569401E-3</v>
       </c>
       <c r="PJ9">
-        <v>-9.0476616452939591E-3</v>
+        <v>-1.46959181811762E-3</v>
       </c>
       <c r="PK9">
-        <v>-8.6989672358011704E-3</v>
+        <v>-1.4306623951870199E-3</v>
       </c>
       <c r="PL9">
-        <v>-8.8186832263644696E-3</v>
+        <v>-1.5042667886842899E-3</v>
       </c>
       <c r="PM9">
-        <v>-8.6082174898977192E-3</v>
+        <v>-1.5328197408003301E-3</v>
       </c>
       <c r="PN9">
-        <v>-8.5544152064994591E-3</v>
+        <v>-1.51820666257931E-3</v>
       </c>
       <c r="PO9">
-        <v>-8.4267625708398797E-3</v>
+        <v>-1.50225642992529E-3</v>
       </c>
       <c r="PP9">
-        <v>-8.3920568051524501E-3</v>
+        <v>-1.4893416256174E-3</v>
       </c>
       <c r="PQ9">
-        <v>-8.1172289932957397E-3</v>
+        <v>-1.51261486629941E-3</v>
       </c>
       <c r="PR9">
-        <v>-8.0678057435073901E-3</v>
+        <v>-1.41614027265703E-3</v>
       </c>
       <c r="PS9">
-        <v>-7.91858434689292E-3</v>
+        <v>-1.3662976629089101E-3</v>
       </c>
       <c r="PT9">
-        <v>-7.7339031452406098E-3</v>
+        <v>-1.38788873256623E-3</v>
       </c>
       <c r="PU9">
-        <v>-7.60980204300648E-3</v>
+        <v>-1.45236916829292E-3</v>
       </c>
       <c r="PV9">
-        <v>-7.5045796152489004E-3</v>
+        <v>-1.5135916613101799E-3</v>
       </c>
       <c r="PW9">
-        <v>-7.4871465953501998E-3</v>
+        <v>-1.47751603418866E-3</v>
       </c>
       <c r="PX9">
-        <v>-7.40688400094827E-3</v>
+        <v>-1.33320697892673E-3</v>
       </c>
       <c r="PY9">
-        <v>-7.30616003974745E-3</v>
+        <v>-1.3778599995394999E-3</v>
       </c>
       <c r="PZ9">
-        <v>-7.1392107476214196E-3</v>
+        <v>-1.4358326862397199E-3</v>
       </c>
       <c r="QA9">
-        <v>-6.9786732891633698E-3</v>
+        <v>-1.4625911611030799E-3</v>
       </c>
       <c r="QB9">
-        <v>-6.9249459687766596E-3</v>
+        <v>-1.4694954566540699E-3</v>
       </c>
       <c r="QC9">
-        <v>-6.9092759605291496E-3</v>
+        <v>-1.44934098555881E-3</v>
       </c>
       <c r="QD9">
-        <v>-6.8364514408090302E-3</v>
+        <v>-1.4721857305681301E-3</v>
       </c>
       <c r="QE9">
-        <v>-6.8887403150293802E-3</v>
+        <v>-1.4689131674050101E-3</v>
       </c>
       <c r="QF9">
-        <v>-6.6594241629971598E-3</v>
+        <v>-1.48046593316782E-3</v>
       </c>
       <c r="QG9">
-        <v>-6.50051688992365E-3</v>
+        <v>-1.4977897040169301E-3</v>
       </c>
       <c r="QH9">
-        <v>-6.41667402307264E-3</v>
+        <v>-1.6204564448026901E-3</v>
       </c>
       <c r="QI9">
-        <v>-6.2591118637998801E-3</v>
+        <v>-1.4991508271916E-3</v>
       </c>
       <c r="QJ9">
-        <v>-6.1652685817802696E-3</v>
+        <v>-1.5653151197731899E-3</v>
       </c>
     </row>
   </sheetData>
